--- a/Planilha Ajustada.xlsx
+++ b/Planilha Ajustada.xlsx
@@ -520,7 +520,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SBC</t>
+          <t>sbc</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -562,7 +562,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>SINAPI-C</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>sinapi</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -670,7 +670,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>SINAPI-I</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>sinapi-i</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">

--- a/Planilha Ajustada.xlsx
+++ b/Planilha Ajustada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J160"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,5943 +434,5467 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Item</t>
+          <t>Código</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Código</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Descrição</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Descrição</t>
+          <t>Und</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Und</t>
+          <t>Quant.</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Quant.</t>
+          <t>Valor Unit</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Valor Unit</t>
+          <t>Valor Unit com BDI</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Valor Unit com BDI</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
           <t>Total</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>SERVIÇOS PRELIMINARES</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="n">
+      <c r="I2" t="n">
         <v>127600.4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1.1.1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 000662 </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SBC</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>PLACA DE OBRAS COM BANNER DE LONA 80X120CM</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1.1.1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 000662 </t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>sbc</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>PLACA DE OBRAS COM BANNER DE LONA 80X120CM</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>um</t>
-        </is>
-      </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>64.90000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="J3" t="n">
         <v>389.4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1.2.1.3</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.2.1.3</t>
+          <t xml:space="preserve"> 73859/002 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 73859/002 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SINAPI-C</t>
+          <t>CAPINA E LIMPEZA MANUAL DE TERRENO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CAPINA E LIMPEZA MANUAL DE TERRENO</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>650</v>
       </c>
       <c r="G4" t="n">
-        <v>650</v>
+        <v>1.74</v>
       </c>
       <c r="H4" t="n">
         <v>1.74</v>
       </c>
       <c r="I4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="J4" t="n">
         <v>1131</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t xml:space="preserve"> 98458 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 98458 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>sinapi</t>
+          <t>TAPUME COM COMPENSADO DE MADEIRA. AF_05/2018</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>TAPUME COM COMPENSADO DE MADEIRA. AF_05/2018</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1000</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>126.08</v>
       </c>
       <c r="H5" t="n">
         <v>126.08</v>
       </c>
       <c r="I5" t="n">
-        <v>126.08</v>
-      </c>
-      <c r="J5" t="n">
         <v>126080</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>FUNDAÇÕES</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
+      <c r="I6" t="n">
         <v>56665.52</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t xml:space="preserve"> 98681 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 98681 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SINAPI-I</t>
+          <t>PISO CIMENTADO, TRAÇO 1:3 (CIMENTO E AREIA), ACABAMENTO RÚSTICO, ESPESSURA 2,0 CM, PREPARO MECÂNICO DA ARGAMASSA. AF_09/2020</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>PISO CIMENTADO, TRAÇO 1:3 (CIMENTO E AREIA), ACABAMENTO RÚSTICO, ESPESSURA 2,0 CM, PREPARO MECÂNICO DA ARGAMASSA. AF_09/2020</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>585.63</v>
       </c>
       <c r="G7" t="n">
-        <v>585.63</v>
+        <v>27.69</v>
       </c>
       <c r="H7" t="n">
         <v>27.69</v>
       </c>
       <c r="I7" t="n">
-        <v>27.69</v>
-      </c>
-      <c r="J7" t="n">
         <v>16216.09</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2.2</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t xml:space="preserve"> 15.05.520 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15.05.520 </t>
+          <t>CPOS</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CPOS</t>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
           <t>m³</t>
         </is>
       </c>
+      <c r="F8" t="n">
+        <v>11.34</v>
+      </c>
       <c r="G8" t="n">
-        <v>11.34</v>
+        <v>2701.69</v>
       </c>
       <c r="H8" t="n">
         <v>2701.69</v>
       </c>
       <c r="I8" t="n">
-        <v>2701.69</v>
-      </c>
-      <c r="J8" t="n">
         <v>30637.16</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2.3</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t xml:space="preserve"> 89488 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89488 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>sinapi-i</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM) FBK = 14,0 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO COLHER DE PEDREIRO. AF_12/2014</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM) FBK = 14,0 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO COLHER DE PEDREIRO. AF_12/2014</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>85.51000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>85.51000000000001</v>
+        <v>114.75</v>
       </c>
       <c r="H9" t="n">
         <v>114.75</v>
       </c>
       <c r="I9" t="n">
-        <v>114.75</v>
-      </c>
-      <c r="J9" t="n">
         <v>9812.27</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>PAV - 1</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
+      <c r="I10" t="n">
         <v>143875.09</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>3.1</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>PISOS</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
+      <c r="I11" t="n">
         <v>37607.4</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3.1.1</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3.1.1</t>
+          <t xml:space="preserve"> 101964 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>242.85</v>
       </c>
       <c r="G12" t="n">
-        <v>242.85</v>
+        <v>150.88</v>
       </c>
       <c r="H12" t="n">
         <v>150.88</v>
       </c>
       <c r="I12" t="n">
-        <v>150.88</v>
-      </c>
-      <c r="J12" t="n">
         <v>36641.2</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3.1.2</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3.1.2</t>
+          <t xml:space="preserve"> 90930 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>5.39</v>
       </c>
       <c r="G13" t="n">
-        <v>5.39</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H13" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="J13" t="n">
         <v>347.11</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3.1.3</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3.1.3</t>
+          <t xml:space="preserve"> 87259 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>5.39</v>
       </c>
       <c r="G14" t="n">
-        <v>5.39</v>
+        <v>114.86</v>
       </c>
       <c r="H14" t="n">
         <v>114.86</v>
       </c>
       <c r="I14" t="n">
-        <v>114.86</v>
-      </c>
-      <c r="J14" t="n">
         <v>619.09</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>3.2</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>PAREDES</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
+      <c r="I15" t="n">
         <v>71423.75</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3.2.1</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3.2.1</t>
+          <t xml:space="preserve"> 15.05.520 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15.05.520 </t>
+          <t>CPOS</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CPOS</t>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
           <t>m³</t>
         </is>
       </c>
+      <c r="F16" t="n">
+        <v>6.48</v>
+      </c>
       <c r="G16" t="n">
-        <v>6.48</v>
+        <v>2701.69</v>
       </c>
       <c r="H16" t="n">
         <v>2701.69</v>
       </c>
       <c r="I16" t="n">
-        <v>2701.69</v>
-      </c>
-      <c r="J16" t="n">
         <v>17506.95</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3.2.2</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3.2.2</t>
+          <t xml:space="preserve"> 89467 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>488.2</v>
       </c>
       <c r="G17" t="n">
-        <v>488.2</v>
+        <v>80.97</v>
       </c>
       <c r="H17" t="n">
         <v>80.97</v>
       </c>
       <c r="I17" t="n">
-        <v>80.97</v>
-      </c>
-      <c r="J17" t="n">
         <v>39529.55</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3.2.3</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3.2.3</t>
+          <t xml:space="preserve"> 87905 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>488.2</v>
       </c>
       <c r="G18" t="n">
-        <v>488.2</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H18" t="n">
         <v>8.369999999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="J18" t="n">
         <v>4086.23</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3.2.4</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3.2.4</t>
+          <t xml:space="preserve"> 87543 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>488.2</v>
       </c>
       <c r="G19" t="n">
-        <v>488.2</v>
+        <v>21.1</v>
       </c>
       <c r="H19" t="n">
         <v>21.1</v>
       </c>
       <c r="I19" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="J19" t="n">
         <v>10301.02</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>3.3</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>ESQUADRIAS</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
+      <c r="I20" t="n">
         <v>34843.94</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3.3.1</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3.3.1</t>
+          <t xml:space="preserve"> 91328 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91328 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
           <t>UN</t>
         </is>
       </c>
+      <c r="F21" t="n">
+        <v>12</v>
+      </c>
       <c r="G21" t="n">
-        <v>12</v>
+        <v>702.16</v>
       </c>
       <c r="H21" t="n">
         <v>702.16</v>
       </c>
       <c r="I21" t="n">
-        <v>702.16</v>
-      </c>
-      <c r="J21" t="n">
         <v>8425.92</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3.3.2</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3.3.2</t>
+          <t xml:space="preserve"> 94570 </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94570 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>42.03</v>
       </c>
       <c r="G22" t="n">
-        <v>42.03</v>
+        <v>336.13</v>
       </c>
       <c r="H22" t="n">
         <v>336.13</v>
       </c>
       <c r="I22" t="n">
-        <v>336.13</v>
-      </c>
-      <c r="J22" t="n">
         <v>14127.54</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3.3.3</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3.3.3</t>
+          <t xml:space="preserve"> 94559 </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>13.79</v>
       </c>
       <c r="G23" t="n">
-        <v>13.79</v>
+        <v>709.59</v>
       </c>
       <c r="H23" t="n">
         <v>709.59</v>
       </c>
       <c r="I23" t="n">
-        <v>709.59</v>
-      </c>
-      <c r="J23" t="n">
         <v>9785.24</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3.3.4</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3.3.4</t>
+          <t xml:space="preserve"> 99837 </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
           <t>M</t>
         </is>
       </c>
+      <c r="F24" t="n">
+        <v>3.6</v>
+      </c>
       <c r="G24" t="n">
-        <v>3.6</v>
+        <v>695.9</v>
       </c>
       <c r="H24" t="n">
         <v>695.9</v>
       </c>
       <c r="I24" t="n">
-        <v>695.9</v>
-      </c>
-      <c r="J24" t="n">
         <v>2505.24</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>PAV - 2</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
+      <c r="I25" t="n">
         <v>146275.29</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
+      <c r="A26" t="inlineStr">
         <is>
           <t>4.1</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>PISOS</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
+      <c r="I26" t="n">
         <v>40007.6</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4.1.1</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4.1.1</t>
+          <t xml:space="preserve"> 101964 </t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>251.57</v>
       </c>
       <c r="G27" t="n">
-        <v>251.57</v>
+        <v>150.88</v>
       </c>
       <c r="H27" t="n">
         <v>150.88</v>
       </c>
       <c r="I27" t="n">
-        <v>150.88</v>
-      </c>
-      <c r="J27" t="n">
         <v>37956.88</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4.1.2</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4.1.2</t>
+          <t xml:space="preserve"> 90930 </t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>11.44</v>
       </c>
       <c r="G28" t="n">
-        <v>11.44</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H28" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="J28" t="n">
         <v>736.73</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4.1.3</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4.1.3</t>
+          <t xml:space="preserve"> 87259 </t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>11.44</v>
       </c>
       <c r="G29" t="n">
-        <v>11.44</v>
+        <v>114.86</v>
       </c>
       <c r="H29" t="n">
         <v>114.86</v>
       </c>
       <c r="I29" t="n">
-        <v>114.86</v>
-      </c>
-      <c r="J29" t="n">
         <v>1313.99</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
+      <c r="A30" t="inlineStr">
         <is>
           <t>4.2</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>PAREDES</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
+      <c r="I30" t="n">
         <v>71423.75</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4.2.1</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4.2.1</t>
+          <t xml:space="preserve"> 15.05.520 </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15.05.520 </t>
+          <t>CPOS</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>CPOS</t>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
           <t>m³</t>
         </is>
       </c>
+      <c r="F31" t="n">
+        <v>6.48</v>
+      </c>
       <c r="G31" t="n">
-        <v>6.48</v>
+        <v>2701.69</v>
       </c>
       <c r="H31" t="n">
         <v>2701.69</v>
       </c>
       <c r="I31" t="n">
-        <v>2701.69</v>
-      </c>
-      <c r="J31" t="n">
         <v>17506.95</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4.2.2</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4.2.2</t>
+          <t xml:space="preserve"> 89467 </t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>488.2</v>
       </c>
       <c r="G32" t="n">
-        <v>488.2</v>
+        <v>80.97</v>
       </c>
       <c r="H32" t="n">
         <v>80.97</v>
       </c>
       <c r="I32" t="n">
-        <v>80.97</v>
-      </c>
-      <c r="J32" t="n">
         <v>39529.55</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>4.2.3</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4.2.3</t>
+          <t xml:space="preserve"> 87905 </t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>488.2</v>
       </c>
       <c r="G33" t="n">
-        <v>488.2</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H33" t="n">
         <v>8.369999999999999</v>
       </c>
       <c r="I33" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="J33" t="n">
         <v>4086.23</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4.2.4</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4.2.4</t>
+          <t xml:space="preserve"> 87543 </t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>488.2</v>
       </c>
       <c r="G34" t="n">
-        <v>488.2</v>
+        <v>21.1</v>
       </c>
       <c r="H34" t="n">
         <v>21.1</v>
       </c>
       <c r="I34" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="J34" t="n">
         <v>10301.02</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
+      <c r="A35" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>ESQUADRIAS</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
+      <c r="I35" t="n">
         <v>34843.94</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4.3.1</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4.3.1</t>
+          <t xml:space="preserve"> 91328 </t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91328 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
           <t>UN</t>
         </is>
       </c>
+      <c r="F36" t="n">
+        <v>12</v>
+      </c>
       <c r="G36" t="n">
-        <v>12</v>
+        <v>702.16</v>
       </c>
       <c r="H36" t="n">
         <v>702.16</v>
       </c>
       <c r="I36" t="n">
-        <v>702.16</v>
-      </c>
-      <c r="J36" t="n">
         <v>8425.92</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4.3.2</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4.3.2</t>
+          <t xml:space="preserve"> 94570 </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94570 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>42.03</v>
       </c>
       <c r="G37" t="n">
-        <v>42.03</v>
+        <v>336.13</v>
       </c>
       <c r="H37" t="n">
         <v>336.13</v>
       </c>
       <c r="I37" t="n">
-        <v>336.13</v>
-      </c>
-      <c r="J37" t="n">
         <v>14127.54</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4.3.3</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4.3.3</t>
+          <t xml:space="preserve"> 94559 </t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>13.79</v>
       </c>
       <c r="G38" t="n">
-        <v>13.79</v>
+        <v>709.59</v>
       </c>
       <c r="H38" t="n">
         <v>709.59</v>
       </c>
       <c r="I38" t="n">
-        <v>709.59</v>
-      </c>
-      <c r="J38" t="n">
         <v>9785.24</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4.3.4</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4.3.4</t>
+          <t xml:space="preserve"> 99837 </t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
           <t>M</t>
         </is>
       </c>
+      <c r="F39" t="n">
+        <v>3.6</v>
+      </c>
       <c r="G39" t="n">
-        <v>3.6</v>
+        <v>695.9</v>
       </c>
       <c r="H39" t="n">
         <v>695.9</v>
       </c>
       <c r="I39" t="n">
-        <v>695.9</v>
-      </c>
-      <c r="J39" t="n">
         <v>2505.24</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
+      <c r="A40" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>PAV - 3</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
+      <c r="I40" t="n">
         <v>146275.29</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
+      <c r="A41" t="inlineStr">
         <is>
           <t>5.1</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>PISOS</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
+      <c r="I41" t="n">
         <v>40007.6</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>5.1.1</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5.1.1</t>
+          <t xml:space="preserve"> 101964 </t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>251.57</v>
       </c>
       <c r="G42" t="n">
-        <v>251.57</v>
+        <v>150.88</v>
       </c>
       <c r="H42" t="n">
         <v>150.88</v>
       </c>
       <c r="I42" t="n">
-        <v>150.88</v>
-      </c>
-      <c r="J42" t="n">
         <v>37956.88</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>5.1.2</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5.1.2</t>
+          <t xml:space="preserve"> 90930 </t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>11.44</v>
       </c>
       <c r="G43" t="n">
-        <v>11.44</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H43" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="I43" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="J43" t="n">
         <v>736.73</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>5.1.3</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5.1.3</t>
+          <t xml:space="preserve"> 87259 </t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>11.44</v>
       </c>
       <c r="G44" t="n">
-        <v>11.44</v>
+        <v>114.86</v>
       </c>
       <c r="H44" t="n">
         <v>114.86</v>
       </c>
       <c r="I44" t="n">
-        <v>114.86</v>
-      </c>
-      <c r="J44" t="n">
         <v>1313.99</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
+      <c r="A45" t="inlineStr">
         <is>
           <t>5.2</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>PAREDES</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
+      <c r="I45" t="n">
         <v>71423.75</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>5.2.1</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5.2.1</t>
+          <t xml:space="preserve"> 15.05.520 </t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15.05.520 </t>
+          <t>CPOS</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>CPOS</t>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
           <t>m³</t>
         </is>
       </c>
+      <c r="F46" t="n">
+        <v>6.48</v>
+      </c>
       <c r="G46" t="n">
-        <v>6.48</v>
+        <v>2701.69</v>
       </c>
       <c r="H46" t="n">
         <v>2701.69</v>
       </c>
       <c r="I46" t="n">
-        <v>2701.69</v>
-      </c>
-      <c r="J46" t="n">
         <v>17506.95</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>5.2.2</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5.2.2</t>
+          <t xml:space="preserve"> 89467 </t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>488.2</v>
       </c>
       <c r="G47" t="n">
-        <v>488.2</v>
+        <v>80.97</v>
       </c>
       <c r="H47" t="n">
         <v>80.97</v>
       </c>
       <c r="I47" t="n">
-        <v>80.97</v>
-      </c>
-      <c r="J47" t="n">
         <v>39529.55</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>5.2.3</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5.2.3</t>
+          <t xml:space="preserve"> 87905 </t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>488.2</v>
       </c>
       <c r="G48" t="n">
-        <v>488.2</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H48" t="n">
         <v>8.369999999999999</v>
       </c>
       <c r="I48" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="J48" t="n">
         <v>4086.23</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>5.2.4</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5.2.4</t>
+          <t xml:space="preserve"> 87543 </t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>488.2</v>
       </c>
       <c r="G49" t="n">
-        <v>488.2</v>
+        <v>21.1</v>
       </c>
       <c r="H49" t="n">
         <v>21.1</v>
       </c>
       <c r="I49" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="J49" t="n">
         <v>10301.02</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
+      <c r="A50" t="inlineStr">
         <is>
           <t>5.3</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>ESQUADRIAS</t>
         </is>
       </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
+      <c r="I50" t="n">
         <v>34843.94</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>5.3.1</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5.3.1</t>
+          <t xml:space="preserve"> 91328 </t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91328 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
           <t>UN</t>
         </is>
       </c>
+      <c r="F51" t="n">
+        <v>12</v>
+      </c>
       <c r="G51" t="n">
-        <v>12</v>
+        <v>702.16</v>
       </c>
       <c r="H51" t="n">
         <v>702.16</v>
       </c>
       <c r="I51" t="n">
-        <v>702.16</v>
-      </c>
-      <c r="J51" t="n">
         <v>8425.92</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>5.3.2</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5.3.2</t>
+          <t xml:space="preserve"> 94570 </t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94570 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>42.03</v>
       </c>
       <c r="G52" t="n">
-        <v>42.03</v>
+        <v>336.13</v>
       </c>
       <c r="H52" t="n">
         <v>336.13</v>
       </c>
       <c r="I52" t="n">
-        <v>336.13</v>
-      </c>
-      <c r="J52" t="n">
         <v>14127.54</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>5.3.3</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5.3.3</t>
+          <t xml:space="preserve"> 94559 </t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>13.79</v>
       </c>
       <c r="G53" t="n">
-        <v>13.79</v>
+        <v>709.59</v>
       </c>
       <c r="H53" t="n">
         <v>709.59</v>
       </c>
       <c r="I53" t="n">
-        <v>709.59</v>
-      </c>
-      <c r="J53" t="n">
         <v>9785.24</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>5.3.4</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>5.3.4</t>
+          <t xml:space="preserve"> 99837 </t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
           <t>M</t>
         </is>
       </c>
+      <c r="F54" t="n">
+        <v>3.6</v>
+      </c>
       <c r="G54" t="n">
-        <v>3.6</v>
+        <v>695.9</v>
       </c>
       <c r="H54" t="n">
         <v>695.9</v>
       </c>
       <c r="I54" t="n">
-        <v>695.9</v>
-      </c>
-      <c r="J54" t="n">
         <v>2505.24</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
+      <c r="A55" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>PAV - 4</t>
         </is>
       </c>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
+      <c r="I55" t="n">
         <v>189321</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
+      <c r="A56" t="inlineStr">
         <is>
           <t>6.1</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>PISOS</t>
         </is>
       </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
+      <c r="I56" t="n">
         <v>83053.31</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>6.1.1</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6.1.1</t>
+          <t xml:space="preserve"> 101964 </t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>251.57</v>
       </c>
       <c r="G57" t="n">
-        <v>251.57</v>
+        <v>150.88</v>
       </c>
       <c r="H57" t="n">
         <v>150.88</v>
       </c>
       <c r="I57" t="n">
-        <v>150.88</v>
-      </c>
-      <c r="J57" t="n">
         <v>37956.88</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>6.1.2</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>6.1.2</t>
+          <t xml:space="preserve"> 90930 </t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>251.57</v>
       </c>
       <c r="G58" t="n">
-        <v>251.57</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H58" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="I58" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="J58" t="n">
         <v>16201.1</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>6.1.3</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>6.1.3</t>
+          <t xml:space="preserve"> 87259 </t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>251.57</v>
       </c>
       <c r="G59" t="n">
-        <v>251.57</v>
+        <v>114.86</v>
       </c>
       <c r="H59" t="n">
         <v>114.86</v>
       </c>
       <c r="I59" t="n">
-        <v>114.86</v>
-      </c>
-      <c r="J59" t="n">
         <v>28895.33</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
+      <c r="A60" t="inlineStr">
         <is>
           <t>6.2</t>
         </is>
       </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>PAREDES</t>
         </is>
       </c>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
+      <c r="I60" t="n">
         <v>71423.75</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>6.2.1</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6.2.1</t>
+          <t xml:space="preserve"> 15.05.520 </t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15.05.520 </t>
+          <t>CPOS</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>CPOS</t>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
           <t>m³</t>
         </is>
       </c>
+      <c r="F61" t="n">
+        <v>6.48</v>
+      </c>
       <c r="G61" t="n">
-        <v>6.48</v>
+        <v>2701.69</v>
       </c>
       <c r="H61" t="n">
         <v>2701.69</v>
       </c>
       <c r="I61" t="n">
-        <v>2701.69</v>
-      </c>
-      <c r="J61" t="n">
         <v>17506.95</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>6.2.2</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6.2.2</t>
+          <t xml:space="preserve"> 89467 </t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>488.2</v>
       </c>
       <c r="G62" t="n">
-        <v>488.2</v>
+        <v>80.97</v>
       </c>
       <c r="H62" t="n">
         <v>80.97</v>
       </c>
       <c r="I62" t="n">
-        <v>80.97</v>
-      </c>
-      <c r="J62" t="n">
         <v>39529.55</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>6.2.3</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>6.2.3</t>
+          <t xml:space="preserve"> 87905 </t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>488.2</v>
       </c>
       <c r="G63" t="n">
-        <v>488.2</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H63" t="n">
         <v>8.369999999999999</v>
       </c>
       <c r="I63" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="J63" t="n">
         <v>4086.23</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>6.2.4</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>6.2.4</t>
+          <t xml:space="preserve"> 87543 </t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>488.2</v>
       </c>
       <c r="G64" t="n">
-        <v>488.2</v>
+        <v>21.1</v>
       </c>
       <c r="H64" t="n">
         <v>21.1</v>
       </c>
       <c r="I64" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="J64" t="n">
         <v>10301.02</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
+      <c r="A65" t="inlineStr">
         <is>
           <t>6.3</t>
         </is>
       </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>ESQUADRIAS</t>
         </is>
       </c>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
+      <c r="I65" t="n">
         <v>34843.94</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>6.3.1</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6.3.1</t>
+          <t xml:space="preserve"> 91328 </t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91328 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
           <t>UN</t>
         </is>
       </c>
+      <c r="F66" t="n">
+        <v>12</v>
+      </c>
       <c r="G66" t="n">
-        <v>12</v>
+        <v>702.16</v>
       </c>
       <c r="H66" t="n">
         <v>702.16</v>
       </c>
       <c r="I66" t="n">
-        <v>702.16</v>
-      </c>
-      <c r="J66" t="n">
         <v>8425.92</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>6.3.2</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6.3.2</t>
+          <t xml:space="preserve"> 94570 </t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94570 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>42.03</v>
       </c>
       <c r="G67" t="n">
-        <v>42.03</v>
+        <v>336.13</v>
       </c>
       <c r="H67" t="n">
         <v>336.13</v>
       </c>
       <c r="I67" t="n">
-        <v>336.13</v>
-      </c>
-      <c r="J67" t="n">
         <v>14127.54</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>6.3.3</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6.3.3</t>
+          <t xml:space="preserve"> 94559 </t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>13.79</v>
       </c>
       <c r="G68" t="n">
-        <v>13.79</v>
+        <v>709.59</v>
       </c>
       <c r="H68" t="n">
         <v>709.59</v>
       </c>
       <c r="I68" t="n">
-        <v>709.59</v>
-      </c>
-      <c r="J68" t="n">
         <v>9785.24</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>6.3.4</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6.3.4</t>
+          <t xml:space="preserve"> 99837 </t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
           <t>M</t>
         </is>
       </c>
+      <c r="F69" t="n">
+        <v>3.6</v>
+      </c>
       <c r="G69" t="n">
-        <v>3.6</v>
+        <v>695.9</v>
       </c>
       <c r="H69" t="n">
         <v>695.9</v>
       </c>
       <c r="I69" t="n">
-        <v>695.9</v>
-      </c>
-      <c r="J69" t="n">
         <v>2505.24</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
+      <c r="A70" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>PAV - 5</t>
         </is>
       </c>
+      <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
+      <c r="I70" t="n">
         <v>189321</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
+      <c r="A71" t="inlineStr">
         <is>
           <t>7.1</t>
         </is>
       </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>PISOS</t>
         </is>
       </c>
+      <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
+      <c r="I71" t="n">
         <v>83053.31</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>7.1.1</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>7.1.1</t>
+          <t xml:space="preserve"> 101964 </t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>251.57</v>
       </c>
       <c r="G72" t="n">
-        <v>251.57</v>
+        <v>150.88</v>
       </c>
       <c r="H72" t="n">
         <v>150.88</v>
       </c>
       <c r="I72" t="n">
-        <v>150.88</v>
-      </c>
-      <c r="J72" t="n">
         <v>37956.88</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>7.1.2</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>7.1.2</t>
+          <t xml:space="preserve"> 90930 </t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>251.57</v>
       </c>
       <c r="G73" t="n">
-        <v>251.57</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H73" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="I73" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="J73" t="n">
         <v>16201.1</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>7.1.3</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>7.1.3</t>
+          <t xml:space="preserve"> 87259 </t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>251.57</v>
       </c>
       <c r="G74" t="n">
-        <v>251.57</v>
+        <v>114.86</v>
       </c>
       <c r="H74" t="n">
         <v>114.86</v>
       </c>
       <c r="I74" t="n">
-        <v>114.86</v>
-      </c>
-      <c r="J74" t="n">
         <v>28895.33</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
+      <c r="A75" t="inlineStr">
         <is>
           <t>7.2</t>
         </is>
       </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>PAREDES</t>
         </is>
       </c>
+      <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
+      <c r="I75" t="n">
         <v>71423.75</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>7.2.1</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>7.2.1</t>
+          <t xml:space="preserve"> 15.05.520 </t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15.05.520 </t>
+          <t>CPOS</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>CPOS</t>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
           <t>m³</t>
         </is>
       </c>
+      <c r="F76" t="n">
+        <v>6.48</v>
+      </c>
       <c r="G76" t="n">
-        <v>6.48</v>
+        <v>2701.69</v>
       </c>
       <c r="H76" t="n">
         <v>2701.69</v>
       </c>
       <c r="I76" t="n">
-        <v>2701.69</v>
-      </c>
-      <c r="J76" t="n">
         <v>17506.95</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>7.2.2</t>
+        </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>7.2.2</t>
+          <t xml:space="preserve"> 89467 </t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>488.2</v>
       </c>
       <c r="G77" t="n">
-        <v>488.2</v>
+        <v>80.97</v>
       </c>
       <c r="H77" t="n">
         <v>80.97</v>
       </c>
       <c r="I77" t="n">
-        <v>80.97</v>
-      </c>
-      <c r="J77" t="n">
         <v>39529.55</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>7.2.3</t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>7.2.3</t>
+          <t xml:space="preserve"> 87905 </t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>488.2</v>
       </c>
       <c r="G78" t="n">
-        <v>488.2</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H78" t="n">
         <v>8.369999999999999</v>
       </c>
       <c r="I78" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="J78" t="n">
         <v>4086.23</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>7.2.4</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7.2.4</t>
+          <t xml:space="preserve"> 87543 </t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>488.2</v>
       </c>
       <c r="G79" t="n">
-        <v>488.2</v>
+        <v>21.1</v>
       </c>
       <c r="H79" t="n">
         <v>21.1</v>
       </c>
       <c r="I79" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="J79" t="n">
         <v>10301.02</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
+      <c r="A80" t="inlineStr">
         <is>
           <t>7.3</t>
         </is>
       </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>ESQUADRIAS</t>
         </is>
       </c>
+      <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
+      <c r="I80" t="n">
         <v>34843.94</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>7.3.1</t>
+        </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7.3.1</t>
+          <t xml:space="preserve"> 91328 </t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91328 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
           <t>UN</t>
         </is>
       </c>
+      <c r="F81" t="n">
+        <v>12</v>
+      </c>
       <c r="G81" t="n">
-        <v>12</v>
+        <v>702.16</v>
       </c>
       <c r="H81" t="n">
         <v>702.16</v>
       </c>
       <c r="I81" t="n">
-        <v>702.16</v>
-      </c>
-      <c r="J81" t="n">
         <v>8425.92</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>7.3.2</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>7.3.2</t>
+          <t xml:space="preserve"> 94570 </t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94570 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>42.03</v>
       </c>
       <c r="G82" t="n">
-        <v>42.03</v>
+        <v>336.13</v>
       </c>
       <c r="H82" t="n">
         <v>336.13</v>
       </c>
       <c r="I82" t="n">
-        <v>336.13</v>
-      </c>
-      <c r="J82" t="n">
         <v>14127.54</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>7.3.3</t>
+        </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7.3.3</t>
+          <t xml:space="preserve"> 94559 </t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>13.79</v>
       </c>
       <c r="G83" t="n">
-        <v>13.79</v>
+        <v>709.59</v>
       </c>
       <c r="H83" t="n">
         <v>709.59</v>
       </c>
       <c r="I83" t="n">
-        <v>709.59</v>
-      </c>
-      <c r="J83" t="n">
         <v>9785.24</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>7.3.4</t>
+        </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>7.3.4</t>
+          <t xml:space="preserve"> 99837 </t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
           <t>M</t>
         </is>
       </c>
+      <c r="F84" t="n">
+        <v>3.6</v>
+      </c>
       <c r="G84" t="n">
-        <v>3.6</v>
+        <v>695.9</v>
       </c>
       <c r="H84" t="n">
         <v>695.9</v>
       </c>
       <c r="I84" t="n">
-        <v>695.9</v>
-      </c>
-      <c r="J84" t="n">
         <v>2505.24</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
+      <c r="A85" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
+      <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>PAV - 6</t>
         </is>
       </c>
+      <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
+      <c r="I85" t="n">
         <v>189321</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
+      <c r="A86" t="inlineStr">
         <is>
           <t>8.1</t>
         </is>
       </c>
+      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>PISOS</t>
         </is>
       </c>
+      <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
+      <c r="I86" t="n">
         <v>83053.31</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>8.1.1</t>
+        </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>8.1.1</t>
+          <t xml:space="preserve"> 101964 </t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>251.57</v>
       </c>
       <c r="G87" t="n">
-        <v>251.57</v>
+        <v>150.88</v>
       </c>
       <c r="H87" t="n">
         <v>150.88</v>
       </c>
       <c r="I87" t="n">
-        <v>150.88</v>
-      </c>
-      <c r="J87" t="n">
         <v>37956.88</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>8.1.2</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>8.1.2</t>
+          <t xml:space="preserve"> 90930 </t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>251.57</v>
       </c>
       <c r="G88" t="n">
-        <v>251.57</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H88" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="I88" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="J88" t="n">
         <v>16201.1</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>8.1.3</t>
+        </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>8.1.3</t>
+          <t xml:space="preserve"> 87259 </t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>251.57</v>
       </c>
       <c r="G89" t="n">
-        <v>251.57</v>
+        <v>114.86</v>
       </c>
       <c r="H89" t="n">
         <v>114.86</v>
       </c>
       <c r="I89" t="n">
-        <v>114.86</v>
-      </c>
-      <c r="J89" t="n">
         <v>28895.33</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
+      <c r="A90" t="inlineStr">
         <is>
           <t>8.2</t>
         </is>
       </c>
+      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>PAREDES</t>
         </is>
       </c>
+      <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
+      <c r="I90" t="n">
         <v>71423.75</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>8.2.1</t>
+        </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>8.2.1</t>
+          <t xml:space="preserve"> 15.05.520 </t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15.05.520 </t>
+          <t>CPOS</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>CPOS</t>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
           <t>m³</t>
         </is>
       </c>
+      <c r="F91" t="n">
+        <v>6.48</v>
+      </c>
       <c r="G91" t="n">
-        <v>6.48</v>
+        <v>2701.69</v>
       </c>
       <c r="H91" t="n">
         <v>2701.69</v>
       </c>
       <c r="I91" t="n">
-        <v>2701.69</v>
-      </c>
-      <c r="J91" t="n">
         <v>17506.95</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>8.2.2</t>
+        </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>8.2.2</t>
+          <t xml:space="preserve"> 89467 </t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>488.2</v>
       </c>
       <c r="G92" t="n">
-        <v>488.2</v>
+        <v>80.97</v>
       </c>
       <c r="H92" t="n">
         <v>80.97</v>
       </c>
       <c r="I92" t="n">
-        <v>80.97</v>
-      </c>
-      <c r="J92" t="n">
         <v>39529.55</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>8.2.3</t>
+        </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>8.2.3</t>
+          <t xml:space="preserve"> 87905 </t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>488.2</v>
       </c>
       <c r="G93" t="n">
-        <v>488.2</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H93" t="n">
         <v>8.369999999999999</v>
       </c>
       <c r="I93" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="J93" t="n">
         <v>4086.23</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>8.2.4</t>
+        </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>8.2.4</t>
+          <t xml:space="preserve"> 87543 </t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>488.2</v>
       </c>
       <c r="G94" t="n">
-        <v>488.2</v>
+        <v>21.1</v>
       </c>
       <c r="H94" t="n">
         <v>21.1</v>
       </c>
       <c r="I94" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="J94" t="n">
         <v>10301.02</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
+      <c r="A95" t="inlineStr">
         <is>
           <t>8.3</t>
         </is>
       </c>
+      <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>ESQUADRIAS</t>
         </is>
       </c>
+      <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
+      <c r="I95" t="n">
         <v>34843.94</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>8.3.1</t>
+        </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>8.3.1</t>
+          <t xml:space="preserve"> 91328 </t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91328 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
           <t>UN</t>
         </is>
       </c>
+      <c r="F96" t="n">
+        <v>12</v>
+      </c>
       <c r="G96" t="n">
-        <v>12</v>
+        <v>702.16</v>
       </c>
       <c r="H96" t="n">
         <v>702.16</v>
       </c>
       <c r="I96" t="n">
-        <v>702.16</v>
-      </c>
-      <c r="J96" t="n">
         <v>8425.92</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>8.3.2</t>
+        </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>8.3.2</t>
+          <t xml:space="preserve"> 94570 </t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94570 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>42.03</v>
       </c>
       <c r="G97" t="n">
-        <v>42.03</v>
+        <v>336.13</v>
       </c>
       <c r="H97" t="n">
         <v>336.13</v>
       </c>
       <c r="I97" t="n">
-        <v>336.13</v>
-      </c>
-      <c r="J97" t="n">
         <v>14127.54</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>8.3.3</t>
+        </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>8.3.3</t>
+          <t xml:space="preserve"> 94559 </t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>13.79</v>
       </c>
       <c r="G98" t="n">
-        <v>13.79</v>
+        <v>709.59</v>
       </c>
       <c r="H98" t="n">
         <v>709.59</v>
       </c>
       <c r="I98" t="n">
-        <v>709.59</v>
-      </c>
-      <c r="J98" t="n">
         <v>9785.24</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>8.3.4</t>
+        </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>8.3.4</t>
+          <t xml:space="preserve"> 99837 </t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
           <t>M</t>
         </is>
       </c>
+      <c r="F99" t="n">
+        <v>3.6</v>
+      </c>
       <c r="G99" t="n">
-        <v>3.6</v>
+        <v>695.9</v>
       </c>
       <c r="H99" t="n">
         <v>695.9</v>
       </c>
       <c r="I99" t="n">
-        <v>695.9</v>
-      </c>
-      <c r="J99" t="n">
         <v>2505.24</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
+      <c r="A100" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
+      <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>PAV - 7</t>
         </is>
       </c>
+      <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
+      <c r="I100" t="n">
         <v>189321</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
+      <c r="A101" t="inlineStr">
         <is>
           <t>9.1</t>
         </is>
       </c>
+      <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>PISOS</t>
         </is>
       </c>
+      <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
+      <c r="I101" t="n">
         <v>83053.31</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>9.1.1</t>
+        </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>9.1.1</t>
+          <t xml:space="preserve"> 101964 </t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>251.57</v>
       </c>
       <c r="G102" t="n">
-        <v>251.57</v>
+        <v>150.88</v>
       </c>
       <c r="H102" t="n">
         <v>150.88</v>
       </c>
       <c r="I102" t="n">
-        <v>150.88</v>
-      </c>
-      <c r="J102" t="n">
         <v>37956.88</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>9.1.2</t>
+        </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>9.1.2</t>
+          <t xml:space="preserve"> 90930 </t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>251.57</v>
       </c>
       <c r="G103" t="n">
-        <v>251.57</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H103" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="I103" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="J103" t="n">
         <v>16201.1</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>9.1.3</t>
+        </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>9.1.3</t>
+          <t xml:space="preserve"> 87259 </t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>251.57</v>
       </c>
       <c r="G104" t="n">
-        <v>251.57</v>
+        <v>114.86</v>
       </c>
       <c r="H104" t="n">
         <v>114.86</v>
       </c>
       <c r="I104" t="n">
-        <v>114.86</v>
-      </c>
-      <c r="J104" t="n">
         <v>28895.33</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
+      <c r="A105" t="inlineStr">
         <is>
           <t>9.2</t>
         </is>
       </c>
+      <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr">
+      <c r="D105" t="inlineStr">
         <is>
           <t>PAREDES</t>
         </is>
       </c>
+      <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
+      <c r="I105" t="n">
         <v>71423.75</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>9.2.1</t>
+        </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>9.2.1</t>
+          <t xml:space="preserve"> 15.05.520 </t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15.05.520 </t>
+          <t>CPOS</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>CPOS</t>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
           <t>m³</t>
         </is>
       </c>
+      <c r="F106" t="n">
+        <v>6.48</v>
+      </c>
       <c r="G106" t="n">
-        <v>6.48</v>
+        <v>2701.69</v>
       </c>
       <c r="H106" t="n">
         <v>2701.69</v>
       </c>
       <c r="I106" t="n">
-        <v>2701.69</v>
-      </c>
-      <c r="J106" t="n">
         <v>17506.95</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>9.2.2</t>
+        </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>9.2.2</t>
+          <t xml:space="preserve"> 89467 </t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>488.2</v>
       </c>
       <c r="G107" t="n">
-        <v>488.2</v>
+        <v>80.97</v>
       </c>
       <c r="H107" t="n">
         <v>80.97</v>
       </c>
       <c r="I107" t="n">
-        <v>80.97</v>
-      </c>
-      <c r="J107" t="n">
         <v>39529.55</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>9.2.3</t>
+        </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>9.2.3</t>
+          <t xml:space="preserve"> 87905 </t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>488.2</v>
       </c>
       <c r="G108" t="n">
-        <v>488.2</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H108" t="n">
         <v>8.369999999999999</v>
       </c>
       <c r="I108" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="J108" t="n">
         <v>4086.23</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>9.2.4</t>
+        </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>9.2.4</t>
+          <t xml:space="preserve"> 87543 </t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>488.2</v>
       </c>
       <c r="G109" t="n">
-        <v>488.2</v>
+        <v>21.1</v>
       </c>
       <c r="H109" t="n">
         <v>21.1</v>
       </c>
       <c r="I109" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="J109" t="n">
         <v>10301.02</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
+      <c r="A110" t="inlineStr">
         <is>
           <t>9.3</t>
         </is>
       </c>
+      <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr">
+      <c r="D110" t="inlineStr">
         <is>
           <t>ESQUADRIAS</t>
         </is>
       </c>
+      <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
+      <c r="I110" t="n">
         <v>34843.94</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>9.3.1</t>
+        </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>9.3.1</t>
+          <t xml:space="preserve"> 91328 </t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91328 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
           <t>UN</t>
         </is>
       </c>
+      <c r="F111" t="n">
+        <v>12</v>
+      </c>
       <c r="G111" t="n">
-        <v>12</v>
+        <v>702.16</v>
       </c>
       <c r="H111" t="n">
         <v>702.16</v>
       </c>
       <c r="I111" t="n">
-        <v>702.16</v>
-      </c>
-      <c r="J111" t="n">
         <v>8425.92</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>9.3.2</t>
+        </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>9.3.2</t>
+          <t xml:space="preserve"> 94570 </t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94570 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>42.03</v>
       </c>
       <c r="G112" t="n">
-        <v>42.03</v>
+        <v>336.13</v>
       </c>
       <c r="H112" t="n">
         <v>336.13</v>
       </c>
       <c r="I112" t="n">
-        <v>336.13</v>
-      </c>
-      <c r="J112" t="n">
         <v>14127.54</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>9.3.3</t>
+        </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>9.3.3</t>
+          <t xml:space="preserve"> 94559 </t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>13.79</v>
       </c>
       <c r="G113" t="n">
-        <v>13.79</v>
+        <v>709.59</v>
       </c>
       <c r="H113" t="n">
         <v>709.59</v>
       </c>
       <c r="I113" t="n">
-        <v>709.59</v>
-      </c>
-      <c r="J113" t="n">
         <v>9785.24</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>9.3.4</t>
+        </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>9.3.4</t>
+          <t xml:space="preserve"> 99837 </t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
           <t>M</t>
         </is>
       </c>
+      <c r="F114" t="n">
+        <v>3.6</v>
+      </c>
       <c r="G114" t="n">
-        <v>3.6</v>
+        <v>695.9</v>
       </c>
       <c r="H114" t="n">
         <v>695.9</v>
       </c>
       <c r="I114" t="n">
-        <v>695.9</v>
-      </c>
-      <c r="J114" t="n">
         <v>2505.24</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
+      <c r="A115" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
+      <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t>PAV - 8</t>
         </is>
       </c>
+      <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
+      <c r="I115" t="n">
         <v>189321</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
+      <c r="A116" t="inlineStr">
         <is>
           <t>10.1</t>
         </is>
       </c>
+      <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>PISOS</t>
         </is>
       </c>
+      <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
+      <c r="I116" t="n">
         <v>83053.31</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>10.1.1</t>
+        </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>10.1.1</t>
+          <t xml:space="preserve"> 101964 </t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>251.57</v>
       </c>
       <c r="G117" t="n">
-        <v>251.57</v>
+        <v>150.88</v>
       </c>
       <c r="H117" t="n">
         <v>150.88</v>
       </c>
       <c r="I117" t="n">
-        <v>150.88</v>
-      </c>
-      <c r="J117" t="n">
         <v>37956.88</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>10.1.2</t>
+        </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>10.1.2</t>
+          <t xml:space="preserve"> 90930 </t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>251.57</v>
       </c>
       <c r="G118" t="n">
-        <v>251.57</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H118" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="I118" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="J118" t="n">
         <v>16201.1</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>10.1.3</t>
+        </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>10.1.3</t>
+          <t xml:space="preserve"> 87259 </t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>251.57</v>
       </c>
       <c r="G119" t="n">
-        <v>251.57</v>
+        <v>114.86</v>
       </c>
       <c r="H119" t="n">
         <v>114.86</v>
       </c>
       <c r="I119" t="n">
-        <v>114.86</v>
-      </c>
-      <c r="J119" t="n">
         <v>28895.33</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
+      <c r="A120" t="inlineStr">
         <is>
           <t>10.2</t>
         </is>
       </c>
+      <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr">
+      <c r="D120" t="inlineStr">
         <is>
           <t>PAREDES</t>
         </is>
       </c>
+      <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
+      <c r="I120" t="n">
         <v>71423.75</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>10.2.1</t>
+        </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>10.2.1</t>
+          <t xml:space="preserve"> 15.05.520 </t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15.05.520 </t>
+          <t>CPOS</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>CPOS</t>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
           <t>m³</t>
         </is>
       </c>
+      <c r="F121" t="n">
+        <v>6.48</v>
+      </c>
       <c r="G121" t="n">
-        <v>6.48</v>
+        <v>2701.69</v>
       </c>
       <c r="H121" t="n">
         <v>2701.69</v>
       </c>
       <c r="I121" t="n">
-        <v>2701.69</v>
-      </c>
-      <c r="J121" t="n">
         <v>17506.95</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>10.2.2</t>
+        </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>10.2.2</t>
+          <t xml:space="preserve"> 89467 </t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>488.2</v>
       </c>
       <c r="G122" t="n">
-        <v>488.2</v>
+        <v>80.97</v>
       </c>
       <c r="H122" t="n">
         <v>80.97</v>
       </c>
       <c r="I122" t="n">
-        <v>80.97</v>
-      </c>
-      <c r="J122" t="n">
         <v>39529.55</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>10.2.3</t>
+        </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>10.2.3</t>
+          <t xml:space="preserve"> 87905 </t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>488.2</v>
       </c>
       <c r="G123" t="n">
-        <v>488.2</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H123" t="n">
         <v>8.369999999999999</v>
       </c>
       <c r="I123" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="J123" t="n">
         <v>4086.23</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>10.2.4</t>
+        </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>10.2.4</t>
+          <t xml:space="preserve"> 87543 </t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>488.2</v>
       </c>
       <c r="G124" t="n">
-        <v>488.2</v>
+        <v>21.1</v>
       </c>
       <c r="H124" t="n">
         <v>21.1</v>
       </c>
       <c r="I124" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="J124" t="n">
         <v>10301.02</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
+      <c r="A125" t="inlineStr">
         <is>
           <t>10.3</t>
         </is>
       </c>
+      <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr">
+      <c r="D125" t="inlineStr">
         <is>
           <t>ESQUADRIAS</t>
         </is>
       </c>
+      <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
+      <c r="I125" t="n">
         <v>34843.94</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>10.3.1</t>
+        </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>10.3.1</t>
+          <t xml:space="preserve"> 91328 </t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91328 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
           <t>UN</t>
         </is>
       </c>
+      <c r="F126" t="n">
+        <v>12</v>
+      </c>
       <c r="G126" t="n">
-        <v>12</v>
+        <v>702.16</v>
       </c>
       <c r="H126" t="n">
         <v>702.16</v>
       </c>
       <c r="I126" t="n">
-        <v>702.16</v>
-      </c>
-      <c r="J126" t="n">
         <v>8425.92</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>10.3.2</t>
+        </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>10.3.2</t>
+          <t xml:space="preserve"> 94570 </t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94570 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>42.03</v>
       </c>
       <c r="G127" t="n">
-        <v>42.03</v>
+        <v>336.13</v>
       </c>
       <c r="H127" t="n">
         <v>336.13</v>
       </c>
       <c r="I127" t="n">
-        <v>336.13</v>
-      </c>
-      <c r="J127" t="n">
         <v>14127.54</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>10.3.3</t>
+        </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>10.3.3</t>
+          <t xml:space="preserve"> 94559 </t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>13.79</v>
       </c>
       <c r="G128" t="n">
-        <v>13.79</v>
+        <v>709.59</v>
       </c>
       <c r="H128" t="n">
         <v>709.59</v>
       </c>
       <c r="I128" t="n">
-        <v>709.59</v>
-      </c>
-      <c r="J128" t="n">
         <v>9785.24</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>10.3.4</t>
+        </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>10.3.4</t>
+          <t xml:space="preserve"> 99837 </t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
           <t>M</t>
         </is>
       </c>
+      <c r="F129" t="n">
+        <v>3.6</v>
+      </c>
       <c r="G129" t="n">
-        <v>3.6</v>
+        <v>695.9</v>
       </c>
       <c r="H129" t="n">
         <v>695.9</v>
       </c>
       <c r="I129" t="n">
-        <v>695.9</v>
-      </c>
-      <c r="J129" t="n">
         <v>2505.24</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
+      <c r="A130" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
+      <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr">
+      <c r="D130" t="inlineStr">
         <is>
           <t>PAV - 9</t>
         </is>
       </c>
+      <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
+      <c r="I130" t="n">
         <v>189321</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
+      <c r="A131" t="inlineStr">
         <is>
           <t>11.1</t>
         </is>
       </c>
+      <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr">
+      <c r="D131" t="inlineStr">
         <is>
           <t>PISOS</t>
         </is>
       </c>
+      <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
+      <c r="I131" t="n">
         <v>83053.31</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>11.1.1</t>
+        </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>11.1.1</t>
+          <t xml:space="preserve"> 101964 </t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>251.57</v>
       </c>
       <c r="G132" t="n">
-        <v>251.57</v>
+        <v>150.88</v>
       </c>
       <c r="H132" t="n">
         <v>150.88</v>
       </c>
       <c r="I132" t="n">
-        <v>150.88</v>
-      </c>
-      <c r="J132" t="n">
         <v>37956.88</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>11.1.2</t>
+        </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>11.1.2</t>
+          <t xml:space="preserve"> 90930 </t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>251.57</v>
       </c>
       <c r="G133" t="n">
-        <v>251.57</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H133" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="I133" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="J133" t="n">
         <v>16201.1</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>11.1.3</t>
+        </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>11.1.3</t>
+          <t xml:space="preserve"> 87259 </t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>251.57</v>
       </c>
       <c r="G134" t="n">
-        <v>251.57</v>
+        <v>114.86</v>
       </c>
       <c r="H134" t="n">
         <v>114.86</v>
       </c>
       <c r="I134" t="n">
-        <v>114.86</v>
-      </c>
-      <c r="J134" t="n">
         <v>28895.33</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
+      <c r="A135" t="inlineStr">
         <is>
           <t>11.2</t>
         </is>
       </c>
+      <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr">
+      <c r="D135" t="inlineStr">
         <is>
           <t>PAREDES</t>
         </is>
       </c>
+      <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
+      <c r="I135" t="n">
         <v>71423.75</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>11.2.1</t>
+        </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>11.2.1</t>
+          <t xml:space="preserve"> 15.05.520 </t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15.05.520 </t>
+          <t>CPOS</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>CPOS</t>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
           <t>m³</t>
         </is>
       </c>
+      <c r="F136" t="n">
+        <v>6.48</v>
+      </c>
       <c r="G136" t="n">
-        <v>6.48</v>
+        <v>2701.69</v>
       </c>
       <c r="H136" t="n">
         <v>2701.69</v>
       </c>
       <c r="I136" t="n">
-        <v>2701.69</v>
-      </c>
-      <c r="J136" t="n">
         <v>17506.95</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>11.2.2</t>
+        </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>11.2.2</t>
+          <t xml:space="preserve"> 89467 </t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>488.2</v>
       </c>
       <c r="G137" t="n">
-        <v>488.2</v>
+        <v>80.97</v>
       </c>
       <c r="H137" t="n">
         <v>80.97</v>
       </c>
       <c r="I137" t="n">
-        <v>80.97</v>
-      </c>
-      <c r="J137" t="n">
         <v>39529.55</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>11.2.3</t>
+        </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>11.2.3</t>
+          <t xml:space="preserve"> 87905 </t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>488.2</v>
       </c>
       <c r="G138" t="n">
-        <v>488.2</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H138" t="n">
         <v>8.369999999999999</v>
       </c>
       <c r="I138" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="J138" t="n">
         <v>4086.23</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>11.2.4</t>
+        </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>11.2.4</t>
+          <t xml:space="preserve"> 87543 </t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>488.2</v>
       </c>
       <c r="G139" t="n">
-        <v>488.2</v>
+        <v>21.1</v>
       </c>
       <c r="H139" t="n">
         <v>21.1</v>
       </c>
       <c r="I139" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="J139" t="n">
         <v>10301.02</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
+      <c r="A140" t="inlineStr">
         <is>
           <t>11.3</t>
         </is>
       </c>
+      <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr">
+      <c r="D140" t="inlineStr">
         <is>
           <t>ESQUADRIAS</t>
         </is>
       </c>
+      <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
+      <c r="I140" t="n">
         <v>34843.94</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>11.3.1</t>
+        </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>11.3.1</t>
+          <t xml:space="preserve"> 91328 </t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91328 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
           <t>UN</t>
         </is>
       </c>
+      <c r="F141" t="n">
+        <v>12</v>
+      </c>
       <c r="G141" t="n">
-        <v>12</v>
+        <v>702.16</v>
       </c>
       <c r="H141" t="n">
         <v>702.16</v>
       </c>
       <c r="I141" t="n">
-        <v>702.16</v>
-      </c>
-      <c r="J141" t="n">
         <v>8425.92</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>11.3.2</t>
+        </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>11.3.2</t>
+          <t xml:space="preserve"> 94570 </t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94570 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>42.03</v>
       </c>
       <c r="G142" t="n">
-        <v>42.03</v>
+        <v>336.13</v>
       </c>
       <c r="H142" t="n">
         <v>336.13</v>
       </c>
       <c r="I142" t="n">
-        <v>336.13</v>
-      </c>
-      <c r="J142" t="n">
         <v>14127.54</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>11.3.3</t>
+        </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>11.3.3</t>
+          <t xml:space="preserve"> 94559 </t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>13.79</v>
       </c>
       <c r="G143" t="n">
-        <v>13.79</v>
+        <v>709.59</v>
       </c>
       <c r="H143" t="n">
         <v>709.59</v>
       </c>
       <c r="I143" t="n">
-        <v>709.59</v>
-      </c>
-      <c r="J143" t="n">
         <v>9785.24</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>11.3.4</t>
+        </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>11.3.4</t>
+          <t xml:space="preserve"> 99837 </t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
           <t>M</t>
         </is>
       </c>
+      <c r="F144" t="n">
+        <v>3.6</v>
+      </c>
       <c r="G144" t="n">
-        <v>3.6</v>
+        <v>695.9</v>
       </c>
       <c r="H144" t="n">
         <v>695.9</v>
       </c>
       <c r="I144" t="n">
-        <v>695.9</v>
-      </c>
-      <c r="J144" t="n">
         <v>2505.24</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
+      <c r="A145" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
+      <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr">
+      <c r="D145" t="inlineStr">
         <is>
           <t>PAV - 10</t>
         </is>
       </c>
+      <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
+      <c r="I145" t="n">
         <v>188834.69</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
+      <c r="A146" t="inlineStr">
         <is>
           <t>12.1</t>
         </is>
       </c>
+      <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr">
+      <c r="D146" t="inlineStr">
         <is>
           <t>PISOS</t>
         </is>
       </c>
+      <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
+      <c r="I146" t="n">
         <v>83053.31</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>12.1.1</t>
+        </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>12.1.1</t>
+          <t xml:space="preserve"> 101964 </t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>251.57</v>
       </c>
       <c r="G147" t="n">
-        <v>251.57</v>
+        <v>150.88</v>
       </c>
       <c r="H147" t="n">
         <v>150.88</v>
       </c>
       <c r="I147" t="n">
-        <v>150.88</v>
-      </c>
-      <c r="J147" t="n">
         <v>37956.88</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>12.1.2</t>
+        </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>12.1.2</t>
+          <t xml:space="preserve"> 90930 </t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>251.57</v>
       </c>
       <c r="G148" t="n">
-        <v>251.57</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H148" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="I148" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="J148" t="n">
         <v>16201.1</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>12.1.3</t>
+        </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>12.1.3</t>
+          <t xml:space="preserve"> 87259 </t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>251.57</v>
       </c>
       <c r="G149" t="n">
-        <v>251.57</v>
+        <v>114.86</v>
       </c>
       <c r="H149" t="n">
         <v>114.86</v>
       </c>
       <c r="I149" t="n">
-        <v>114.86</v>
-      </c>
-      <c r="J149" t="n">
         <v>28895.33</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
+      <c r="A150" t="inlineStr">
         <is>
           <t>12.2</t>
         </is>
       </c>
+      <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr"/>
-      <c r="E150" t="inlineStr">
+      <c r="D150" t="inlineStr">
         <is>
           <t>PAREDES</t>
         </is>
       </c>
+      <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
+      <c r="I150" t="n">
         <v>70937.44</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>12.2.1</t>
+        </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>12.2.1</t>
+          <t xml:space="preserve"> 15.05.520 </t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15.05.520 </t>
+          <t>CPOS</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>CPOS</t>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
           <t>m³</t>
         </is>
       </c>
+      <c r="F151" t="n">
+        <v>6.3</v>
+      </c>
       <c r="G151" t="n">
-        <v>6.3</v>
+        <v>2701.69</v>
       </c>
       <c r="H151" t="n">
         <v>2701.69</v>
       </c>
       <c r="I151" t="n">
-        <v>2701.69</v>
-      </c>
-      <c r="J151" t="n">
         <v>17020.64</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
+      <c r="A152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12.2.2 </t>
+        </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12.2.2 </t>
+          <t xml:space="preserve"> 89467 </t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>488.2</v>
       </c>
       <c r="G152" t="n">
-        <v>488.2</v>
+        <v>80.97</v>
       </c>
       <c r="H152" t="n">
         <v>80.97</v>
       </c>
       <c r="I152" t="n">
-        <v>80.97</v>
-      </c>
-      <c r="J152" t="n">
         <v>39529.55</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
+      <c r="A153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12.2.3 </t>
+        </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12.2.3 </t>
+          <t xml:space="preserve"> 87905 </t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>488.2</v>
       </c>
       <c r="G153" t="n">
-        <v>488.2</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H153" t="n">
         <v>8.369999999999999</v>
       </c>
       <c r="I153" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="J153" t="n">
         <v>4086.23</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
+      <c r="A154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12.2.4 </t>
+        </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12.2.4 </t>
+          <t xml:space="preserve"> 87543 </t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>488.2</v>
       </c>
       <c r="G154" t="n">
-        <v>488.2</v>
+        <v>21.1</v>
       </c>
       <c r="H154" t="n">
         <v>21.1</v>
       </c>
       <c r="I154" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="J154" t="n">
         <v>10301.02</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
+      <c r="A155" t="inlineStr">
         <is>
           <t xml:space="preserve"> 12.3 </t>
         </is>
       </c>
+      <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr"/>
-      <c r="E155" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>ESQUADRIAS</t>
         </is>
       </c>
+      <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
+      <c r="I155" t="n">
         <v>34843.94</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
+      <c r="A156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12.3.1 </t>
+        </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12.3.1 </t>
+          <t xml:space="preserve"> 91328 </t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91328 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
           <t>UN</t>
         </is>
       </c>
+      <c r="F156" t="n">
+        <v>12</v>
+      </c>
       <c r="G156" t="n">
-        <v>12</v>
+        <v>702.16</v>
       </c>
       <c r="H156" t="n">
         <v>702.16</v>
       </c>
       <c r="I156" t="n">
-        <v>702.16</v>
-      </c>
-      <c r="J156" t="n">
         <v>8425.92</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
+      <c r="A157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12.3.2 </t>
+        </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12.3.2 </t>
+          <t xml:space="preserve"> 94570 </t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94570 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>42.03</v>
       </c>
       <c r="G157" t="n">
-        <v>42.03</v>
+        <v>336.13</v>
       </c>
       <c r="H157" t="n">
         <v>336.13</v>
       </c>
       <c r="I157" t="n">
-        <v>336.13</v>
-      </c>
-      <c r="J157" t="n">
         <v>14127.54</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
+      <c r="A158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12.3.3 </t>
+        </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12.3.3 </t>
+          <t xml:space="preserve"> 94559 </t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>13.79</v>
       </c>
       <c r="G158" t="n">
-        <v>13.79</v>
+        <v>709.59</v>
       </c>
       <c r="H158" t="n">
         <v>709.59</v>
       </c>
       <c r="I158" t="n">
-        <v>709.59</v>
-      </c>
-      <c r="J158" t="n">
         <v>9785.24</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
+      <c r="A159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12.3.4 </t>
+        </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12.3.4 </t>
+          <t xml:space="preserve"> 99837 </t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
           <t>M</t>
         </is>
       </c>
+      <c r="F159" t="n">
+        <v>3.6</v>
+      </c>
       <c r="G159" t="n">
-        <v>3.6</v>
+        <v>695.9</v>
       </c>
       <c r="H159" t="n">
         <v>695.9</v>
       </c>
       <c r="I159" t="n">
-        <v>695.9</v>
-      </c>
-      <c r="J159" t="n">
         <v>2505.24</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B160" t="inlineStr">
+      <c r="A160" t="inlineStr">
         <is>
           <t>_______________________________________________________________
 Elias Lobato
 Outros</t>
         </is>
       </c>
+      <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr"/>
@@ -6378,7 +5902,6 @@
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Planilha Ajustada.xlsx
+++ b/Planilha Ajustada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I160"/>
+  <dimension ref="A1:I165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t xml:space="preserve"> 1 </t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -504,7 +504,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1.1.1</t>
+          <t xml:space="preserve"> 01.01.01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -514,7 +514,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SBC</t>
+          <t>sbc</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -543,17 +543,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1.2.1.3</t>
+          <t xml:space="preserve"> 01.02.01.03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 73859/002 </t>
+          <t>0002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>SINAPI-C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -582,7 +582,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t xml:space="preserve"> 01.03 </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>sinapi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t xml:space="preserve"> 2 </t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -642,17 +642,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t xml:space="preserve"> 2.1 </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 98681 </t>
+          <t>00098681</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>SINAPI-I</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t xml:space="preserve"> 2.2 </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -720,17 +720,15 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 89488 </t>
-        </is>
+          <t xml:space="preserve"> 2.3 </t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>894</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>sinapi-i</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -759,7 +757,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t xml:space="preserve"> 3 </t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -780,7 +778,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t xml:space="preserve"> 3.1 </t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -801,12 +799,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3.1.1</t>
+          <t xml:space="preserve"> 3.1.1 </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>101964</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -840,12 +838,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3.1.2</t>
+          <t xml:space="preserve"> 3.1.2 </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>90930</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -879,12 +877,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3.1.3</t>
+          <t xml:space="preserve"> 3.1.3 </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>87259</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -918,7 +916,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t xml:space="preserve"> 3.2 </t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -939,7 +937,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3.2.1</t>
+          <t xml:space="preserve"> 3.2.1 </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -978,12 +976,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3.2.2</t>
+          <t xml:space="preserve"> 3.2.2 </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>89467</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1017,12 +1015,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3.2.3</t>
+          <t xml:space="preserve"> 3.2.3 </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>87905</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1056,12 +1054,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3.2.4</t>
+          <t xml:space="preserve"> 3.2.4 </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>87543</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1095,7 +1093,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t xml:space="preserve"> 3.3 </t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -1116,12 +1114,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3.3.1</t>
+          <t xml:space="preserve"> 3.3.1 </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91328 </t>
+          <t>91328</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1155,12 +1153,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3.3.2</t>
+          <t xml:space="preserve"> 3.3.2 </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94570 </t>
+          <t>94570</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1194,12 +1192,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3.3.3</t>
+          <t xml:space="preserve"> 3.3.3 </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>94559</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1233,12 +1231,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3.3.4</t>
+          <t xml:space="preserve"> 3.3.4 </t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>99837</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1272,7 +1270,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t xml:space="preserve"> 4 </t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -1293,7 +1291,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t xml:space="preserve"> 4.1 </t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -1314,12 +1312,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4.1.1</t>
+          <t xml:space="preserve"> 4.1.1 </t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>101964</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1353,12 +1351,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4.1.2</t>
+          <t xml:space="preserve"> 4.1.2 </t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>90930</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1392,12 +1390,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4.1.3</t>
+          <t xml:space="preserve"> 4.1.3 </t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>87259</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1431,7 +1429,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t xml:space="preserve"> 4.2 </t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -1452,7 +1450,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4.2.1</t>
+          <t xml:space="preserve"> 4.2.1 </t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1491,12 +1489,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4.2.2</t>
+          <t xml:space="preserve"> 4.2.2 </t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>89467</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1530,12 +1528,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4.2.3</t>
+          <t xml:space="preserve"> 4.2.3 </t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>87905</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1569,12 +1567,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4.2.4</t>
+          <t xml:space="preserve"> 4.2.4 </t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>87543</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1608,7 +1606,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t xml:space="preserve"> 4.3 </t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -1629,12 +1627,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>4.3.1</t>
+          <t xml:space="preserve"> 4.3.1 </t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91328 </t>
+          <t>91328</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1668,12 +1666,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>4.3.2</t>
+          <t xml:space="preserve"> 4.3.2 </t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94570 </t>
+          <t>94570</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1707,12 +1705,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>4.3.3</t>
+          <t xml:space="preserve"> 4.3.3 </t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>94559</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1746,12 +1744,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>4.3.4</t>
+          <t xml:space="preserve"> 4.3.4 </t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>99837</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1785,7 +1783,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t xml:space="preserve"> 5 </t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -1806,7 +1804,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t xml:space="preserve"> 5.1 </t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1827,12 +1825,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5.1.1</t>
+          <t xml:space="preserve"> 5.1.1 </t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>101964</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1866,12 +1864,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5.1.2</t>
+          <t xml:space="preserve"> 5.1.2 </t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>90930</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1905,12 +1903,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5.1.3</t>
+          <t xml:space="preserve"> 5.1.3 </t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>87259</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1944,7 +1942,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t xml:space="preserve"> 5.2 </t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -1965,7 +1963,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5.2.1</t>
+          <t xml:space="preserve"> 5.2.1 </t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2004,12 +2002,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5.2.2</t>
+          <t xml:space="preserve"> 5.2.2 </t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>89467</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2043,12 +2041,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5.2.3</t>
+          <t xml:space="preserve"> 5.2.3 </t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>87905</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2082,12 +2080,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5.2.4</t>
+          <t xml:space="preserve"> 5.2.4 </t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>87543</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2121,7 +2119,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t xml:space="preserve"> 5.3 </t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -2142,12 +2140,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5.3.1</t>
+          <t xml:space="preserve"> 5.3.1 </t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91328 </t>
+          <t>91328</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2181,12 +2179,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>5.3.2</t>
+          <t xml:space="preserve"> 5.3.2 </t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94570 </t>
+          <t>94570</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2220,12 +2218,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5.3.3</t>
+          <t xml:space="preserve"> 5.3.3 </t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>94559</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2259,12 +2257,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>5.3.4</t>
+          <t xml:space="preserve"> 5.3.4 </t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>99837</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2298,7 +2296,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6</t>
+          <t xml:space="preserve"> 6 </t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -2319,7 +2317,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t xml:space="preserve"> 6.1 </t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -2340,12 +2338,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>6.1.1</t>
+          <t xml:space="preserve"> 06.01.01 </t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>101964</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2379,12 +2377,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6.1.2</t>
+          <t xml:space="preserve"> 6.1.2 </t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>90930</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2418,12 +2416,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6.1.3</t>
+          <t xml:space="preserve"> 6.1.3 </t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>87259</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2457,7 +2455,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t xml:space="preserve"> 6.2 </t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -2478,7 +2476,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6.2.1</t>
+          <t xml:space="preserve"> 6.2.1 </t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2517,12 +2515,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6.2.2</t>
+          <t xml:space="preserve"> 6.2.2 </t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>89467</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2556,12 +2554,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6.2.3</t>
+          <t xml:space="preserve"> 6.2.3 </t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>87905</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2595,12 +2593,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6.2.4</t>
+          <t xml:space="preserve"> 6.2.4 </t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>87543</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2634,7 +2632,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t xml:space="preserve"> 6.3 </t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -2655,12 +2653,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6.3.1</t>
+          <t xml:space="preserve"> 6.3.1 </t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91328 </t>
+          <t>91328</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2694,12 +2692,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6.3.2</t>
+          <t xml:space="preserve"> 6.3.2 </t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94570 </t>
+          <t>94570</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2733,12 +2731,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6.3.3</t>
+          <t xml:space="preserve"> 6.3.3 </t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>94559</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2772,12 +2770,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6.3.4</t>
+          <t xml:space="preserve"> 6.3.4 </t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>99837</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2811,7 +2809,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>7</t>
+          <t xml:space="preserve"> 7 </t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
@@ -2832,7 +2830,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t xml:space="preserve"> 7.1 </t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
@@ -2853,12 +2851,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>7.1.1</t>
+          <t xml:space="preserve"> 7.1.1 </t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>101964</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2892,12 +2890,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>7.1.2</t>
+          <t xml:space="preserve"> 7.1.2 </t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>90930</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2931,12 +2929,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>7.1.3</t>
+          <t xml:space="preserve"> 7.1.3 </t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>87259</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2970,7 +2968,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t xml:space="preserve"> 7.2 </t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
@@ -2991,7 +2989,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>7.2.1</t>
+          <t xml:space="preserve"> 7.2.1 </t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3030,12 +3028,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>7.2.2</t>
+          <t xml:space="preserve"> 7.2.2 </t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>89467</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3069,12 +3067,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>7.2.3</t>
+          <t xml:space="preserve"> 7.2.3 </t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>87905</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3108,12 +3106,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>7.2.4</t>
+          <t xml:space="preserve"> 7.2.4 </t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>87543</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3147,7 +3145,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t xml:space="preserve"> 7.3 </t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
@@ -3168,12 +3166,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>7.3.1</t>
+          <t xml:space="preserve"> 7.3.1 </t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91328 </t>
+          <t>91328</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3207,12 +3205,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>7.3.2</t>
+          <t xml:space="preserve"> 7.3.2 </t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94570 </t>
+          <t>94570</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3246,12 +3244,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>7.3.3</t>
+          <t xml:space="preserve"> 7.3.3 </t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>94559</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3285,12 +3283,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>7.3.4</t>
+          <t xml:space="preserve"> 7.3.4 </t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>99837</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3324,7 +3322,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>8</t>
+          <t xml:space="preserve"> 8 </t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
@@ -3345,7 +3343,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t xml:space="preserve"> 8.1 </t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
@@ -3366,12 +3364,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>8.1.1</t>
+          <t xml:space="preserve"> 8.1.1 </t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>101964</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3405,12 +3403,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>8.1.2</t>
+          <t xml:space="preserve"> 8.1.2 </t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>90930</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3444,12 +3442,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>8.1.3</t>
+          <t xml:space="preserve"> 8.1.3 </t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>87259</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3483,7 +3481,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t xml:space="preserve"> 8.2 </t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
@@ -3504,7 +3502,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>8.2.1</t>
+          <t xml:space="preserve"> 8.2.1 </t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3543,12 +3541,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>8.2.2</t>
+          <t xml:space="preserve"> 8.2.2 </t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>89467</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3582,12 +3580,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>8.2.3</t>
+          <t xml:space="preserve"> 8.2.3 </t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>87905</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3621,12 +3619,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>8.2.4</t>
+          <t xml:space="preserve"> 8.2.4 </t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>87543</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3660,7 +3658,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t xml:space="preserve"> 8.3 </t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
@@ -3681,12 +3679,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>8.3.1</t>
+          <t xml:space="preserve"> 8.3.1 </t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91328 </t>
+          <t>91328</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3720,12 +3718,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>8.3.2</t>
+          <t xml:space="preserve"> 8.3.2 </t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94570 </t>
+          <t>94570</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3759,12 +3757,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>8.3.3</t>
+          <t xml:space="preserve"> 8.3.3 </t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>94559</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3798,12 +3796,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>8.3.4</t>
+          <t xml:space="preserve"> 8.3.4 </t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>99837</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3837,7 +3835,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>9</t>
+          <t xml:space="preserve"> 9 </t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
@@ -3858,7 +3856,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t xml:space="preserve"> 9.1 </t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
@@ -3879,12 +3877,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>9.1.1</t>
+          <t xml:space="preserve"> 9.1.1 </t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>101964</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3918,12 +3916,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>9.1.2</t>
+          <t xml:space="preserve"> 9.1.2 </t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>90930</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3957,12 +3955,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>9.1.3</t>
+          <t xml:space="preserve"> 9.1.3 </t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>87259</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3996,7 +3994,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t xml:space="preserve"> 9.2 </t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
@@ -4017,7 +4015,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>9.2.1</t>
+          <t xml:space="preserve"> 9.2.1 </t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4056,12 +4054,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>9.2.2</t>
+          <t xml:space="preserve"> 9.2.2 </t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>89467</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4095,12 +4093,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>9.2.3</t>
+          <t xml:space="preserve"> 9.2.3 </t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>87905</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4134,12 +4132,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>9.2.4</t>
+          <t xml:space="preserve"> 9.2.4 </t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>87543</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4173,7 +4171,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t xml:space="preserve"> 9.3 </t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
@@ -4194,12 +4192,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>9.3.1</t>
+          <t xml:space="preserve"> 9.3.1 </t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91328 </t>
+          <t>91328</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4233,12 +4231,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>9.3.2</t>
+          <t xml:space="preserve"> 9.3.2 </t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94570 </t>
+          <t>94570</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4272,12 +4270,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>9.3.3</t>
+          <t xml:space="preserve"> 9.3.3 </t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>94559</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4311,12 +4309,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>9.3.4</t>
+          <t xml:space="preserve"> 9.3.4 </t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>99837</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4350,7 +4348,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>10</t>
+          <t xml:space="preserve"> 10 </t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
@@ -4371,7 +4369,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t xml:space="preserve"> 10.1 </t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
@@ -4392,12 +4390,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>10.1.1</t>
+          <t xml:space="preserve"> 10.1.1 </t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>101964</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4431,12 +4429,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>10.1.2</t>
+          <t xml:space="preserve"> 10.1.2 </t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>90930</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4470,12 +4468,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>10.1.3</t>
+          <t xml:space="preserve"> 10.1.3 </t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>87259</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4509,7 +4507,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t xml:space="preserve"> 10.2 </t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
@@ -4530,7 +4528,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>10.2.1</t>
+          <t xml:space="preserve"> 10.2.1 </t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4569,12 +4567,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>10.2.2</t>
+          <t xml:space="preserve"> 10.2.2 </t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>89467</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4608,12 +4606,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>10.2.3</t>
+          <t xml:space="preserve"> 10.2.3 </t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>87905</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4647,12 +4645,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>10.2.4</t>
+          <t xml:space="preserve"> 10.2.4 </t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>87543</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4686,7 +4684,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>10.3</t>
+          <t xml:space="preserve"> 10.3 </t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
@@ -4707,12 +4705,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>10.3.1</t>
+          <t xml:space="preserve"> 10.3.1 </t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91328 </t>
+          <t>91328</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4746,12 +4744,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>10.3.2</t>
+          <t xml:space="preserve"> 10.3.2 </t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94570 </t>
+          <t>94570</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4785,12 +4783,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>10.3.3</t>
+          <t xml:space="preserve"> 10.3.3 </t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>94559</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4824,12 +4822,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>10.3.4</t>
+          <t xml:space="preserve"> 10.3.4 </t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>99837</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4863,7 +4861,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>11</t>
+          <t xml:space="preserve"> 11 </t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
@@ -4884,7 +4882,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>11.1</t>
+          <t xml:space="preserve"> 11.1 </t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
@@ -4905,12 +4903,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>11.1.1</t>
+          <t xml:space="preserve"> 11.1.1 </t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>101964</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4944,12 +4942,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>11.1.2</t>
+          <t xml:space="preserve"> 11.1.2 </t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>90930</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4983,12 +4981,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>11.1.3</t>
+          <t xml:space="preserve"> 11.1.3 </t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>87259</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5022,7 +5020,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t xml:space="preserve"> 11.2 </t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
@@ -5043,7 +5041,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>11.2.1</t>
+          <t xml:space="preserve"> 11.2.1 </t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -5082,12 +5080,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>11.2.2</t>
+          <t xml:space="preserve"> 11.2.2 </t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>89467</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5121,12 +5119,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>11.2.3</t>
+          <t xml:space="preserve"> 11.2.3 </t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>87905</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5160,12 +5158,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>11.2.4</t>
+          <t xml:space="preserve"> 11.2.4 </t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>87543</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5199,7 +5197,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>11.3</t>
+          <t xml:space="preserve"> 11.3 </t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
@@ -5220,12 +5218,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>11.3.1</t>
+          <t xml:space="preserve"> 11.3.1 </t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91328 </t>
+          <t>91328</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5259,12 +5257,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>11.3.2</t>
+          <t xml:space="preserve"> 11.3.2 </t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94570 </t>
+          <t>94570</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5298,12 +5296,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>11.3.3</t>
+          <t xml:space="preserve"> 11.3.3 </t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>94559</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5337,12 +5335,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>11.3.4</t>
+          <t xml:space="preserve"> 11.3.4 </t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>99837</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5376,7 +5374,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>12</t>
+          <t xml:space="preserve"> 12 </t>
         </is>
       </c>
       <c r="B145" t="inlineStr"/>
@@ -5397,7 +5395,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t xml:space="preserve"> 12.1 </t>
         </is>
       </c>
       <c r="B146" t="inlineStr"/>
@@ -5418,12 +5416,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>12.1.1</t>
+          <t xml:space="preserve"> 12.1.1 </t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>101964</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5457,12 +5455,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>12.1.2</t>
+          <t xml:space="preserve"> 12.1.2 </t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>90930</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5496,12 +5494,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>12.1.3</t>
+          <t xml:space="preserve"> 12.1.3 </t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>87259</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5535,7 +5533,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t xml:space="preserve"> 12.2 </t>
         </is>
       </c>
       <c r="B150" t="inlineStr"/>
@@ -5556,7 +5554,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>12.2.1</t>
+          <t xml:space="preserve"> 12.2.1 </t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5600,7 +5598,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>89467</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5639,7 +5637,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>87905</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5678,7 +5676,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>87543</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5738,7 +5736,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91328 </t>
+          <t>91328</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5777,7 +5775,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94570 </t>
+          <t>94570</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5816,7 +5814,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>94559</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5855,7 +5853,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>99837</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5887,13 +5885,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>_______________________________________________________________
-Elias Lobato
-Outros</t>
-        </is>
-      </c>
+      <c r="A160" t="inlineStr"/>
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
@@ -5903,6 +5895,85 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
     </row>
+    <row r="161">
+      <c r="A161" t="inlineStr"/>
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Total sem BDI</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="n">
+        <v>1945452.28</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr"/>
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Total do BDI</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr"/>
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Total Geral</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="n">
+        <v>1945452.28</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr"/>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>_______________________________________________________________
+Elias Lobato
+Outros</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Planilha Ajustada.xlsx
+++ b/Planilha Ajustada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I165"/>
+  <dimension ref="A1:J165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,5458 +434,5934 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Código</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Banco</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Descrição</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Und</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Quant.</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Valor Unit</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Valor Unit com BDI</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1 </t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>SERVIÇOS PRELIMINARES</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="n">
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
         <v>127600.4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 01.01.01</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 000662 </t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>sbc</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>SBC</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>PLACA DE OBRAS COM BANNER DE LONA 80X120CM</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>um</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>64.90000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>64.90000000000001</v>
       </c>
       <c r="I3" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="J3" t="n">
         <v>389.4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 01.02.01.03</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>0002</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>SINAPI-C</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>CAPINA E LIMPEZA MANUAL DE TERRENO</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>650</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.74</v>
       </c>
       <c r="H4" t="n">
         <v>1.74</v>
       </c>
       <c r="I4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="J4" t="n">
         <v>1131</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t xml:space="preserve"> 01.03 </t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve"> 98458 </t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>sinapi</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>TAPUME COM COMPENSADO DE MADEIRA. AF_05/2018</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>1000</v>
-      </c>
-      <c r="G5" t="n">
-        <v>126.08</v>
       </c>
       <c r="H5" t="n">
         <v>126.08</v>
       </c>
       <c r="I5" t="n">
+        <v>126.08</v>
+      </c>
+      <c r="J5" t="n">
         <v>126080</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2 </t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>FUNDAÇÕES</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
         <v>56665.52</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2.1 </t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>00098681</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>SINAPI-I</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>PISO CIMENTADO, TRAÇO 1:3 (CIMENTO E AREIA), ACABAMENTO RÚSTICO, ESPESSURA 2,0 CM, PREPARO MECÂNICO DA ARGAMASSA. AF_09/2020</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>585.63</v>
-      </c>
-      <c r="G7" t="n">
-        <v>27.69</v>
       </c>
       <c r="H7" t="n">
         <v>27.69</v>
       </c>
       <c r="I7" t="n">
+        <v>27.69</v>
+      </c>
+      <c r="J7" t="n">
         <v>16216.09</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2.2 </t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve"> 15.05.520 </t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>CPOS</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>m³</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>11.34</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2701.69</v>
       </c>
       <c r="H8" t="n">
         <v>2701.69</v>
       </c>
       <c r="I8" t="n">
+        <v>2701.69</v>
+      </c>
+      <c r="J8" t="n">
         <v>30637.16</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2.3 </t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>894</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>sinapi-i</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM) FBK = 14,0 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO COLHER DE PEDREIRO. AF_12/2014</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>85.51000000000001</v>
-      </c>
-      <c r="G9" t="n">
-        <v>114.75</v>
       </c>
       <c r="H9" t="n">
         <v>114.75</v>
       </c>
       <c r="I9" t="n">
+        <v>114.75</v>
+      </c>
+      <c r="J9" t="n">
         <v>9812.27</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t xml:space="preserve"> 3 </t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>PAV - 1</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
         <v>143875.09</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t xml:space="preserve"> 3.1 </t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>PISOS</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
         <v>37607.4</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t xml:space="preserve"> 3.1.1 </t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>101964</t>
-        </is>
-      </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 101964 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>242.85</v>
-      </c>
-      <c r="G12" t="n">
-        <v>150.88</v>
       </c>
       <c r="H12" t="n">
         <v>150.88</v>
       </c>
       <c r="I12" t="n">
+        <v>150.88</v>
+      </c>
+      <c r="J12" t="n">
         <v>36641.2</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t xml:space="preserve"> 3.1.2 </t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>90930</t>
-        </is>
-      </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 90930 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>5.39</v>
-      </c>
-      <c r="G13" t="n">
-        <v>64.40000000000001</v>
       </c>
       <c r="H13" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="I13" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="J13" t="n">
         <v>347.11</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t xml:space="preserve"> 3.1.3 </t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>87259</t>
-        </is>
-      </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 87259 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
         <v>5.39</v>
-      </c>
-      <c r="G14" t="n">
-        <v>114.86</v>
       </c>
       <c r="H14" t="n">
         <v>114.86</v>
       </c>
       <c r="I14" t="n">
+        <v>114.86</v>
+      </c>
+      <c r="J14" t="n">
         <v>619.09</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t xml:space="preserve"> 3.2 </t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>PAREDES</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
         <v>71423.75</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t xml:space="preserve"> 3.2.1 </t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve"> 15.05.520 </t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>CPOS</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>m³</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>6.48</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2701.69</v>
       </c>
       <c r="H16" t="n">
         <v>2701.69</v>
       </c>
       <c r="I16" t="n">
+        <v>2701.69</v>
+      </c>
+      <c r="J16" t="n">
         <v>17506.95</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t xml:space="preserve"> 3.2.2 </t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>89467</t>
-        </is>
-      </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 89467 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>488.2</v>
-      </c>
-      <c r="G17" t="n">
-        <v>80.97</v>
       </c>
       <c r="H17" t="n">
         <v>80.97</v>
       </c>
       <c r="I17" t="n">
+        <v>80.97</v>
+      </c>
+      <c r="J17" t="n">
         <v>39529.55</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t xml:space="preserve"> 3.2.3 </t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>87905</t>
-        </is>
-      </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 87905 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
         <v>488.2</v>
-      </c>
-      <c r="G18" t="n">
-        <v>8.369999999999999</v>
       </c>
       <c r="H18" t="n">
         <v>8.369999999999999</v>
       </c>
       <c r="I18" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="J18" t="n">
         <v>4086.23</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t xml:space="preserve"> 3.2.4 </t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>87543</t>
-        </is>
-      </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 87543 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
         <v>488.2</v>
-      </c>
-      <c r="G19" t="n">
-        <v>21.1</v>
       </c>
       <c r="H19" t="n">
         <v>21.1</v>
       </c>
       <c r="I19" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="J19" t="n">
         <v>10301.02</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t xml:space="preserve"> 3.3 </t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>ESQUADRIAS</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
         <v>34843.94</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t xml:space="preserve"> 3.3.1 </t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>91328</t>
-        </is>
-      </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 91328 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>12</v>
-      </c>
-      <c r="G21" t="n">
-        <v>702.16</v>
       </c>
       <c r="H21" t="n">
         <v>702.16</v>
       </c>
       <c r="I21" t="n">
+        <v>702.16</v>
+      </c>
+      <c r="J21" t="n">
         <v>8425.92</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t xml:space="preserve"> 3.3.2 </t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>94570</t>
-        </is>
-      </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 94570 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
         <v>42.03</v>
-      </c>
-      <c r="G22" t="n">
-        <v>336.13</v>
       </c>
       <c r="H22" t="n">
         <v>336.13</v>
       </c>
       <c r="I22" t="n">
+        <v>336.13</v>
+      </c>
+      <c r="J22" t="n">
         <v>14127.54</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t xml:space="preserve"> 3.3.3 </t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>94559</t>
-        </is>
-      </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 94559 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
         <v>13.79</v>
-      </c>
-      <c r="G23" t="n">
-        <v>709.59</v>
       </c>
       <c r="H23" t="n">
         <v>709.59</v>
       </c>
       <c r="I23" t="n">
+        <v>709.59</v>
+      </c>
+      <c r="J23" t="n">
         <v>9785.24</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t xml:space="preserve"> 3.3.4 </t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>99837</t>
-        </is>
-      </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 99837 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>3.6</v>
-      </c>
-      <c r="G24" t="n">
-        <v>695.9</v>
       </c>
       <c r="H24" t="n">
         <v>695.9</v>
       </c>
       <c r="I24" t="n">
+        <v>695.9</v>
+      </c>
+      <c r="J24" t="n">
         <v>2505.24</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t xml:space="preserve"> 4 </t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>PAV - 2</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="n">
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
         <v>146275.29</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t xml:space="preserve"> 4.1 </t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>PISOS</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="n">
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
         <v>40007.6</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t xml:space="preserve"> 4.1.1 </t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>101964</t>
-        </is>
-      </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 101964 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
         <v>251.57</v>
-      </c>
-      <c r="G27" t="n">
-        <v>150.88</v>
       </c>
       <c r="H27" t="n">
         <v>150.88</v>
       </c>
       <c r="I27" t="n">
+        <v>150.88</v>
+      </c>
+      <c r="J27" t="n">
         <v>37956.88</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t xml:space="preserve"> 4.1.2 </t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>90930</t>
-        </is>
-      </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 90930 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
         <v>11.44</v>
-      </c>
-      <c r="G28" t="n">
-        <v>64.40000000000001</v>
       </c>
       <c r="H28" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="I28" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="J28" t="n">
         <v>736.73</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t xml:space="preserve"> 4.1.3 </t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>87259</t>
-        </is>
-      </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 87259 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
         <v>11.44</v>
-      </c>
-      <c r="G29" t="n">
-        <v>114.86</v>
       </c>
       <c r="H29" t="n">
         <v>114.86</v>
       </c>
       <c r="I29" t="n">
+        <v>114.86</v>
+      </c>
+      <c r="J29" t="n">
         <v>1313.99</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t xml:space="preserve"> 4.2 </t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>PAREDES</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="n">
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
         <v>71423.75</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t xml:space="preserve"> 4.2.1 </t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve"> 15.05.520 </t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>CPOS</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>m³</t>
         </is>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>6.48</v>
-      </c>
-      <c r="G31" t="n">
-        <v>2701.69</v>
       </c>
       <c r="H31" t="n">
         <v>2701.69</v>
       </c>
       <c r="I31" t="n">
+        <v>2701.69</v>
+      </c>
+      <c r="J31" t="n">
         <v>17506.95</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t xml:space="preserve"> 4.2.2 </t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>89467</t>
-        </is>
-      </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 89467 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
         <v>488.2</v>
-      </c>
-      <c r="G32" t="n">
-        <v>80.97</v>
       </c>
       <c r="H32" t="n">
         <v>80.97</v>
       </c>
       <c r="I32" t="n">
+        <v>80.97</v>
+      </c>
+      <c r="J32" t="n">
         <v>39529.55</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t xml:space="preserve"> 4.2.3 </t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>87905</t>
-        </is>
-      </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 87905 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
         <v>488.2</v>
-      </c>
-      <c r="G33" t="n">
-        <v>8.369999999999999</v>
       </c>
       <c r="H33" t="n">
         <v>8.369999999999999</v>
       </c>
       <c r="I33" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="J33" t="n">
         <v>4086.23</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t xml:space="preserve"> 4.2.4 </t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>87543</t>
-        </is>
-      </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 87543 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
         <v>488.2</v>
-      </c>
-      <c r="G34" t="n">
-        <v>21.1</v>
       </c>
       <c r="H34" t="n">
         <v>21.1</v>
       </c>
       <c r="I34" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="J34" t="n">
         <v>10301.02</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t xml:space="preserve"> 4.3 </t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t>ESQUADRIAS</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="n">
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
         <v>34843.94</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t xml:space="preserve"> 4.3.1 </t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>91328</t>
-        </is>
-      </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 91328 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>12</v>
-      </c>
-      <c r="G36" t="n">
-        <v>702.16</v>
       </c>
       <c r="H36" t="n">
         <v>702.16</v>
       </c>
       <c r="I36" t="n">
+        <v>702.16</v>
+      </c>
+      <c r="J36" t="n">
         <v>8425.92</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t xml:space="preserve"> 4.3.2 </t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>94570</t>
-        </is>
-      </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 94570 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
         <v>42.03</v>
-      </c>
-      <c r="G37" t="n">
-        <v>336.13</v>
       </c>
       <c r="H37" t="n">
         <v>336.13</v>
       </c>
       <c r="I37" t="n">
+        <v>336.13</v>
+      </c>
+      <c r="J37" t="n">
         <v>14127.54</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t xml:space="preserve"> 4.3.3 </t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>94559</t>
-        </is>
-      </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 94559 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
         <v>13.79</v>
-      </c>
-      <c r="G38" t="n">
-        <v>709.59</v>
       </c>
       <c r="H38" t="n">
         <v>709.59</v>
       </c>
       <c r="I38" t="n">
+        <v>709.59</v>
+      </c>
+      <c r="J38" t="n">
         <v>9785.24</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t xml:space="preserve"> 4.3.4 </t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>99837</t>
-        </is>
-      </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 99837 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>3.6</v>
-      </c>
-      <c r="G39" t="n">
-        <v>695.9</v>
       </c>
       <c r="H39" t="n">
         <v>695.9</v>
       </c>
       <c r="I39" t="n">
+        <v>695.9</v>
+      </c>
+      <c r="J39" t="n">
         <v>2505.24</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t xml:space="preserve"> 5 </t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
         <is>
           <t>PAV - 3</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="n">
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
         <v>146275.29</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t xml:space="preserve"> 5.1 </t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t>PISOS</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="n">
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
         <v>40007.6</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t xml:space="preserve"> 5.1.1 </t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>101964</t>
-        </is>
-      </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 101964 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
         <v>251.57</v>
-      </c>
-      <c r="G42" t="n">
-        <v>150.88</v>
       </c>
       <c r="H42" t="n">
         <v>150.88</v>
       </c>
       <c r="I42" t="n">
+        <v>150.88</v>
+      </c>
+      <c r="J42" t="n">
         <v>37956.88</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t xml:space="preserve"> 5.1.2 </t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>90930</t>
-        </is>
-      </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 90930 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
         <v>11.44</v>
-      </c>
-      <c r="G43" t="n">
-        <v>64.40000000000001</v>
       </c>
       <c r="H43" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="I43" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="J43" t="n">
         <v>736.73</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t xml:space="preserve"> 5.1.3 </t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>87259</t>
-        </is>
-      </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 87259 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
         <v>11.44</v>
-      </c>
-      <c r="G44" t="n">
-        <v>114.86</v>
       </c>
       <c r="H44" t="n">
         <v>114.86</v>
       </c>
       <c r="I44" t="n">
+        <v>114.86</v>
+      </c>
+      <c r="J44" t="n">
         <v>1313.99</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t xml:space="preserve"> 5.2 </t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
         <is>
           <t>PAREDES</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="n">
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
         <v>71423.75</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t xml:space="preserve"> 5.2.1 </t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve"> 15.05.520 </t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>CPOS</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>m³</t>
         </is>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>6.48</v>
-      </c>
-      <c r="G46" t="n">
-        <v>2701.69</v>
       </c>
       <c r="H46" t="n">
         <v>2701.69</v>
       </c>
       <c r="I46" t="n">
+        <v>2701.69</v>
+      </c>
+      <c r="J46" t="n">
         <v>17506.95</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t xml:space="preserve"> 5.2.2 </t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>89467</t>
-        </is>
-      </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 89467 </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
         <v>488.2</v>
-      </c>
-      <c r="G47" t="n">
-        <v>80.97</v>
       </c>
       <c r="H47" t="n">
         <v>80.97</v>
       </c>
       <c r="I47" t="n">
+        <v>80.97</v>
+      </c>
+      <c r="J47" t="n">
         <v>39529.55</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t xml:space="preserve"> 5.2.3 </t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>87905</t>
-        </is>
-      </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 87905 </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
         <v>488.2</v>
-      </c>
-      <c r="G48" t="n">
-        <v>8.369999999999999</v>
       </c>
       <c r="H48" t="n">
         <v>8.369999999999999</v>
       </c>
       <c r="I48" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="J48" t="n">
         <v>4086.23</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t xml:space="preserve"> 5.2.4 </t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>87543</t>
-        </is>
-      </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 87543 </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
         <v>488.2</v>
-      </c>
-      <c r="G49" t="n">
-        <v>21.1</v>
       </c>
       <c r="H49" t="n">
         <v>21.1</v>
       </c>
       <c r="I49" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="J49" t="n">
         <v>10301.02</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t xml:space="preserve"> 5.3 </t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
         <is>
           <t>ESQUADRIAS</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="n">
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
         <v>34843.94</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t xml:space="preserve"> 5.3.1 </t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>91328</t>
-        </is>
-      </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 91328 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>12</v>
-      </c>
-      <c r="G51" t="n">
-        <v>702.16</v>
       </c>
       <c r="H51" t="n">
         <v>702.16</v>
       </c>
       <c r="I51" t="n">
+        <v>702.16</v>
+      </c>
+      <c r="J51" t="n">
         <v>8425.92</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t xml:space="preserve"> 5.3.2 </t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>94570</t>
-        </is>
-      </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 94570 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
         <v>42.03</v>
-      </c>
-      <c r="G52" t="n">
-        <v>336.13</v>
       </c>
       <c r="H52" t="n">
         <v>336.13</v>
       </c>
       <c r="I52" t="n">
+        <v>336.13</v>
+      </c>
+      <c r="J52" t="n">
         <v>14127.54</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t xml:space="preserve"> 5.3.3 </t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>94559</t>
-        </is>
-      </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 94559 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
         <v>13.79</v>
-      </c>
-      <c r="G53" t="n">
-        <v>709.59</v>
       </c>
       <c r="H53" t="n">
         <v>709.59</v>
       </c>
       <c r="I53" t="n">
+        <v>709.59</v>
+      </c>
+      <c r="J53" t="n">
         <v>9785.24</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t xml:space="preserve"> 5.3.4 </t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>99837</t>
-        </is>
-      </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 99837 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
           <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>3.6</v>
-      </c>
-      <c r="G54" t="n">
-        <v>695.9</v>
       </c>
       <c r="H54" t="n">
         <v>695.9</v>
       </c>
       <c r="I54" t="n">
+        <v>695.9</v>
+      </c>
+      <c r="J54" t="n">
         <v>2505.24</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t xml:space="preserve"> 6 </t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
         <is>
           <t>PAV - 4</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="n">
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
         <v>189321</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t xml:space="preserve"> 6.1 </t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
         <is>
           <t>PISOS</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="n">
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
         <v>83053.31</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t xml:space="preserve"> 06.01.01 </t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>101964</t>
-        </is>
-      </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 101964 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
         <v>251.57</v>
-      </c>
-      <c r="G57" t="n">
-        <v>150.88</v>
       </c>
       <c r="H57" t="n">
         <v>150.88</v>
       </c>
       <c r="I57" t="n">
+        <v>150.88</v>
+      </c>
+      <c r="J57" t="n">
         <v>37956.88</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t xml:space="preserve"> 6.1.2 </t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>90930</t>
-        </is>
-      </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 90930 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
         <v>251.57</v>
-      </c>
-      <c r="G58" t="n">
-        <v>64.40000000000001</v>
       </c>
       <c r="H58" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="I58" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="J58" t="n">
         <v>16201.1</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t xml:space="preserve"> 6.1.3 </t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>87259</t>
-        </is>
-      </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 87259 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
         <v>251.57</v>
-      </c>
-      <c r="G59" t="n">
-        <v>114.86</v>
       </c>
       <c r="H59" t="n">
         <v>114.86</v>
       </c>
       <c r="I59" t="n">
+        <v>114.86</v>
+      </c>
+      <c r="J59" t="n">
         <v>28895.33</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t xml:space="preserve"> 6.2 </t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
         <is>
           <t>PAREDES</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="n">
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
         <v>71423.75</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t xml:space="preserve"> 6.2.1 </t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve"> 15.05.520 </t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>CPOS</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>m³</t>
         </is>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>6.48</v>
-      </c>
-      <c r="G61" t="n">
-        <v>2701.69</v>
       </c>
       <c r="H61" t="n">
         <v>2701.69</v>
       </c>
       <c r="I61" t="n">
+        <v>2701.69</v>
+      </c>
+      <c r="J61" t="n">
         <v>17506.95</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t xml:space="preserve"> 6.2.2 </t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>89467</t>
-        </is>
-      </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 89467 </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
           <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
         <v>488.2</v>
-      </c>
-      <c r="G62" t="n">
-        <v>80.97</v>
       </c>
       <c r="H62" t="n">
         <v>80.97</v>
       </c>
       <c r="I62" t="n">
+        <v>80.97</v>
+      </c>
+      <c r="J62" t="n">
         <v>39529.55</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t xml:space="preserve"> 6.2.3 </t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>87905</t>
-        </is>
-      </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 87905 </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
           <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
         <v>488.2</v>
-      </c>
-      <c r="G63" t="n">
-        <v>8.369999999999999</v>
       </c>
       <c r="H63" t="n">
         <v>8.369999999999999</v>
       </c>
       <c r="I63" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="J63" t="n">
         <v>4086.23</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t xml:space="preserve"> 6.2.4 </t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>87543</t>
-        </is>
-      </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 87543 </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
           <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
         <v>488.2</v>
-      </c>
-      <c r="G64" t="n">
-        <v>21.1</v>
       </c>
       <c r="H64" t="n">
         <v>21.1</v>
       </c>
       <c r="I64" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="J64" t="n">
         <v>10301.02</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t xml:space="preserve"> 6.3 </t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
         <is>
           <t>ESQUADRIAS</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="n">
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
         <v>34843.94</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t xml:space="preserve"> 6.3.1 </t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>91328</t>
-        </is>
-      </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 91328 </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
           <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>12</v>
-      </c>
-      <c r="G66" t="n">
-        <v>702.16</v>
       </c>
       <c r="H66" t="n">
         <v>702.16</v>
       </c>
       <c r="I66" t="n">
+        <v>702.16</v>
+      </c>
+      <c r="J66" t="n">
         <v>8425.92</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t xml:space="preserve"> 6.3.2 </t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>94570</t>
-        </is>
-      </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 94570 </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
           <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
         <v>42.03</v>
-      </c>
-      <c r="G67" t="n">
-        <v>336.13</v>
       </c>
       <c r="H67" t="n">
         <v>336.13</v>
       </c>
       <c r="I67" t="n">
+        <v>336.13</v>
+      </c>
+      <c r="J67" t="n">
         <v>14127.54</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t xml:space="preserve"> 6.3.3 </t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>94559</t>
-        </is>
-      </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 94559 </t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
           <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
         <v>13.79</v>
-      </c>
-      <c r="G68" t="n">
-        <v>709.59</v>
       </c>
       <c r="H68" t="n">
         <v>709.59</v>
       </c>
       <c r="I68" t="n">
+        <v>709.59</v>
+      </c>
+      <c r="J68" t="n">
         <v>9785.24</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t xml:space="preserve"> 6.3.4 </t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>99837</t>
-        </is>
-      </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 99837 </t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
           <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>3.6</v>
-      </c>
-      <c r="G69" t="n">
-        <v>695.9</v>
       </c>
       <c r="H69" t="n">
         <v>695.9</v>
       </c>
       <c r="I69" t="n">
+        <v>695.9</v>
+      </c>
+      <c r="J69" t="n">
         <v>2505.24</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t xml:space="preserve"> 7 </t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
         <is>
           <t>PAV - 5</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" t="n">
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
         <v>189321</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t xml:space="preserve"> 7.1 </t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr">
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
         <is>
           <t>PISOS</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
-      <c r="I71" t="n">
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
         <v>83053.31</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t xml:space="preserve"> 7.1.1 </t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>101964</t>
-        </is>
-      </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 101964 </t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
           <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
         <v>251.57</v>
-      </c>
-      <c r="G72" t="n">
-        <v>150.88</v>
       </c>
       <c r="H72" t="n">
         <v>150.88</v>
       </c>
       <c r="I72" t="n">
+        <v>150.88</v>
+      </c>
+      <c r="J72" t="n">
         <v>37956.88</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t xml:space="preserve"> 7.1.2 </t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>90930</t>
-        </is>
-      </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 90930 </t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
           <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F73" t="n">
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
         <v>251.57</v>
-      </c>
-      <c r="G73" t="n">
-        <v>64.40000000000001</v>
       </c>
       <c r="H73" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="I73" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="J73" t="n">
         <v>16201.1</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t xml:space="preserve"> 7.1.3 </t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>87259</t>
-        </is>
-      </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 87259 </t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
           <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
         <v>251.57</v>
-      </c>
-      <c r="G74" t="n">
-        <v>114.86</v>
       </c>
       <c r="H74" t="n">
         <v>114.86</v>
       </c>
       <c r="I74" t="n">
+        <v>114.86</v>
+      </c>
+      <c r="J74" t="n">
         <v>28895.33</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t xml:space="preserve"> 7.2 </t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
         <is>
           <t>PAREDES</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
-      <c r="I75" t="n">
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
         <v>71423.75</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
         <is>
           <t xml:space="preserve"> 7.2.1 </t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t xml:space="preserve"> 15.05.520 </t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>CPOS</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>m³</t>
         </is>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>6.48</v>
-      </c>
-      <c r="G76" t="n">
-        <v>2701.69</v>
       </c>
       <c r="H76" t="n">
         <v>2701.69</v>
       </c>
       <c r="I76" t="n">
+        <v>2701.69</v>
+      </c>
+      <c r="J76" t="n">
         <v>17506.95</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t xml:space="preserve"> 7.2.2 </t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>89467</t>
-        </is>
-      </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 89467 </t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
           <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
         <v>488.2</v>
-      </c>
-      <c r="G77" t="n">
-        <v>80.97</v>
       </c>
       <c r="H77" t="n">
         <v>80.97</v>
       </c>
       <c r="I77" t="n">
+        <v>80.97</v>
+      </c>
+      <c r="J77" t="n">
         <v>39529.55</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t xml:space="preserve"> 7.2.3 </t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>87905</t>
-        </is>
-      </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 87905 </t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
           <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
         <v>488.2</v>
-      </c>
-      <c r="G78" t="n">
-        <v>8.369999999999999</v>
       </c>
       <c r="H78" t="n">
         <v>8.369999999999999</v>
       </c>
       <c r="I78" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="J78" t="n">
         <v>4086.23</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
         <is>
           <t xml:space="preserve"> 7.2.4 </t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>87543</t>
-        </is>
-      </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 87543 </t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
           <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
         <v>488.2</v>
-      </c>
-      <c r="G79" t="n">
-        <v>21.1</v>
       </c>
       <c r="H79" t="n">
         <v>21.1</v>
       </c>
       <c r="I79" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="J79" t="n">
         <v>10301.02</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
         <is>
           <t xml:space="preserve"> 7.3 </t>
         </is>
       </c>
-      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr">
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
         <is>
           <t>ESQUADRIAS</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
-      <c r="I80" t="n">
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
         <v>34843.94</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
         <is>
           <t xml:space="preserve"> 7.3.1 </t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>91328</t>
-        </is>
-      </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 91328 </t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
           <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>12</v>
-      </c>
-      <c r="G81" t="n">
-        <v>702.16</v>
       </c>
       <c r="H81" t="n">
         <v>702.16</v>
       </c>
       <c r="I81" t="n">
+        <v>702.16</v>
+      </c>
+      <c r="J81" t="n">
         <v>8425.92</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
         <is>
           <t xml:space="preserve"> 7.3.2 </t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>94570</t>
-        </is>
-      </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 94570 </t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
           <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
         <v>42.03</v>
-      </c>
-      <c r="G82" t="n">
-        <v>336.13</v>
       </c>
       <c r="H82" t="n">
         <v>336.13</v>
       </c>
       <c r="I82" t="n">
+        <v>336.13</v>
+      </c>
+      <c r="J82" t="n">
         <v>14127.54</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
         <is>
           <t xml:space="preserve"> 7.3.3 </t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>94559</t>
-        </is>
-      </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 94559 </t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
           <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
         <v>13.79</v>
-      </c>
-      <c r="G83" t="n">
-        <v>709.59</v>
       </c>
       <c r="H83" t="n">
         <v>709.59</v>
       </c>
       <c r="I83" t="n">
+        <v>709.59</v>
+      </c>
+      <c r="J83" t="n">
         <v>9785.24</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
         <is>
           <t xml:space="preserve"> 7.3.4 </t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>99837</t>
-        </is>
-      </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 99837 </t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
           <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>3.6</v>
-      </c>
-      <c r="G84" t="n">
-        <v>695.9</v>
       </c>
       <c r="H84" t="n">
         <v>695.9</v>
       </c>
       <c r="I84" t="n">
+        <v>695.9</v>
+      </c>
+      <c r="J84" t="n">
         <v>2505.24</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
         <is>
           <t xml:space="preserve"> 8 </t>
         </is>
       </c>
-      <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr">
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
         <is>
           <t>PAV - 6</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
-      <c r="I85" t="n">
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
         <v>189321</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
         <is>
           <t xml:space="preserve"> 8.1 </t>
         </is>
       </c>
-      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr">
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
         <is>
           <t>PISOS</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
-      <c r="I86" t="n">
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
         <v>83053.31</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
         <is>
           <t xml:space="preserve"> 8.1.1 </t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>101964</t>
-        </is>
-      </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 101964 </t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
           <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F87" t="n">
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
         <v>251.57</v>
-      </c>
-      <c r="G87" t="n">
-        <v>150.88</v>
       </c>
       <c r="H87" t="n">
         <v>150.88</v>
       </c>
       <c r="I87" t="n">
+        <v>150.88</v>
+      </c>
+      <c r="J87" t="n">
         <v>37956.88</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
         <is>
           <t xml:space="preserve"> 8.1.2 </t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>90930</t>
-        </is>
-      </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 90930 </t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
           <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
         <v>251.57</v>
-      </c>
-      <c r="G88" t="n">
-        <v>64.40000000000001</v>
       </c>
       <c r="H88" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="I88" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="J88" t="n">
         <v>16201.1</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
         <is>
           <t xml:space="preserve"> 8.1.3 </t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>87259</t>
-        </is>
-      </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 87259 </t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
           <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
         <v>251.57</v>
-      </c>
-      <c r="G89" t="n">
-        <v>114.86</v>
       </c>
       <c r="H89" t="n">
         <v>114.86</v>
       </c>
       <c r="I89" t="n">
+        <v>114.86</v>
+      </c>
+      <c r="J89" t="n">
         <v>28895.33</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
         <is>
           <t xml:space="preserve"> 8.2 </t>
         </is>
       </c>
-      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr">
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
         <is>
           <t>PAREDES</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
-      <c r="I90" t="n">
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
         <v>71423.75</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
         <is>
           <t xml:space="preserve"> 8.2.1 </t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t xml:space="preserve"> 15.05.520 </t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>CPOS</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>m³</t>
         </is>
       </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>6.48</v>
-      </c>
-      <c r="G91" t="n">
-        <v>2701.69</v>
       </c>
       <c r="H91" t="n">
         <v>2701.69</v>
       </c>
       <c r="I91" t="n">
+        <v>2701.69</v>
+      </c>
+      <c r="J91" t="n">
         <v>17506.95</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
         <is>
           <t xml:space="preserve"> 8.2.2 </t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>89467</t>
-        </is>
-      </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 89467 </t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
           <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
         <v>488.2</v>
-      </c>
-      <c r="G92" t="n">
-        <v>80.97</v>
       </c>
       <c r="H92" t="n">
         <v>80.97</v>
       </c>
       <c r="I92" t="n">
+        <v>80.97</v>
+      </c>
+      <c r="J92" t="n">
         <v>39529.55</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
         <is>
           <t xml:space="preserve"> 8.2.3 </t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>87905</t>
-        </is>
-      </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 87905 </t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
           <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
         <v>488.2</v>
-      </c>
-      <c r="G93" t="n">
-        <v>8.369999999999999</v>
       </c>
       <c r="H93" t="n">
         <v>8.369999999999999</v>
       </c>
       <c r="I93" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="J93" t="n">
         <v>4086.23</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
         <is>
           <t xml:space="preserve"> 8.2.4 </t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>87543</t>
-        </is>
-      </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 87543 </t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
           <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
         <v>488.2</v>
-      </c>
-      <c r="G94" t="n">
-        <v>21.1</v>
       </c>
       <c r="H94" t="n">
         <v>21.1</v>
       </c>
       <c r="I94" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="J94" t="n">
         <v>10301.02</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
         <is>
           <t xml:space="preserve"> 8.3 </t>
         </is>
       </c>
-      <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr">
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
         <is>
           <t>ESQUADRIAS</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
-      <c r="I95" t="n">
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
         <v>34843.94</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
         <is>
           <t xml:space="preserve"> 8.3.1 </t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>91328</t>
-        </is>
-      </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 91328 </t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
           <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
         <v>12</v>
-      </c>
-      <c r="G96" t="n">
-        <v>702.16</v>
       </c>
       <c r="H96" t="n">
         <v>702.16</v>
       </c>
       <c r="I96" t="n">
+        <v>702.16</v>
+      </c>
+      <c r="J96" t="n">
         <v>8425.92</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
         <is>
           <t xml:space="preserve"> 8.3.2 </t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>94570</t>
-        </is>
-      </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 94570 </t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
           <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F97" t="n">
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
         <v>42.03</v>
-      </c>
-      <c r="G97" t="n">
-        <v>336.13</v>
       </c>
       <c r="H97" t="n">
         <v>336.13</v>
       </c>
       <c r="I97" t="n">
+        <v>336.13</v>
+      </c>
+      <c r="J97" t="n">
         <v>14127.54</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
         <is>
           <t xml:space="preserve"> 8.3.3 </t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>94559</t>
-        </is>
-      </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 94559 </t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
           <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F98" t="n">
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
         <v>13.79</v>
-      </c>
-      <c r="G98" t="n">
-        <v>709.59</v>
       </c>
       <c r="H98" t="n">
         <v>709.59</v>
       </c>
       <c r="I98" t="n">
+        <v>709.59</v>
+      </c>
+      <c r="J98" t="n">
         <v>9785.24</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
         <is>
           <t xml:space="preserve"> 8.3.4 </t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>99837</t>
-        </is>
-      </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 99837 </t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
           <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
         <v>3.6</v>
-      </c>
-      <c r="G99" t="n">
-        <v>695.9</v>
       </c>
       <c r="H99" t="n">
         <v>695.9</v>
       </c>
       <c r="I99" t="n">
+        <v>695.9</v>
+      </c>
+      <c r="J99" t="n">
         <v>2505.24</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
         <is>
           <t xml:space="preserve"> 9 </t>
         </is>
       </c>
-      <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr">
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
         <is>
           <t>PAV - 7</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
-      <c r="I100" t="n">
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
         <v>189321</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
         <is>
           <t xml:space="preserve"> 9.1 </t>
         </is>
       </c>
-      <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr">
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
         <is>
           <t>PISOS</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
-      <c r="I101" t="n">
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
         <v>83053.31</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
         <is>
           <t xml:space="preserve"> 9.1.1 </t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>101964</t>
-        </is>
-      </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 101964 </t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
           <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F102" t="n">
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
         <v>251.57</v>
-      </c>
-      <c r="G102" t="n">
-        <v>150.88</v>
       </c>
       <c r="H102" t="n">
         <v>150.88</v>
       </c>
       <c r="I102" t="n">
+        <v>150.88</v>
+      </c>
+      <c r="J102" t="n">
         <v>37956.88</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
         <is>
           <t xml:space="preserve"> 9.1.2 </t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>90930</t>
-        </is>
-      </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 90930 </t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
           <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F103" t="n">
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
         <v>251.57</v>
-      </c>
-      <c r="G103" t="n">
-        <v>64.40000000000001</v>
       </c>
       <c r="H103" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="I103" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="J103" t="n">
         <v>16201.1</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
         <is>
           <t xml:space="preserve"> 9.1.3 </t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>87259</t>
-        </is>
-      </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 87259 </t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
           <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F104" t="n">
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
         <v>251.57</v>
-      </c>
-      <c r="G104" t="n">
-        <v>114.86</v>
       </c>
       <c r="H104" t="n">
         <v>114.86</v>
       </c>
       <c r="I104" t="n">
+        <v>114.86</v>
+      </c>
+      <c r="J104" t="n">
         <v>28895.33</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
         <is>
           <t xml:space="preserve"> 9.2 </t>
         </is>
       </c>
-      <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr">
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
         <is>
           <t>PAREDES</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
-      <c r="I105" t="n">
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
         <v>71423.75</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
         <is>
           <t xml:space="preserve"> 9.2.1 </t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t xml:space="preserve"> 15.05.520 </t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>CPOS</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>m³</t>
         </is>
       </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>6.48</v>
-      </c>
-      <c r="G106" t="n">
-        <v>2701.69</v>
       </c>
       <c r="H106" t="n">
         <v>2701.69</v>
       </c>
       <c r="I106" t="n">
+        <v>2701.69</v>
+      </c>
+      <c r="J106" t="n">
         <v>17506.95</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
         <is>
           <t xml:space="preserve"> 9.2.2 </t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>89467</t>
-        </is>
-      </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 89467 </t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
           <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F107" t="n">
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
         <v>488.2</v>
-      </c>
-      <c r="G107" t="n">
-        <v>80.97</v>
       </c>
       <c r="H107" t="n">
         <v>80.97</v>
       </c>
       <c r="I107" t="n">
+        <v>80.97</v>
+      </c>
+      <c r="J107" t="n">
         <v>39529.55</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
         <is>
           <t xml:space="preserve"> 9.2.3 </t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>87905</t>
-        </is>
-      </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 87905 </t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
           <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F108" t="n">
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
         <v>488.2</v>
-      </c>
-      <c r="G108" t="n">
-        <v>8.369999999999999</v>
       </c>
       <c r="H108" t="n">
         <v>8.369999999999999</v>
       </c>
       <c r="I108" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="J108" t="n">
         <v>4086.23</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
         <is>
           <t xml:space="preserve"> 9.2.4 </t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>87543</t>
-        </is>
-      </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 87543 </t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
           <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F109" t="n">
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
         <v>488.2</v>
-      </c>
-      <c r="G109" t="n">
-        <v>21.1</v>
       </c>
       <c r="H109" t="n">
         <v>21.1</v>
       </c>
       <c r="I109" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="J109" t="n">
         <v>10301.02</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
         <is>
           <t xml:space="preserve"> 9.3 </t>
         </is>
       </c>
-      <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr">
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
         <is>
           <t>ESQUADRIAS</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
-      <c r="I110" t="n">
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
         <v>34843.94</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
         <is>
           <t xml:space="preserve"> 9.3.1 </t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>91328</t>
-        </is>
-      </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 91328 </t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
           <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
-      <c r="F111" t="n">
+      <c r="G111" t="n">
         <v>12</v>
-      </c>
-      <c r="G111" t="n">
-        <v>702.16</v>
       </c>
       <c r="H111" t="n">
         <v>702.16</v>
       </c>
       <c r="I111" t="n">
+        <v>702.16</v>
+      </c>
+      <c r="J111" t="n">
         <v>8425.92</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
         <is>
           <t xml:space="preserve"> 9.3.2 </t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>94570</t>
-        </is>
-      </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 94570 </t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
           <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F112" t="n">
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
         <v>42.03</v>
-      </c>
-      <c r="G112" t="n">
-        <v>336.13</v>
       </c>
       <c r="H112" t="n">
         <v>336.13</v>
       </c>
       <c r="I112" t="n">
+        <v>336.13</v>
+      </c>
+      <c r="J112" t="n">
         <v>14127.54</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
         <is>
           <t xml:space="preserve"> 9.3.3 </t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>94559</t>
-        </is>
-      </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 94559 </t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
           <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F113" t="n">
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
         <v>13.79</v>
-      </c>
-      <c r="G113" t="n">
-        <v>709.59</v>
       </c>
       <c r="H113" t="n">
         <v>709.59</v>
       </c>
       <c r="I113" t="n">
+        <v>709.59</v>
+      </c>
+      <c r="J113" t="n">
         <v>9785.24</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
         <is>
           <t xml:space="preserve"> 9.3.4 </t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>99837</t>
-        </is>
-      </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 99837 </t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
           <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="F114" t="n">
+      <c r="G114" t="n">
         <v>3.6</v>
-      </c>
-      <c r="G114" t="n">
-        <v>695.9</v>
       </c>
       <c r="H114" t="n">
         <v>695.9</v>
       </c>
       <c r="I114" t="n">
+        <v>695.9</v>
+      </c>
+      <c r="J114" t="n">
         <v>2505.24</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
         <is>
           <t xml:space="preserve"> 10 </t>
         </is>
       </c>
-      <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr">
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
         <is>
           <t>PAV - 8</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
-      <c r="I115" t="n">
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
         <v>189321</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
         <is>
           <t xml:space="preserve"> 10.1 </t>
         </is>
       </c>
-      <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr">
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
         <is>
           <t>PISOS</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
-      <c r="I116" t="n">
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
         <v>83053.31</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
         <is>
           <t xml:space="preserve"> 10.1.1 </t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>101964</t>
-        </is>
-      </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 101964 </t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
           <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F117" t="n">
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
         <v>251.57</v>
-      </c>
-      <c r="G117" t="n">
-        <v>150.88</v>
       </c>
       <c r="H117" t="n">
         <v>150.88</v>
       </c>
       <c r="I117" t="n">
+        <v>150.88</v>
+      </c>
+      <c r="J117" t="n">
         <v>37956.88</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
         <is>
           <t xml:space="preserve"> 10.1.2 </t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>90930</t>
-        </is>
-      </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 90930 </t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
           <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F118" t="n">
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
         <v>251.57</v>
-      </c>
-      <c r="G118" t="n">
-        <v>64.40000000000001</v>
       </c>
       <c r="H118" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="I118" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="J118" t="n">
         <v>16201.1</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
         <is>
           <t xml:space="preserve"> 10.1.3 </t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>87259</t>
-        </is>
-      </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 87259 </t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
           <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F119" t="n">
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
         <v>251.57</v>
-      </c>
-      <c r="G119" t="n">
-        <v>114.86</v>
       </c>
       <c r="H119" t="n">
         <v>114.86</v>
       </c>
       <c r="I119" t="n">
+        <v>114.86</v>
+      </c>
+      <c r="J119" t="n">
         <v>28895.33</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
         <is>
           <t xml:space="preserve"> 10.2 </t>
         </is>
       </c>
-      <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr">
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
         <is>
           <t>PAREDES</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
-      <c r="I120" t="n">
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
         <v>71423.75</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
         <is>
           <t xml:space="preserve"> 10.2.1 </t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t xml:space="preserve"> 15.05.520 </t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="D121" t="inlineStr">
         <is>
           <t>CPOS</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>m³</t>
         </is>
       </c>
-      <c r="F121" t="n">
+      <c r="G121" t="n">
         <v>6.48</v>
-      </c>
-      <c r="G121" t="n">
-        <v>2701.69</v>
       </c>
       <c r="H121" t="n">
         <v>2701.69</v>
       </c>
       <c r="I121" t="n">
+        <v>2701.69</v>
+      </c>
+      <c r="J121" t="n">
         <v>17506.95</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
         <is>
           <t xml:space="preserve"> 10.2.2 </t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>89467</t>
-        </is>
-      </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 89467 </t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
           <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F122" t="n">
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
         <v>488.2</v>
-      </c>
-      <c r="G122" t="n">
-        <v>80.97</v>
       </c>
       <c r="H122" t="n">
         <v>80.97</v>
       </c>
       <c r="I122" t="n">
+        <v>80.97</v>
+      </c>
+      <c r="J122" t="n">
         <v>39529.55</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
         <is>
           <t xml:space="preserve"> 10.2.3 </t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>87905</t>
-        </is>
-      </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 87905 </t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
           <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F123" t="n">
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
         <v>488.2</v>
-      </c>
-      <c r="G123" t="n">
-        <v>8.369999999999999</v>
       </c>
       <c r="H123" t="n">
         <v>8.369999999999999</v>
       </c>
       <c r="I123" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="J123" t="n">
         <v>4086.23</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
         <is>
           <t xml:space="preserve"> 10.2.4 </t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>87543</t>
-        </is>
-      </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 87543 </t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
           <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F124" t="n">
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
         <v>488.2</v>
-      </c>
-      <c r="G124" t="n">
-        <v>21.1</v>
       </c>
       <c r="H124" t="n">
         <v>21.1</v>
       </c>
       <c r="I124" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="J124" t="n">
         <v>10301.02</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
         <is>
           <t xml:space="preserve"> 10.3 </t>
         </is>
       </c>
-      <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr">
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
         <is>
           <t>ESQUADRIAS</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
-      <c r="I125" t="n">
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
         <v>34843.94</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
         <is>
           <t xml:space="preserve"> 10.3.1 </t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>91328</t>
-        </is>
-      </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 91328 </t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
           <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
-      <c r="F126" t="n">
+      <c r="G126" t="n">
         <v>12</v>
-      </c>
-      <c r="G126" t="n">
-        <v>702.16</v>
       </c>
       <c r="H126" t="n">
         <v>702.16</v>
       </c>
       <c r="I126" t="n">
+        <v>702.16</v>
+      </c>
+      <c r="J126" t="n">
         <v>8425.92</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
         <is>
           <t xml:space="preserve"> 10.3.2 </t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>94570</t>
-        </is>
-      </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 94570 </t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
           <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F127" t="n">
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
         <v>42.03</v>
-      </c>
-      <c r="G127" t="n">
-        <v>336.13</v>
       </c>
       <c r="H127" t="n">
         <v>336.13</v>
       </c>
       <c r="I127" t="n">
+        <v>336.13</v>
+      </c>
+      <c r="J127" t="n">
         <v>14127.54</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
         <is>
           <t xml:space="preserve"> 10.3.3 </t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>94559</t>
-        </is>
-      </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 94559 </t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
           <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F128" t="n">
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
         <v>13.79</v>
-      </c>
-      <c r="G128" t="n">
-        <v>709.59</v>
       </c>
       <c r="H128" t="n">
         <v>709.59</v>
       </c>
       <c r="I128" t="n">
+        <v>709.59</v>
+      </c>
+      <c r="J128" t="n">
         <v>9785.24</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
         <is>
           <t xml:space="preserve"> 10.3.4 </t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>99837</t>
-        </is>
-      </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 99837 </t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
           <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="F129" t="n">
+      <c r="G129" t="n">
         <v>3.6</v>
-      </c>
-      <c r="G129" t="n">
-        <v>695.9</v>
       </c>
       <c r="H129" t="n">
         <v>695.9</v>
       </c>
       <c r="I129" t="n">
+        <v>695.9</v>
+      </c>
+      <c r="J129" t="n">
         <v>2505.24</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
         <is>
           <t xml:space="preserve"> 11 </t>
         </is>
       </c>
-      <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr">
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
         <is>
           <t>PAV - 9</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
-      <c r="I130" t="n">
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
         <v>189321</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
         <is>
           <t xml:space="preserve"> 11.1 </t>
         </is>
       </c>
-      <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr">
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
         <is>
           <t>PISOS</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
-      <c r="I131" t="n">
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
         <v>83053.31</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
         <is>
           <t xml:space="preserve"> 11.1.1 </t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>101964</t>
-        </is>
-      </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 101964 </t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
           <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F132" t="n">
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
         <v>251.57</v>
-      </c>
-      <c r="G132" t="n">
-        <v>150.88</v>
       </c>
       <c r="H132" t="n">
         <v>150.88</v>
       </c>
       <c r="I132" t="n">
+        <v>150.88</v>
+      </c>
+      <c r="J132" t="n">
         <v>37956.88</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
         <is>
           <t xml:space="preserve"> 11.1.2 </t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>90930</t>
-        </is>
-      </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 90930 </t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
           <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F133" t="n">
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
         <v>251.57</v>
-      </c>
-      <c r="G133" t="n">
-        <v>64.40000000000001</v>
       </c>
       <c r="H133" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="I133" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="J133" t="n">
         <v>16201.1</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
         <is>
           <t xml:space="preserve"> 11.1.3 </t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>87259</t>
-        </is>
-      </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 87259 </t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
           <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F134" t="n">
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
         <v>251.57</v>
-      </c>
-      <c r="G134" t="n">
-        <v>114.86</v>
       </c>
       <c r="H134" t="n">
         <v>114.86</v>
       </c>
       <c r="I134" t="n">
+        <v>114.86</v>
+      </c>
+      <c r="J134" t="n">
         <v>28895.33</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
         <is>
           <t xml:space="preserve"> 11.2 </t>
         </is>
       </c>
-      <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr">
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
         <is>
           <t>PAREDES</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
-      <c r="I135" t="n">
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
         <v>71423.75</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
         <is>
           <t xml:space="preserve"> 11.2.1 </t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t xml:space="preserve"> 15.05.520 </t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="D136" t="inlineStr">
         <is>
           <t>CPOS</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>m³</t>
         </is>
       </c>
-      <c r="F136" t="n">
+      <c r="G136" t="n">
         <v>6.48</v>
-      </c>
-      <c r="G136" t="n">
-        <v>2701.69</v>
       </c>
       <c r="H136" t="n">
         <v>2701.69</v>
       </c>
       <c r="I136" t="n">
+        <v>2701.69</v>
+      </c>
+      <c r="J136" t="n">
         <v>17506.95</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
         <is>
           <t xml:space="preserve"> 11.2.2 </t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>89467</t>
-        </is>
-      </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 89467 </t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
           <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F137" t="n">
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
         <v>488.2</v>
-      </c>
-      <c r="G137" t="n">
-        <v>80.97</v>
       </c>
       <c r="H137" t="n">
         <v>80.97</v>
       </c>
       <c r="I137" t="n">
+        <v>80.97</v>
+      </c>
+      <c r="J137" t="n">
         <v>39529.55</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
         <is>
           <t xml:space="preserve"> 11.2.3 </t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>87905</t>
-        </is>
-      </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 87905 </t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
           <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F138" t="n">
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
         <v>488.2</v>
-      </c>
-      <c r="G138" t="n">
-        <v>8.369999999999999</v>
       </c>
       <c r="H138" t="n">
         <v>8.369999999999999</v>
       </c>
       <c r="I138" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="J138" t="n">
         <v>4086.23</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
         <is>
           <t xml:space="preserve"> 11.2.4 </t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>87543</t>
-        </is>
-      </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 87543 </t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
           <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F139" t="n">
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
         <v>488.2</v>
-      </c>
-      <c r="G139" t="n">
-        <v>21.1</v>
       </c>
       <c r="H139" t="n">
         <v>21.1</v>
       </c>
       <c r="I139" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="J139" t="n">
         <v>10301.02</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
         <is>
           <t xml:space="preserve"> 11.3 </t>
         </is>
       </c>
-      <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr">
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr">
         <is>
           <t>ESQUADRIAS</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
-      <c r="I140" t="n">
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
         <v>34843.94</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
         <is>
           <t xml:space="preserve"> 11.3.1 </t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>91328</t>
-        </is>
-      </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 91328 </t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
           <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
-      <c r="F141" t="n">
+      <c r="G141" t="n">
         <v>12</v>
-      </c>
-      <c r="G141" t="n">
-        <v>702.16</v>
       </c>
       <c r="H141" t="n">
         <v>702.16</v>
       </c>
       <c r="I141" t="n">
+        <v>702.16</v>
+      </c>
+      <c r="J141" t="n">
         <v>8425.92</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
         <is>
           <t xml:space="preserve"> 11.3.2 </t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>94570</t>
-        </is>
-      </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 94570 </t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
           <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F142" t="n">
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
         <v>42.03</v>
-      </c>
-      <c r="G142" t="n">
-        <v>336.13</v>
       </c>
       <c r="H142" t="n">
         <v>336.13</v>
       </c>
       <c r="I142" t="n">
+        <v>336.13</v>
+      </c>
+      <c r="J142" t="n">
         <v>14127.54</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
         <is>
           <t xml:space="preserve"> 11.3.3 </t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>94559</t>
-        </is>
-      </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 94559 </t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
           <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F143" t="n">
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
         <v>13.79</v>
-      </c>
-      <c r="G143" t="n">
-        <v>709.59</v>
       </c>
       <c r="H143" t="n">
         <v>709.59</v>
       </c>
       <c r="I143" t="n">
+        <v>709.59</v>
+      </c>
+      <c r="J143" t="n">
         <v>9785.24</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
         <is>
           <t xml:space="preserve"> 11.3.4 </t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>99837</t>
-        </is>
-      </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 99837 </t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
           <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="F144" t="n">
+      <c r="G144" t="n">
         <v>3.6</v>
-      </c>
-      <c r="G144" t="n">
-        <v>695.9</v>
       </c>
       <c r="H144" t="n">
         <v>695.9</v>
       </c>
       <c r="I144" t="n">
+        <v>695.9</v>
+      </c>
+      <c r="J144" t="n">
         <v>2505.24</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
         <is>
           <t xml:space="preserve"> 12 </t>
         </is>
       </c>
-      <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr">
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
         <is>
           <t>PAV - 10</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
-      <c r="I145" t="n">
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
         <v>188834.69</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
         <is>
           <t xml:space="preserve"> 12.1 </t>
         </is>
       </c>
-      <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr">
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
         <is>
           <t>PISOS</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
-      <c r="I146" t="n">
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
         <v>83053.31</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
         <is>
           <t xml:space="preserve"> 12.1.1 </t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>101964</t>
-        </is>
-      </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 101964 </t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
           <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F147" t="n">
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
         <v>251.57</v>
-      </c>
-      <c r="G147" t="n">
-        <v>150.88</v>
       </c>
       <c r="H147" t="n">
         <v>150.88</v>
       </c>
       <c r="I147" t="n">
+        <v>150.88</v>
+      </c>
+      <c r="J147" t="n">
         <v>37956.88</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
         <is>
           <t xml:space="preserve"> 12.1.2 </t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>90930</t>
-        </is>
-      </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 90930 </t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
           <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F148" t="n">
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
         <v>251.57</v>
-      </c>
-      <c r="G148" t="n">
-        <v>64.40000000000001</v>
       </c>
       <c r="H148" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="I148" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="J148" t="n">
         <v>16201.1</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
         <is>
           <t xml:space="preserve"> 12.1.3 </t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>87259</t>
-        </is>
-      </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 87259 </t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
           <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F149" t="n">
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
         <v>251.57</v>
-      </c>
-      <c r="G149" t="n">
-        <v>114.86</v>
       </c>
       <c r="H149" t="n">
         <v>114.86</v>
       </c>
       <c r="I149" t="n">
+        <v>114.86</v>
+      </c>
+      <c r="J149" t="n">
         <v>28895.33</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
         <is>
           <t xml:space="preserve"> 12.2 </t>
         </is>
       </c>
-      <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr">
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr">
         <is>
           <t>PAREDES</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
-      <c r="I150" t="n">
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
         <v>70937.44</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
         <is>
           <t xml:space="preserve"> 12.2.1 </t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="C151" t="inlineStr">
         <is>
           <t xml:space="preserve"> 15.05.520 </t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="D151" t="inlineStr">
         <is>
           <t>CPOS</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>m³</t>
         </is>
       </c>
-      <c r="F151" t="n">
+      <c r="G151" t="n">
         <v>6.3</v>
-      </c>
-      <c r="G151" t="n">
-        <v>2701.69</v>
       </c>
       <c r="H151" t="n">
         <v>2701.69</v>
       </c>
       <c r="I151" t="n">
+        <v>2701.69</v>
+      </c>
+      <c r="J151" t="n">
         <v>17020.64</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
         <is>
           <t xml:space="preserve"> 12.2.2 </t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>89467</t>
-        </is>
-      </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 89467 </t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
           <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F152" t="n">
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
         <v>488.2</v>
-      </c>
-      <c r="G152" t="n">
-        <v>80.97</v>
       </c>
       <c r="H152" t="n">
         <v>80.97</v>
       </c>
       <c r="I152" t="n">
+        <v>80.97</v>
+      </c>
+      <c r="J152" t="n">
         <v>39529.55</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
         <is>
           <t xml:space="preserve"> 12.2.3 </t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>87905</t>
-        </is>
-      </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 87905 </t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
           <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F153" t="n">
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
         <v>488.2</v>
-      </c>
-      <c r="G153" t="n">
-        <v>8.369999999999999</v>
       </c>
       <c r="H153" t="n">
         <v>8.369999999999999</v>
       </c>
       <c r="I153" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="J153" t="n">
         <v>4086.23</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
         <is>
           <t xml:space="preserve"> 12.2.4 </t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>87543</t>
-        </is>
-      </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 87543 </t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
           <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F154" t="n">
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
         <v>488.2</v>
-      </c>
-      <c r="G154" t="n">
-        <v>21.1</v>
       </c>
       <c r="H154" t="n">
         <v>21.1</v>
       </c>
       <c r="I154" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="J154" t="n">
         <v>10301.02</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
         <is>
           <t xml:space="preserve"> 12.3 </t>
         </is>
       </c>
-      <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr">
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr">
         <is>
           <t>ESQUADRIAS</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
-      <c r="I155" t="n">
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
         <v>34843.94</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
         <is>
           <t xml:space="preserve"> 12.3.1 </t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>91328</t>
-        </is>
-      </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 91328 </t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
           <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
-      <c r="F156" t="n">
+      <c r="G156" t="n">
         <v>12</v>
-      </c>
-      <c r="G156" t="n">
-        <v>702.16</v>
       </c>
       <c r="H156" t="n">
         <v>702.16</v>
       </c>
       <c r="I156" t="n">
+        <v>702.16</v>
+      </c>
+      <c r="J156" t="n">
         <v>8425.92</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
         <is>
           <t xml:space="preserve"> 12.3.2 </t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>94570</t>
-        </is>
-      </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 94570 </t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
           <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F157" t="n">
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
         <v>42.03</v>
-      </c>
-      <c r="G157" t="n">
-        <v>336.13</v>
       </c>
       <c r="H157" t="n">
         <v>336.13</v>
       </c>
       <c r="I157" t="n">
+        <v>336.13</v>
+      </c>
+      <c r="J157" t="n">
         <v>14127.54</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
         <is>
           <t xml:space="preserve"> 12.3.3 </t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>94559</t>
-        </is>
-      </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 94559 </t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
           <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F158" t="n">
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
         <v>13.79</v>
-      </c>
-      <c r="G158" t="n">
-        <v>709.59</v>
       </c>
       <c r="H158" t="n">
         <v>709.59</v>
       </c>
       <c r="I158" t="n">
+        <v>709.59</v>
+      </c>
+      <c r="J158" t="n">
         <v>9785.24</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
         <is>
           <t xml:space="preserve"> 12.3.4 </t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>99837</t>
-        </is>
-      </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t xml:space="preserve"> 99837 </t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
           <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="F159" t="n">
+      <c r="G159" t="n">
         <v>3.6</v>
-      </c>
-      <c r="G159" t="n">
-        <v>695.9</v>
       </c>
       <c r="H159" t="n">
         <v>695.9</v>
       </c>
       <c r="I159" t="n">
+        <v>695.9</v>
+      </c>
+      <c r="J159" t="n">
         <v>2505.24</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr"/>
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
@@ -5894,60 +6370,72 @@
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr"/>
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr">
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr">
         <is>
           <t>Total sem BDI</t>
         </is>
       </c>
-      <c r="G161" t="inlineStr"/>
-      <c r="H161" t="n">
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
         <v>1945452.28</v>
       </c>
-      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr"/>
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr">
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr">
         <is>
           <t>Total do BDI</t>
         </is>
       </c>
-      <c r="G162" t="inlineStr"/>
-      <c r="H162" t="n">
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr"/>
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr">
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr">
         <is>
           <t>Total Geral</t>
         </is>
       </c>
-      <c r="G163" t="inlineStr"/>
-      <c r="H163" t="n">
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
         <v>1945452.28</v>
       </c>
-      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr"/>
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr"/>
@@ -5956,16 +6444,19 @@
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
         <is>
           <t>_______________________________________________________________
 Elias Lobato
 Outros</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr"/>
@@ -5973,6 +6464,7 @@
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Planilha Ajustada.xlsx
+++ b/Planilha Ajustada.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J165"/>
+  <dimension ref="A1:I159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6037 +422,5455 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Código</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Banco</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Descrição</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Und</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Quant.</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Valor Unit</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Valor Unit com BDI</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1 </t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>SERVIÇOS PRELIMINARES</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="n">
+      <c r="I2" t="n">
         <v>127600.4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 000662 </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SBC</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>PLACA DE OBRAS COM BANNER DE LONA 80X120CM</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 01.01.01</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 000662 </t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>SBC</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>PLACA DE OBRAS COM BANNER DE LONA 80X120CM</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>um</t>
-        </is>
-      </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>64.90000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="J3" t="n">
         <v>389.4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1.2.1</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01.02.01.03</t>
+          <t>0002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0002</t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CAPINA E LIMPEZA MANUAL DE TERRENO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CAPINA E LIMPEZA MANUAL DE TERRENO</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>650</v>
       </c>
       <c r="G4" t="n">
-        <v>650</v>
+        <v>1.74</v>
       </c>
       <c r="H4" t="n">
         <v>1.74</v>
       </c>
       <c r="I4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="J4" t="n">
         <v>1131</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01.03 </t>
+          <t xml:space="preserve"> 98458 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 98458 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>TAPUME COM COMPENSADO DE MADEIRA. AF_05/2018</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>TAPUME COM COMPENSADO DE MADEIRA. AF_05/2018</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1000</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>126.08</v>
       </c>
       <c r="H5" t="n">
         <v>126.08</v>
       </c>
       <c r="I5" t="n">
-        <v>126.08</v>
-      </c>
-      <c r="J5" t="n">
         <v>126080</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2 </t>
-        </is>
-      </c>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>FUNDAÇÕES</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
+      <c r="I6" t="n">
         <v>56665.52</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.1 </t>
+          <t>00098681</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>00098681</t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>PISO CIMENTADO, TRAÇO 1:3 (CIMENTO E AREIA), ACABAMENTO RÚSTICO, ESPESSURA 2,0 CM, PREPARO MECÂNICO DA ARGAMASSA. AF_09/2020</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>PISO CIMENTADO, TRAÇO 1:3 (CIMENTO E AREIA), ACABAMENTO RÚSTICO, ESPESSURA 2,0 CM, PREPARO MECÂNICO DA ARGAMASSA. AF_09/2020</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>585.63</v>
       </c>
       <c r="G7" t="n">
-        <v>585.63</v>
+        <v>27.69</v>
       </c>
       <c r="H7" t="n">
         <v>27.69</v>
       </c>
       <c r="I7" t="n">
-        <v>27.69</v>
-      </c>
-      <c r="J7" t="n">
         <v>16216.09</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2.2</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.2 </t>
+          <t xml:space="preserve"> 15.05.520 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15.05.520 </t>
+          <t>CPOS</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CPOS</t>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
           <t>m³</t>
         </is>
       </c>
+      <c r="F8" t="n">
+        <v>11.34</v>
+      </c>
       <c r="G8" t="n">
-        <v>11.34</v>
+        <v>2701.69</v>
       </c>
       <c r="H8" t="n">
         <v>2701.69</v>
       </c>
       <c r="I8" t="n">
-        <v>2701.69</v>
-      </c>
-      <c r="J8" t="n">
         <v>30637.16</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.3 </t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2.3</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>894</v>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM) FBK = 14,0 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO COLHER DE PEDREIRO. AF_12/2014</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM) FBK = 14,0 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO COLHER DE PEDREIRO. AF_12/2014</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>85.51000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>85.51000000000001</v>
+        <v>114.75</v>
       </c>
       <c r="H9" t="n">
         <v>114.75</v>
       </c>
       <c r="I9" t="n">
-        <v>114.75</v>
-      </c>
-      <c r="J9" t="n">
         <v>9812.27</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3 </t>
-        </is>
-      </c>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>PAV - 1</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
+      <c r="I10" t="n">
         <v>143875.09</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.1 </t>
-        </is>
-      </c>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>PISOS</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
+      <c r="I11" t="n">
         <v>37607.4</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3.1.1</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1.1 </t>
+          <t xml:space="preserve"> 101964 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>242.85</v>
       </c>
       <c r="G12" t="n">
-        <v>242.85</v>
+        <v>150.88</v>
       </c>
       <c r="H12" t="n">
         <v>150.88</v>
       </c>
       <c r="I12" t="n">
-        <v>150.88</v>
-      </c>
-      <c r="J12" t="n">
         <v>36641.2</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3.1.2</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1.2 </t>
+          <t xml:space="preserve"> 90930 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>5.39</v>
       </c>
       <c r="G13" t="n">
-        <v>5.39</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H13" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="J13" t="n">
         <v>347.11</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3.1.3</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1.3 </t>
+          <t xml:space="preserve"> 87259 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>5.39</v>
       </c>
       <c r="G14" t="n">
-        <v>5.39</v>
+        <v>114.86</v>
       </c>
       <c r="H14" t="n">
         <v>114.86</v>
       </c>
       <c r="I14" t="n">
-        <v>114.86</v>
-      </c>
-      <c r="J14" t="n">
         <v>619.09</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.2 </t>
-        </is>
-      </c>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3.2</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>PAREDES</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
+      <c r="I15" t="n">
         <v>71423.75</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3.2.1</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2.1 </t>
+          <t xml:space="preserve"> 15.05.520 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15.05.520 </t>
+          <t>CPOS</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CPOS</t>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
           <t>m³</t>
         </is>
       </c>
+      <c r="F16" t="n">
+        <v>6.48</v>
+      </c>
       <c r="G16" t="n">
-        <v>6.48</v>
+        <v>2701.69</v>
       </c>
       <c r="H16" t="n">
         <v>2701.69</v>
       </c>
       <c r="I16" t="n">
-        <v>2701.69</v>
-      </c>
-      <c r="J16" t="n">
         <v>17506.95</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3.2.2</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2.2 </t>
+          <t xml:space="preserve"> 89467 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>488.2</v>
       </c>
       <c r="G17" t="n">
-        <v>488.2</v>
+        <v>80.97</v>
       </c>
       <c r="H17" t="n">
         <v>80.97</v>
       </c>
       <c r="I17" t="n">
-        <v>80.97</v>
-      </c>
-      <c r="J17" t="n">
         <v>39529.55</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3.2.3</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2.3 </t>
+          <t xml:space="preserve"> 87905 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>488.2</v>
       </c>
       <c r="G18" t="n">
-        <v>488.2</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H18" t="n">
         <v>8.369999999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="J18" t="n">
         <v>4086.23</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3.2.4</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2.4 </t>
+          <t xml:space="preserve"> 87543 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>488.2</v>
       </c>
       <c r="G19" t="n">
-        <v>488.2</v>
+        <v>21.1</v>
       </c>
       <c r="H19" t="n">
         <v>21.1</v>
       </c>
       <c r="I19" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="J19" t="n">
         <v>10301.02</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.3 </t>
-        </is>
-      </c>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>ESQUADRIAS</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
+      <c r="I20" t="n">
         <v>34843.94</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3.3.1</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3.1 </t>
+          <t xml:space="preserve"> 91328 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91328 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
           <t>UN</t>
         </is>
       </c>
+      <c r="F21" t="n">
+        <v>12</v>
+      </c>
       <c r="G21" t="n">
-        <v>12</v>
+        <v>702.16</v>
       </c>
       <c r="H21" t="n">
         <v>702.16</v>
       </c>
       <c r="I21" t="n">
-        <v>702.16</v>
-      </c>
-      <c r="J21" t="n">
         <v>8425.92</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3.3.2</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3.2 </t>
+          <t xml:space="preserve"> 94570 </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94570 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>42.03</v>
       </c>
       <c r="G22" t="n">
-        <v>42.03</v>
+        <v>336.13</v>
       </c>
       <c r="H22" t="n">
         <v>336.13</v>
       </c>
       <c r="I22" t="n">
-        <v>336.13</v>
-      </c>
-      <c r="J22" t="n">
         <v>14127.54</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3.3.3</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3.3 </t>
+          <t xml:space="preserve"> 94559 </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>13.79</v>
       </c>
       <c r="G23" t="n">
-        <v>13.79</v>
+        <v>709.59</v>
       </c>
       <c r="H23" t="n">
         <v>709.59</v>
       </c>
       <c r="I23" t="n">
-        <v>709.59</v>
-      </c>
-      <c r="J23" t="n">
         <v>9785.24</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3.3.4</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3.4 </t>
+          <t xml:space="preserve"> 99837 </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
           <t>M</t>
         </is>
       </c>
+      <c r="F24" t="n">
+        <v>3.6</v>
+      </c>
       <c r="G24" t="n">
-        <v>3.6</v>
+        <v>695.9</v>
       </c>
       <c r="H24" t="n">
         <v>695.9</v>
       </c>
       <c r="I24" t="n">
-        <v>695.9</v>
-      </c>
-      <c r="J24" t="n">
         <v>2505.24</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4 </t>
-        </is>
-      </c>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>PAV - 2</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
+      <c r="I25" t="n">
         <v>146275.29</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.1 </t>
-        </is>
-      </c>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>PISOS</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
+      <c r="I26" t="n">
         <v>40007.6</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4.1.1</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.1.1 </t>
+          <t xml:space="preserve"> 101964 </t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>251.57</v>
       </c>
       <c r="G27" t="n">
-        <v>251.57</v>
+        <v>150.88</v>
       </c>
       <c r="H27" t="n">
         <v>150.88</v>
       </c>
       <c r="I27" t="n">
-        <v>150.88</v>
-      </c>
-      <c r="J27" t="n">
         <v>37956.88</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4.1.2</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.1.2 </t>
+          <t xml:space="preserve"> 90930 </t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>11.44</v>
       </c>
       <c r="G28" t="n">
-        <v>11.44</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H28" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="J28" t="n">
         <v>736.73</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4.1.3</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.1.3 </t>
+          <t xml:space="preserve"> 87259 </t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>11.44</v>
       </c>
       <c r="G29" t="n">
-        <v>11.44</v>
+        <v>114.86</v>
       </c>
       <c r="H29" t="n">
         <v>114.86</v>
       </c>
       <c r="I29" t="n">
-        <v>114.86</v>
-      </c>
-      <c r="J29" t="n">
         <v>1313.99</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.2 </t>
-        </is>
-      </c>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>PAREDES</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
+      <c r="I30" t="n">
         <v>71423.75</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4.2.1</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.2.1 </t>
+          <t xml:space="preserve"> 15.05.520 </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15.05.520 </t>
+          <t>CPOS</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>CPOS</t>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
           <t>m³</t>
         </is>
       </c>
+      <c r="F31" t="n">
+        <v>6.48</v>
+      </c>
       <c r="G31" t="n">
-        <v>6.48</v>
+        <v>2701.69</v>
       </c>
       <c r="H31" t="n">
         <v>2701.69</v>
       </c>
       <c r="I31" t="n">
-        <v>2701.69</v>
-      </c>
-      <c r="J31" t="n">
         <v>17506.95</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4.2.2</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.2.2 </t>
+          <t xml:space="preserve"> 89467 </t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>488.2</v>
       </c>
       <c r="G32" t="n">
-        <v>488.2</v>
+        <v>80.97</v>
       </c>
       <c r="H32" t="n">
         <v>80.97</v>
       </c>
       <c r="I32" t="n">
-        <v>80.97</v>
-      </c>
-      <c r="J32" t="n">
         <v>39529.55</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>4.2.3</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.2.3 </t>
+          <t xml:space="preserve"> 87905 </t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>488.2</v>
       </c>
       <c r="G33" t="n">
-        <v>488.2</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H33" t="n">
         <v>8.369999999999999</v>
       </c>
       <c r="I33" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="J33" t="n">
         <v>4086.23</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4.2.4</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.2.4 </t>
+          <t xml:space="preserve"> 87543 </t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>488.2</v>
       </c>
       <c r="G34" t="n">
-        <v>488.2</v>
+        <v>21.1</v>
       </c>
       <c r="H34" t="n">
         <v>21.1</v>
       </c>
       <c r="I34" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="J34" t="n">
         <v>10301.02</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.3 </t>
-        </is>
-      </c>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>ESQUADRIAS</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
+      <c r="I35" t="n">
         <v>34843.94</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4.3.1</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.3.1 </t>
+          <t xml:space="preserve"> 91328 </t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91328 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
           <t>UN</t>
         </is>
       </c>
+      <c r="F36" t="n">
+        <v>12</v>
+      </c>
       <c r="G36" t="n">
-        <v>12</v>
+        <v>702.16</v>
       </c>
       <c r="H36" t="n">
         <v>702.16</v>
       </c>
       <c r="I36" t="n">
-        <v>702.16</v>
-      </c>
-      <c r="J36" t="n">
         <v>8425.92</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4.3.2</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.3.2 </t>
+          <t xml:space="preserve"> 94570 </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94570 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>42.03</v>
       </c>
       <c r="G37" t="n">
-        <v>42.03</v>
+        <v>336.13</v>
       </c>
       <c r="H37" t="n">
         <v>336.13</v>
       </c>
       <c r="I37" t="n">
-        <v>336.13</v>
-      </c>
-      <c r="J37" t="n">
         <v>14127.54</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4.3.3</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.3.3 </t>
+          <t xml:space="preserve"> 94559 </t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>13.79</v>
       </c>
       <c r="G38" t="n">
-        <v>13.79</v>
+        <v>709.59</v>
       </c>
       <c r="H38" t="n">
         <v>709.59</v>
       </c>
       <c r="I38" t="n">
-        <v>709.59</v>
-      </c>
-      <c r="J38" t="n">
         <v>9785.24</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4.3.4</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.3.4 </t>
+          <t xml:space="preserve"> 99837 </t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
           <t>M</t>
         </is>
       </c>
+      <c r="F39" t="n">
+        <v>3.6</v>
+      </c>
       <c r="G39" t="n">
-        <v>3.6</v>
+        <v>695.9</v>
       </c>
       <c r="H39" t="n">
         <v>695.9</v>
       </c>
       <c r="I39" t="n">
-        <v>695.9</v>
-      </c>
-      <c r="J39" t="n">
         <v>2505.24</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5 </t>
-        </is>
-      </c>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>PAV - 3</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
+      <c r="I40" t="n">
         <v>146275.29</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5.1 </t>
-        </is>
-      </c>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>5.1</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>PISOS</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
+      <c r="I41" t="n">
         <v>40007.6</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>5.1.1</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.1.1 </t>
+          <t xml:space="preserve"> 101964 </t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>251.57</v>
       </c>
       <c r="G42" t="n">
-        <v>251.57</v>
+        <v>150.88</v>
       </c>
       <c r="H42" t="n">
         <v>150.88</v>
       </c>
       <c r="I42" t="n">
-        <v>150.88</v>
-      </c>
-      <c r="J42" t="n">
         <v>37956.88</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>5.1.2</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.1.2 </t>
+          <t xml:space="preserve"> 90930 </t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>11.44</v>
       </c>
       <c r="G43" t="n">
-        <v>11.44</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H43" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="I43" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="J43" t="n">
         <v>736.73</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>5.1.3</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.1.3 </t>
+          <t xml:space="preserve"> 87259 </t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>11.44</v>
       </c>
       <c r="G44" t="n">
-        <v>11.44</v>
+        <v>114.86</v>
       </c>
       <c r="H44" t="n">
         <v>114.86</v>
       </c>
       <c r="I44" t="n">
-        <v>114.86</v>
-      </c>
-      <c r="J44" t="n">
         <v>1313.99</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5.2 </t>
-        </is>
-      </c>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>5.2</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>PAREDES</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
+      <c r="I45" t="n">
         <v>71423.75</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>5.2.1</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.2.1 </t>
+          <t xml:space="preserve"> 15.05.520 </t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15.05.520 </t>
+          <t>CPOS</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>CPOS</t>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
           <t>m³</t>
         </is>
       </c>
+      <c r="F46" t="n">
+        <v>6.48</v>
+      </c>
       <c r="G46" t="n">
-        <v>6.48</v>
+        <v>2701.69</v>
       </c>
       <c r="H46" t="n">
         <v>2701.69</v>
       </c>
       <c r="I46" t="n">
-        <v>2701.69</v>
-      </c>
-      <c r="J46" t="n">
         <v>17506.95</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>5.2.2</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.2.2 </t>
+          <t xml:space="preserve"> 89467 </t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>488.2</v>
       </c>
       <c r="G47" t="n">
-        <v>488.2</v>
+        <v>80.97</v>
       </c>
       <c r="H47" t="n">
         <v>80.97</v>
       </c>
       <c r="I47" t="n">
-        <v>80.97</v>
-      </c>
-      <c r="J47" t="n">
         <v>39529.55</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>5.2.3</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.2.3 </t>
+          <t xml:space="preserve"> 87905 </t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>488.2</v>
       </c>
       <c r="G48" t="n">
-        <v>488.2</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H48" t="n">
         <v>8.369999999999999</v>
       </c>
       <c r="I48" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="J48" t="n">
         <v>4086.23</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>5.2.4</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.2.4 </t>
+          <t xml:space="preserve"> 87543 </t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>488.2</v>
       </c>
       <c r="G49" t="n">
-        <v>488.2</v>
+        <v>21.1</v>
       </c>
       <c r="H49" t="n">
         <v>21.1</v>
       </c>
       <c r="I49" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="J49" t="n">
         <v>10301.02</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5.3 </t>
-        </is>
-      </c>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>5.3</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>ESQUADRIAS</t>
         </is>
       </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
+      <c r="I50" t="n">
         <v>34843.94</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>5.3.1</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.3.1 </t>
+          <t xml:space="preserve"> 91328 </t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91328 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
           <t>UN</t>
         </is>
       </c>
+      <c r="F51" t="n">
+        <v>12</v>
+      </c>
       <c r="G51" t="n">
-        <v>12</v>
+        <v>702.16</v>
       </c>
       <c r="H51" t="n">
         <v>702.16</v>
       </c>
       <c r="I51" t="n">
-        <v>702.16</v>
-      </c>
-      <c r="J51" t="n">
         <v>8425.92</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>5.3.2</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.3.2 </t>
+          <t xml:space="preserve"> 94570 </t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94570 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>42.03</v>
       </c>
       <c r="G52" t="n">
-        <v>42.03</v>
+        <v>336.13</v>
       </c>
       <c r="H52" t="n">
         <v>336.13</v>
       </c>
       <c r="I52" t="n">
-        <v>336.13</v>
-      </c>
-      <c r="J52" t="n">
         <v>14127.54</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>5.3.3</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.3.3 </t>
+          <t xml:space="preserve"> 94559 </t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>13.79</v>
       </c>
       <c r="G53" t="n">
-        <v>13.79</v>
+        <v>709.59</v>
       </c>
       <c r="H53" t="n">
         <v>709.59</v>
       </c>
       <c r="I53" t="n">
-        <v>709.59</v>
-      </c>
-      <c r="J53" t="n">
         <v>9785.24</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>5.3.4</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.3.4 </t>
+          <t xml:space="preserve"> 99837 </t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
           <t>M</t>
         </is>
       </c>
+      <c r="F54" t="n">
+        <v>3.6</v>
+      </c>
       <c r="G54" t="n">
-        <v>3.6</v>
+        <v>695.9</v>
       </c>
       <c r="H54" t="n">
         <v>695.9</v>
       </c>
       <c r="I54" t="n">
-        <v>695.9</v>
-      </c>
-      <c r="J54" t="n">
         <v>2505.24</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6 </t>
-        </is>
-      </c>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>PAV - 4</t>
         </is>
       </c>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
+      <c r="I55" t="n">
         <v>189321</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6.1 </t>
-        </is>
-      </c>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>6.1</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>PISOS</t>
         </is>
       </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
+      <c r="I56" t="n">
         <v>83053.31</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>6.1.1</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06.01.01 </t>
+          <t xml:space="preserve"> 101964 </t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>251.57</v>
       </c>
       <c r="G57" t="n">
-        <v>251.57</v>
+        <v>150.88</v>
       </c>
       <c r="H57" t="n">
         <v>150.88</v>
       </c>
       <c r="I57" t="n">
-        <v>150.88</v>
-      </c>
-      <c r="J57" t="n">
         <v>37956.88</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>6.1.2</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.1.2 </t>
+          <t xml:space="preserve"> 90930 </t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>251.57</v>
       </c>
       <c r="G58" t="n">
-        <v>251.57</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H58" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="I58" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="J58" t="n">
         <v>16201.1</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>6.1.3</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.1.3 </t>
+          <t xml:space="preserve"> 87259 </t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>251.57</v>
       </c>
       <c r="G59" t="n">
-        <v>251.57</v>
+        <v>114.86</v>
       </c>
       <c r="H59" t="n">
         <v>114.86</v>
       </c>
       <c r="I59" t="n">
-        <v>114.86</v>
-      </c>
-      <c r="J59" t="n">
         <v>28895.33</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6.2 </t>
-        </is>
-      </c>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>6.2</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>PAREDES</t>
         </is>
       </c>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
+      <c r="I60" t="n">
         <v>71423.75</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>6.2.1</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.2.1 </t>
+          <t xml:space="preserve"> 15.05.520 </t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15.05.520 </t>
+          <t>CPOS</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>CPOS</t>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
           <t>m³</t>
         </is>
       </c>
+      <c r="F61" t="n">
+        <v>6.48</v>
+      </c>
       <c r="G61" t="n">
-        <v>6.48</v>
+        <v>2701.69</v>
       </c>
       <c r="H61" t="n">
         <v>2701.69</v>
       </c>
       <c r="I61" t="n">
-        <v>2701.69</v>
-      </c>
-      <c r="J61" t="n">
         <v>17506.95</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>6.2.2</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.2.2 </t>
+          <t xml:space="preserve"> 89467 </t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>488.2</v>
       </c>
       <c r="G62" t="n">
-        <v>488.2</v>
+        <v>80.97</v>
       </c>
       <c r="H62" t="n">
         <v>80.97</v>
       </c>
       <c r="I62" t="n">
-        <v>80.97</v>
-      </c>
-      <c r="J62" t="n">
         <v>39529.55</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>6.2.3</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.2.3 </t>
+          <t xml:space="preserve"> 87905 </t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>488.2</v>
       </c>
       <c r="G63" t="n">
-        <v>488.2</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H63" t="n">
         <v>8.369999999999999</v>
       </c>
       <c r="I63" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="J63" t="n">
         <v>4086.23</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>6.2.4</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.2.4 </t>
+          <t xml:space="preserve"> 87543 </t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>488.2</v>
       </c>
       <c r="G64" t="n">
-        <v>488.2</v>
+        <v>21.1</v>
       </c>
       <c r="H64" t="n">
         <v>21.1</v>
       </c>
       <c r="I64" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="J64" t="n">
         <v>10301.02</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6.3 </t>
-        </is>
-      </c>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>6.3</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>ESQUADRIAS</t>
         </is>
       </c>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
+      <c r="I65" t="n">
         <v>34843.94</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>6.3.1</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.3.1 </t>
+          <t xml:space="preserve"> 91328 </t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91328 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
           <t>UN</t>
         </is>
       </c>
+      <c r="F66" t="n">
+        <v>12</v>
+      </c>
       <c r="G66" t="n">
-        <v>12</v>
+        <v>702.16</v>
       </c>
       <c r="H66" t="n">
         <v>702.16</v>
       </c>
       <c r="I66" t="n">
-        <v>702.16</v>
-      </c>
-      <c r="J66" t="n">
         <v>8425.92</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>6.3.2</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.3.2 </t>
+          <t xml:space="preserve"> 94570 </t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94570 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>42.03</v>
       </c>
       <c r="G67" t="n">
-        <v>42.03</v>
+        <v>336.13</v>
       </c>
       <c r="H67" t="n">
         <v>336.13</v>
       </c>
       <c r="I67" t="n">
-        <v>336.13</v>
-      </c>
-      <c r="J67" t="n">
         <v>14127.54</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>6.3.3</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.3.3 </t>
+          <t xml:space="preserve"> 94559 </t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>13.79</v>
       </c>
       <c r="G68" t="n">
-        <v>13.79</v>
+        <v>709.59</v>
       </c>
       <c r="H68" t="n">
         <v>709.59</v>
       </c>
       <c r="I68" t="n">
-        <v>709.59</v>
-      </c>
-      <c r="J68" t="n">
         <v>9785.24</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>6.3.4</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.3.4 </t>
+          <t xml:space="preserve"> 99837 </t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
           <t>M</t>
         </is>
       </c>
+      <c r="F69" t="n">
+        <v>3.6</v>
+      </c>
       <c r="G69" t="n">
-        <v>3.6</v>
+        <v>695.9</v>
       </c>
       <c r="H69" t="n">
         <v>695.9</v>
       </c>
       <c r="I69" t="n">
-        <v>695.9</v>
-      </c>
-      <c r="J69" t="n">
         <v>2505.24</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7 </t>
-        </is>
-      </c>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>PAV - 5</t>
         </is>
       </c>
+      <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
+      <c r="I70" t="n">
         <v>189321</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.1 </t>
-        </is>
-      </c>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>7.1</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>PISOS</t>
         </is>
       </c>
+      <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
+      <c r="I71" t="n">
         <v>83053.31</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>7.1.1</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.1.1 </t>
+          <t xml:space="preserve"> 101964 </t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>251.57</v>
       </c>
       <c r="G72" t="n">
-        <v>251.57</v>
+        <v>150.88</v>
       </c>
       <c r="H72" t="n">
         <v>150.88</v>
       </c>
       <c r="I72" t="n">
-        <v>150.88</v>
-      </c>
-      <c r="J72" t="n">
         <v>37956.88</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>7.1.2</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.1.2 </t>
+          <t xml:space="preserve"> 90930 </t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>251.57</v>
       </c>
       <c r="G73" t="n">
-        <v>251.57</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H73" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="I73" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="J73" t="n">
         <v>16201.1</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>7.1.3</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.1.3 </t>
+          <t xml:space="preserve"> 87259 </t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>251.57</v>
       </c>
       <c r="G74" t="n">
-        <v>251.57</v>
+        <v>114.86</v>
       </c>
       <c r="H74" t="n">
         <v>114.86</v>
       </c>
       <c r="I74" t="n">
-        <v>114.86</v>
-      </c>
-      <c r="J74" t="n">
         <v>28895.33</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.2 </t>
-        </is>
-      </c>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>7.2</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>PAREDES</t>
         </is>
       </c>
+      <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
+      <c r="I75" t="n">
         <v>71423.75</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>7.2.1</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.2.1 </t>
+          <t xml:space="preserve"> 15.05.520 </t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15.05.520 </t>
+          <t>CPOS</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>CPOS</t>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
           <t>m³</t>
         </is>
       </c>
+      <c r="F76" t="n">
+        <v>6.48</v>
+      </c>
       <c r="G76" t="n">
-        <v>6.48</v>
+        <v>2701.69</v>
       </c>
       <c r="H76" t="n">
         <v>2701.69</v>
       </c>
       <c r="I76" t="n">
-        <v>2701.69</v>
-      </c>
-      <c r="J76" t="n">
         <v>17506.95</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>7.2.2</t>
+        </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.2.2 </t>
+          <t xml:space="preserve"> 89467 </t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>488.2</v>
       </c>
       <c r="G77" t="n">
-        <v>488.2</v>
+        <v>80.97</v>
       </c>
       <c r="H77" t="n">
         <v>80.97</v>
       </c>
       <c r="I77" t="n">
-        <v>80.97</v>
-      </c>
-      <c r="J77" t="n">
         <v>39529.55</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>7.2.3</t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.2.3 </t>
+          <t xml:space="preserve"> 87905 </t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>488.2</v>
       </c>
       <c r="G78" t="n">
-        <v>488.2</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H78" t="n">
         <v>8.369999999999999</v>
       </c>
       <c r="I78" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="J78" t="n">
         <v>4086.23</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>7.2.4</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.2.4 </t>
+          <t xml:space="preserve"> 87543 </t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>488.2</v>
       </c>
       <c r="G79" t="n">
-        <v>488.2</v>
+        <v>21.1</v>
       </c>
       <c r="H79" t="n">
         <v>21.1</v>
       </c>
       <c r="I79" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="J79" t="n">
         <v>10301.02</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.3 </t>
-        </is>
-      </c>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>7.3</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>ESQUADRIAS</t>
         </is>
       </c>
+      <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
+      <c r="I80" t="n">
         <v>34843.94</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>7.3.1</t>
+        </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.3.1 </t>
+          <t xml:space="preserve"> 91328 </t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91328 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
           <t>UN</t>
         </is>
       </c>
+      <c r="F81" t="n">
+        <v>12</v>
+      </c>
       <c r="G81" t="n">
-        <v>12</v>
+        <v>702.16</v>
       </c>
       <c r="H81" t="n">
         <v>702.16</v>
       </c>
       <c r="I81" t="n">
-        <v>702.16</v>
-      </c>
-      <c r="J81" t="n">
         <v>8425.92</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>7.3.2</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.3.2 </t>
+          <t xml:space="preserve"> 94570 </t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94570 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>42.03</v>
       </c>
       <c r="G82" t="n">
-        <v>42.03</v>
+        <v>336.13</v>
       </c>
       <c r="H82" t="n">
         <v>336.13</v>
       </c>
       <c r="I82" t="n">
-        <v>336.13</v>
-      </c>
-      <c r="J82" t="n">
         <v>14127.54</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>7.3.3</t>
+        </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.3.3 </t>
+          <t xml:space="preserve"> 94559 </t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>13.79</v>
       </c>
       <c r="G83" t="n">
-        <v>13.79</v>
+        <v>709.59</v>
       </c>
       <c r="H83" t="n">
         <v>709.59</v>
       </c>
       <c r="I83" t="n">
-        <v>709.59</v>
-      </c>
-      <c r="J83" t="n">
         <v>9785.24</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>7.3.4</t>
+        </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.3.4 </t>
+          <t xml:space="preserve"> 99837 </t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
           <t>M</t>
         </is>
       </c>
+      <c r="F84" t="n">
+        <v>3.6</v>
+      </c>
       <c r="G84" t="n">
-        <v>3.6</v>
+        <v>695.9</v>
       </c>
       <c r="H84" t="n">
         <v>695.9</v>
       </c>
       <c r="I84" t="n">
-        <v>695.9</v>
-      </c>
-      <c r="J84" t="n">
         <v>2505.24</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8 </t>
-        </is>
-      </c>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>PAV - 6</t>
         </is>
       </c>
+      <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
+      <c r="I85" t="n">
         <v>189321</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8.1 </t>
-        </is>
-      </c>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>PISOS</t>
         </is>
       </c>
+      <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
+      <c r="I86" t="n">
         <v>83053.31</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>8.1.1</t>
+        </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.1.1 </t>
+          <t xml:space="preserve"> 101964 </t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>251.57</v>
       </c>
       <c r="G87" t="n">
-        <v>251.57</v>
+        <v>150.88</v>
       </c>
       <c r="H87" t="n">
         <v>150.88</v>
       </c>
       <c r="I87" t="n">
-        <v>150.88</v>
-      </c>
-      <c r="J87" t="n">
         <v>37956.88</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>8.1.2</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.1.2 </t>
+          <t xml:space="preserve"> 90930 </t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>251.57</v>
       </c>
       <c r="G88" t="n">
-        <v>251.57</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H88" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="I88" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="J88" t="n">
         <v>16201.1</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>8.1.3</t>
+        </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.1.3 </t>
+          <t xml:space="preserve"> 87259 </t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>251.57</v>
       </c>
       <c r="G89" t="n">
-        <v>251.57</v>
+        <v>114.86</v>
       </c>
       <c r="H89" t="n">
         <v>114.86</v>
       </c>
       <c r="I89" t="n">
-        <v>114.86</v>
-      </c>
-      <c r="J89" t="n">
         <v>28895.33</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8.2 </t>
-        </is>
-      </c>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>PAREDES</t>
         </is>
       </c>
+      <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
+      <c r="I90" t="n">
         <v>71423.75</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>8.2.1</t>
+        </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.2.1 </t>
+          <t xml:space="preserve"> 15.05.520 </t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15.05.520 </t>
+          <t>CPOS</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>CPOS</t>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
           <t>m³</t>
         </is>
       </c>
+      <c r="F91" t="n">
+        <v>6.48</v>
+      </c>
       <c r="G91" t="n">
-        <v>6.48</v>
+        <v>2701.69</v>
       </c>
       <c r="H91" t="n">
         <v>2701.69</v>
       </c>
       <c r="I91" t="n">
-        <v>2701.69</v>
-      </c>
-      <c r="J91" t="n">
         <v>17506.95</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>8.2.2</t>
+        </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.2.2 </t>
+          <t xml:space="preserve"> 89467 </t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>488.2</v>
       </c>
       <c r="G92" t="n">
-        <v>488.2</v>
+        <v>80.97</v>
       </c>
       <c r="H92" t="n">
         <v>80.97</v>
       </c>
       <c r="I92" t="n">
-        <v>80.97</v>
-      </c>
-      <c r="J92" t="n">
         <v>39529.55</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>8.2.3</t>
+        </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.2.3 </t>
+          <t xml:space="preserve"> 87905 </t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>488.2</v>
       </c>
       <c r="G93" t="n">
-        <v>488.2</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H93" t="n">
         <v>8.369999999999999</v>
       </c>
       <c r="I93" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="J93" t="n">
         <v>4086.23</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>8.2.4</t>
+        </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.2.4 </t>
+          <t xml:space="preserve"> 87543 </t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>488.2</v>
       </c>
       <c r="G94" t="n">
-        <v>488.2</v>
+        <v>21.1</v>
       </c>
       <c r="H94" t="n">
         <v>21.1</v>
       </c>
       <c r="I94" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="J94" t="n">
         <v>10301.02</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8.3 </t>
-        </is>
-      </c>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>ESQUADRIAS</t>
         </is>
       </c>
+      <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
+      <c r="I95" t="n">
         <v>34843.94</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>8.3.1</t>
+        </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.3.1 </t>
+          <t xml:space="preserve"> 91328 </t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91328 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
           <t>UN</t>
         </is>
       </c>
+      <c r="F96" t="n">
+        <v>12</v>
+      </c>
       <c r="G96" t="n">
-        <v>12</v>
+        <v>702.16</v>
       </c>
       <c r="H96" t="n">
         <v>702.16</v>
       </c>
       <c r="I96" t="n">
-        <v>702.16</v>
-      </c>
-      <c r="J96" t="n">
         <v>8425.92</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>8.3.2</t>
+        </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.3.2 </t>
+          <t xml:space="preserve"> 94570 </t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94570 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>42.03</v>
       </c>
       <c r="G97" t="n">
-        <v>42.03</v>
+        <v>336.13</v>
       </c>
       <c r="H97" t="n">
         <v>336.13</v>
       </c>
       <c r="I97" t="n">
-        <v>336.13</v>
-      </c>
-      <c r="J97" t="n">
         <v>14127.54</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>8.3.3</t>
+        </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.3.3 </t>
+          <t xml:space="preserve"> 94559 </t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>13.79</v>
       </c>
       <c r="G98" t="n">
-        <v>13.79</v>
+        <v>709.59</v>
       </c>
       <c r="H98" t="n">
         <v>709.59</v>
       </c>
       <c r="I98" t="n">
-        <v>709.59</v>
-      </c>
-      <c r="J98" t="n">
         <v>9785.24</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>8.3.4</t>
+        </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.3.4 </t>
+          <t xml:space="preserve"> 99837 </t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
           <t>M</t>
         </is>
       </c>
+      <c r="F99" t="n">
+        <v>3.6</v>
+      </c>
       <c r="G99" t="n">
-        <v>3.6</v>
+        <v>695.9</v>
       </c>
       <c r="H99" t="n">
         <v>695.9</v>
       </c>
       <c r="I99" t="n">
-        <v>695.9</v>
-      </c>
-      <c r="J99" t="n">
         <v>2505.24</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9 </t>
-        </is>
-      </c>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>PAV - 7</t>
         </is>
       </c>
+      <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
+      <c r="I100" t="n">
         <v>189321</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9.1 </t>
-        </is>
-      </c>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>PISOS</t>
         </is>
       </c>
+      <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
+      <c r="I101" t="n">
         <v>83053.31</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>9.1.1</t>
+        </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.1.1 </t>
+          <t xml:space="preserve"> 101964 </t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>251.57</v>
       </c>
       <c r="G102" t="n">
-        <v>251.57</v>
+        <v>150.88</v>
       </c>
       <c r="H102" t="n">
         <v>150.88</v>
       </c>
       <c r="I102" t="n">
-        <v>150.88</v>
-      </c>
-      <c r="J102" t="n">
         <v>37956.88</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>9.1.2</t>
+        </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.1.2 </t>
+          <t xml:space="preserve"> 90930 </t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>251.57</v>
       </c>
       <c r="G103" t="n">
-        <v>251.57</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H103" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="I103" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="J103" t="n">
         <v>16201.1</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>9.1.3</t>
+        </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.1.3 </t>
+          <t xml:space="preserve"> 87259 </t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>251.57</v>
       </c>
       <c r="G104" t="n">
-        <v>251.57</v>
+        <v>114.86</v>
       </c>
       <c r="H104" t="n">
         <v>114.86</v>
       </c>
       <c r="I104" t="n">
-        <v>114.86</v>
-      </c>
-      <c r="J104" t="n">
         <v>28895.33</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9.2 </t>
-        </is>
-      </c>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr">
+      <c r="D105" t="inlineStr">
         <is>
           <t>PAREDES</t>
         </is>
       </c>
+      <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
+      <c r="I105" t="n">
         <v>71423.75</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>9.2.1</t>
+        </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.2.1 </t>
+          <t xml:space="preserve"> 15.05.520 </t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15.05.520 </t>
+          <t>CPOS</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>CPOS</t>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
           <t>m³</t>
         </is>
       </c>
+      <c r="F106" t="n">
+        <v>6.48</v>
+      </c>
       <c r="G106" t="n">
-        <v>6.48</v>
+        <v>2701.69</v>
       </c>
       <c r="H106" t="n">
         <v>2701.69</v>
       </c>
       <c r="I106" t="n">
-        <v>2701.69</v>
-      </c>
-      <c r="J106" t="n">
         <v>17506.95</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>9.2.2</t>
+        </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.2.2 </t>
+          <t xml:space="preserve"> 89467 </t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>488.2</v>
       </c>
       <c r="G107" t="n">
-        <v>488.2</v>
+        <v>80.97</v>
       </c>
       <c r="H107" t="n">
         <v>80.97</v>
       </c>
       <c r="I107" t="n">
-        <v>80.97</v>
-      </c>
-      <c r="J107" t="n">
         <v>39529.55</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>9.2.3</t>
+        </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.2.3 </t>
+          <t xml:space="preserve"> 87905 </t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>488.2</v>
       </c>
       <c r="G108" t="n">
-        <v>488.2</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H108" t="n">
         <v>8.369999999999999</v>
       </c>
       <c r="I108" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="J108" t="n">
         <v>4086.23</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>9.2.4</t>
+        </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.2.4 </t>
+          <t xml:space="preserve"> 87543 </t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>488.2</v>
       </c>
       <c r="G109" t="n">
-        <v>488.2</v>
+        <v>21.1</v>
       </c>
       <c r="H109" t="n">
         <v>21.1</v>
       </c>
       <c r="I109" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="J109" t="n">
         <v>10301.02</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9.3 </t>
-        </is>
-      </c>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr">
+      <c r="D110" t="inlineStr">
         <is>
           <t>ESQUADRIAS</t>
         </is>
       </c>
+      <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
+      <c r="I110" t="n">
         <v>34843.94</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>9.3.1</t>
+        </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.3.1 </t>
+          <t xml:space="preserve"> 91328 </t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91328 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
           <t>UN</t>
         </is>
       </c>
+      <c r="F111" t="n">
+        <v>12</v>
+      </c>
       <c r="G111" t="n">
-        <v>12</v>
+        <v>702.16</v>
       </c>
       <c r="H111" t="n">
         <v>702.16</v>
       </c>
       <c r="I111" t="n">
-        <v>702.16</v>
-      </c>
-      <c r="J111" t="n">
         <v>8425.92</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>9.3.2</t>
+        </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.3.2 </t>
+          <t xml:space="preserve"> 94570 </t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94570 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>42.03</v>
       </c>
       <c r="G112" t="n">
-        <v>42.03</v>
+        <v>336.13</v>
       </c>
       <c r="H112" t="n">
         <v>336.13</v>
       </c>
       <c r="I112" t="n">
-        <v>336.13</v>
-      </c>
-      <c r="J112" t="n">
         <v>14127.54</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>9.3.3</t>
+        </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.3.3 </t>
+          <t xml:space="preserve"> 94559 </t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>13.79</v>
       </c>
       <c r="G113" t="n">
-        <v>13.79</v>
+        <v>709.59</v>
       </c>
       <c r="H113" t="n">
         <v>709.59</v>
       </c>
       <c r="I113" t="n">
-        <v>709.59</v>
-      </c>
-      <c r="J113" t="n">
         <v>9785.24</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>9.3.4</t>
+        </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.3.4 </t>
+          <t xml:space="preserve"> 99837 </t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
           <t>M</t>
         </is>
       </c>
+      <c r="F114" t="n">
+        <v>3.6</v>
+      </c>
       <c r="G114" t="n">
-        <v>3.6</v>
+        <v>695.9</v>
       </c>
       <c r="H114" t="n">
         <v>695.9</v>
       </c>
       <c r="I114" t="n">
-        <v>695.9</v>
-      </c>
-      <c r="J114" t="n">
         <v>2505.24</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 10 </t>
-        </is>
-      </c>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t>PAV - 8</t>
         </is>
       </c>
+      <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
+      <c r="I115" t="n">
         <v>189321</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 10.1 </t>
-        </is>
-      </c>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>10.1</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>PISOS</t>
         </is>
       </c>
+      <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
+      <c r="I116" t="n">
         <v>83053.31</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>10.1.1</t>
+        </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10.1.1 </t>
+          <t xml:space="preserve"> 101964 </t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>251.57</v>
       </c>
       <c r="G117" t="n">
-        <v>251.57</v>
+        <v>150.88</v>
       </c>
       <c r="H117" t="n">
         <v>150.88</v>
       </c>
       <c r="I117" t="n">
-        <v>150.88</v>
-      </c>
-      <c r="J117" t="n">
         <v>37956.88</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>10.1.2</t>
+        </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10.1.2 </t>
+          <t xml:space="preserve"> 90930 </t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>251.57</v>
       </c>
       <c r="G118" t="n">
-        <v>251.57</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H118" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="I118" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="J118" t="n">
         <v>16201.1</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>10.1.3</t>
+        </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10.1.3 </t>
+          <t xml:space="preserve"> 87259 </t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>251.57</v>
       </c>
       <c r="G119" t="n">
-        <v>251.57</v>
+        <v>114.86</v>
       </c>
       <c r="H119" t="n">
         <v>114.86</v>
       </c>
       <c r="I119" t="n">
-        <v>114.86</v>
-      </c>
-      <c r="J119" t="n">
         <v>28895.33</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 10.2 </t>
-        </is>
-      </c>
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>10.2</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr">
+      <c r="D120" t="inlineStr">
         <is>
           <t>PAREDES</t>
         </is>
       </c>
+      <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
+      <c r="I120" t="n">
         <v>71423.75</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>10.2.1</t>
+        </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10.2.1 </t>
+          <t xml:space="preserve"> 15.05.520 </t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15.05.520 </t>
+          <t>CPOS</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>CPOS</t>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
           <t>m³</t>
         </is>
       </c>
+      <c r="F121" t="n">
+        <v>6.48</v>
+      </c>
       <c r="G121" t="n">
-        <v>6.48</v>
+        <v>2701.69</v>
       </c>
       <c r="H121" t="n">
         <v>2701.69</v>
       </c>
       <c r="I121" t="n">
-        <v>2701.69</v>
-      </c>
-      <c r="J121" t="n">
         <v>17506.95</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>10.2.2</t>
+        </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10.2.2 </t>
+          <t xml:space="preserve"> 89467 </t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>488.2</v>
       </c>
       <c r="G122" t="n">
-        <v>488.2</v>
+        <v>80.97</v>
       </c>
       <c r="H122" t="n">
         <v>80.97</v>
       </c>
       <c r="I122" t="n">
-        <v>80.97</v>
-      </c>
-      <c r="J122" t="n">
         <v>39529.55</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>10.2.3</t>
+        </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10.2.3 </t>
+          <t xml:space="preserve"> 87905 </t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>488.2</v>
       </c>
       <c r="G123" t="n">
-        <v>488.2</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H123" t="n">
         <v>8.369999999999999</v>
       </c>
       <c r="I123" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="J123" t="n">
         <v>4086.23</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>10.2.4</t>
+        </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10.2.4 </t>
+          <t xml:space="preserve"> 87543 </t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>488.2</v>
       </c>
       <c r="G124" t="n">
-        <v>488.2</v>
+        <v>21.1</v>
       </c>
       <c r="H124" t="n">
         <v>21.1</v>
       </c>
       <c r="I124" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="J124" t="n">
         <v>10301.02</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 10.3 </t>
-        </is>
-      </c>
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>10.3</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr">
+      <c r="D125" t="inlineStr">
         <is>
           <t>ESQUADRIAS</t>
         </is>
       </c>
+      <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
+      <c r="I125" t="n">
         <v>34843.94</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>10.3.1</t>
+        </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10.3.1 </t>
+          <t xml:space="preserve"> 91328 </t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91328 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
           <t>UN</t>
         </is>
       </c>
+      <c r="F126" t="n">
+        <v>12</v>
+      </c>
       <c r="G126" t="n">
-        <v>12</v>
+        <v>702.16</v>
       </c>
       <c r="H126" t="n">
         <v>702.16</v>
       </c>
       <c r="I126" t="n">
-        <v>702.16</v>
-      </c>
-      <c r="J126" t="n">
         <v>8425.92</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>10.3.2</t>
+        </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10.3.2 </t>
+          <t xml:space="preserve"> 94570 </t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94570 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>42.03</v>
       </c>
       <c r="G127" t="n">
-        <v>42.03</v>
+        <v>336.13</v>
       </c>
       <c r="H127" t="n">
         <v>336.13</v>
       </c>
       <c r="I127" t="n">
-        <v>336.13</v>
-      </c>
-      <c r="J127" t="n">
         <v>14127.54</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>10.3.3</t>
+        </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10.3.3 </t>
+          <t xml:space="preserve"> 94559 </t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>13.79</v>
       </c>
       <c r="G128" t="n">
-        <v>13.79</v>
+        <v>709.59</v>
       </c>
       <c r="H128" t="n">
         <v>709.59</v>
       </c>
       <c r="I128" t="n">
-        <v>709.59</v>
-      </c>
-      <c r="J128" t="n">
         <v>9785.24</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>10.3.4</t>
+        </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10.3.4 </t>
+          <t xml:space="preserve"> 99837 </t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
           <t>M</t>
         </is>
       </c>
+      <c r="F129" t="n">
+        <v>3.6</v>
+      </c>
       <c r="G129" t="n">
-        <v>3.6</v>
+        <v>695.9</v>
       </c>
       <c r="H129" t="n">
         <v>695.9</v>
       </c>
       <c r="I129" t="n">
-        <v>695.9</v>
-      </c>
-      <c r="J129" t="n">
         <v>2505.24</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 11 </t>
-        </is>
-      </c>
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr">
+      <c r="D130" t="inlineStr">
         <is>
           <t>PAV - 9</t>
         </is>
       </c>
+      <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
+      <c r="I130" t="n">
         <v>189321</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 11.1 </t>
-        </is>
-      </c>
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>11.1</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr">
+      <c r="D131" t="inlineStr">
         <is>
           <t>PISOS</t>
         </is>
       </c>
+      <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
+      <c r="I131" t="n">
         <v>83053.31</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>11.1.1</t>
+        </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11.1.1 </t>
+          <t xml:space="preserve"> 101964 </t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>251.57</v>
       </c>
       <c r="G132" t="n">
-        <v>251.57</v>
+        <v>150.88</v>
       </c>
       <c r="H132" t="n">
         <v>150.88</v>
       </c>
       <c r="I132" t="n">
-        <v>150.88</v>
-      </c>
-      <c r="J132" t="n">
         <v>37956.88</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>11.1.2</t>
+        </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11.1.2 </t>
+          <t xml:space="preserve"> 90930 </t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>251.57</v>
       </c>
       <c r="G133" t="n">
-        <v>251.57</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H133" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="I133" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="J133" t="n">
         <v>16201.1</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>11.1.3</t>
+        </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11.1.3 </t>
+          <t xml:space="preserve"> 87259 </t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>251.57</v>
       </c>
       <c r="G134" t="n">
-        <v>251.57</v>
+        <v>114.86</v>
       </c>
       <c r="H134" t="n">
         <v>114.86</v>
       </c>
       <c r="I134" t="n">
-        <v>114.86</v>
-      </c>
-      <c r="J134" t="n">
         <v>28895.33</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 11.2 </t>
-        </is>
-      </c>
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>11.2</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr">
+      <c r="D135" t="inlineStr">
         <is>
           <t>PAREDES</t>
         </is>
       </c>
+      <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
+      <c r="I135" t="n">
         <v>71423.75</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>11.2.1</t>
+        </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11.2.1 </t>
+          <t xml:space="preserve"> 15.05.520 </t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15.05.520 </t>
+          <t>CPOS</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>CPOS</t>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
           <t>m³</t>
         </is>
       </c>
+      <c r="F136" t="n">
+        <v>6.48</v>
+      </c>
       <c r="G136" t="n">
-        <v>6.48</v>
+        <v>2701.69</v>
       </c>
       <c r="H136" t="n">
         <v>2701.69</v>
       </c>
       <c r="I136" t="n">
-        <v>2701.69</v>
-      </c>
-      <c r="J136" t="n">
         <v>17506.95</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>11.2.2</t>
+        </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11.2.2 </t>
+          <t xml:space="preserve"> 89467 </t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>488.2</v>
       </c>
       <c r="G137" t="n">
-        <v>488.2</v>
+        <v>80.97</v>
       </c>
       <c r="H137" t="n">
         <v>80.97</v>
       </c>
       <c r="I137" t="n">
-        <v>80.97</v>
-      </c>
-      <c r="J137" t="n">
         <v>39529.55</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>11.2.3</t>
+        </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11.2.3 </t>
+          <t xml:space="preserve"> 87905 </t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>488.2</v>
       </c>
       <c r="G138" t="n">
-        <v>488.2</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H138" t="n">
         <v>8.369999999999999</v>
       </c>
       <c r="I138" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="J138" t="n">
         <v>4086.23</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>11.2.4</t>
+        </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11.2.4 </t>
+          <t xml:space="preserve"> 87543 </t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>488.2</v>
       </c>
       <c r="G139" t="n">
-        <v>488.2</v>
+        <v>21.1</v>
       </c>
       <c r="H139" t="n">
         <v>21.1</v>
       </c>
       <c r="I139" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="J139" t="n">
         <v>10301.02</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 11.3 </t>
-        </is>
-      </c>
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>11.3</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr">
+      <c r="D140" t="inlineStr">
         <is>
           <t>ESQUADRIAS</t>
         </is>
       </c>
+      <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
+      <c r="I140" t="n">
         <v>34843.94</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>11.3.1</t>
+        </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11.3.1 </t>
+          <t xml:space="preserve"> 91328 </t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91328 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
           <t>UN</t>
         </is>
       </c>
+      <c r="F141" t="n">
+        <v>12</v>
+      </c>
       <c r="G141" t="n">
-        <v>12</v>
+        <v>702.16</v>
       </c>
       <c r="H141" t="n">
         <v>702.16</v>
       </c>
       <c r="I141" t="n">
-        <v>702.16</v>
-      </c>
-      <c r="J141" t="n">
         <v>8425.92</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>11.3.2</t>
+        </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11.3.2 </t>
+          <t xml:space="preserve"> 94570 </t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94570 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>42.03</v>
       </c>
       <c r="G142" t="n">
-        <v>42.03</v>
+        <v>336.13</v>
       </c>
       <c r="H142" t="n">
         <v>336.13</v>
       </c>
       <c r="I142" t="n">
-        <v>336.13</v>
-      </c>
-      <c r="J142" t="n">
         <v>14127.54</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>11.3.3</t>
+        </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11.3.3 </t>
+          <t xml:space="preserve"> 94559 </t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>13.79</v>
       </c>
       <c r="G143" t="n">
-        <v>13.79</v>
+        <v>709.59</v>
       </c>
       <c r="H143" t="n">
         <v>709.59</v>
       </c>
       <c r="I143" t="n">
-        <v>709.59</v>
-      </c>
-      <c r="J143" t="n">
         <v>9785.24</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>11.3.4</t>
+        </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11.3.4 </t>
+          <t xml:space="preserve"> 99837 </t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
           <t>M</t>
         </is>
       </c>
+      <c r="F144" t="n">
+        <v>3.6</v>
+      </c>
       <c r="G144" t="n">
-        <v>3.6</v>
+        <v>695.9</v>
       </c>
       <c r="H144" t="n">
         <v>695.9</v>
       </c>
       <c r="I144" t="n">
-        <v>695.9</v>
-      </c>
-      <c r="J144" t="n">
         <v>2505.24</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 12 </t>
-        </is>
-      </c>
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr">
+      <c r="D145" t="inlineStr">
         <is>
           <t>PAV - 10</t>
         </is>
       </c>
+      <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
+      <c r="I145" t="n">
         <v>188834.69</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 12.1 </t>
-        </is>
-      </c>
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>12.1</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr">
+      <c r="D146" t="inlineStr">
         <is>
           <t>PISOS</t>
         </is>
       </c>
+      <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
+      <c r="I146" t="n">
         <v>83053.31</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>12.1.1</t>
+        </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12.1.1 </t>
+          <t xml:space="preserve"> 101964 </t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>251.57</v>
       </c>
       <c r="G147" t="n">
-        <v>251.57</v>
+        <v>150.88</v>
       </c>
       <c r="H147" t="n">
         <v>150.88</v>
       </c>
       <c r="I147" t="n">
-        <v>150.88</v>
-      </c>
-      <c r="J147" t="n">
         <v>37956.88</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>12.1.2</t>
+        </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12.1.2 </t>
+          <t xml:space="preserve"> 90930 </t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>251.57</v>
       </c>
       <c r="G148" t="n">
-        <v>251.57</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H148" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="I148" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="J148" t="n">
         <v>16201.1</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>12.1.3</t>
+        </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12.1.3 </t>
+          <t xml:space="preserve"> 87259 </t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>251.57</v>
       </c>
       <c r="G149" t="n">
-        <v>251.57</v>
+        <v>114.86</v>
       </c>
       <c r="H149" t="n">
         <v>114.86</v>
       </c>
       <c r="I149" t="n">
-        <v>114.86</v>
-      </c>
-      <c r="J149" t="n">
         <v>28895.33</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 12.2 </t>
-        </is>
-      </c>
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>12.2</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr"/>
-      <c r="E150" t="inlineStr">
+      <c r="D150" t="inlineStr">
         <is>
           <t>PAREDES</t>
         </is>
       </c>
+      <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
+      <c r="I150" t="n">
         <v>70937.44</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>12.2.1</t>
+        </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12.2.1 </t>
+          <t xml:space="preserve"> 15.05.520 </t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15.05.520 </t>
+          <t>CPOS</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>CPOS</t>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
           <t>m³</t>
         </is>
       </c>
+      <c r="F151" t="n">
+        <v>6.3</v>
+      </c>
       <c r="G151" t="n">
-        <v>6.3</v>
+        <v>2701.69</v>
       </c>
       <c r="H151" t="n">
         <v>2701.69</v>
       </c>
       <c r="I151" t="n">
-        <v>2701.69</v>
-      </c>
-      <c r="J151" t="n">
         <v>17020.64</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>12.2.2</t>
+        </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12.2.2 </t>
+          <t xml:space="preserve"> 89467 </t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>488.2</v>
       </c>
       <c r="G152" t="n">
-        <v>488.2</v>
+        <v>80.97</v>
       </c>
       <c r="H152" t="n">
         <v>80.97</v>
       </c>
       <c r="I152" t="n">
-        <v>80.97</v>
-      </c>
-      <c r="J152" t="n">
         <v>39529.55</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>12.2.3</t>
+        </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12.2.3 </t>
+          <t xml:space="preserve"> 87905 </t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>488.2</v>
       </c>
       <c r="G153" t="n">
-        <v>488.2</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H153" t="n">
         <v>8.369999999999999</v>
       </c>
       <c r="I153" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="J153" t="n">
         <v>4086.23</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>12.2.4</t>
+        </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12.2.4 </t>
+          <t xml:space="preserve"> 87543 </t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>488.2</v>
       </c>
       <c r="G154" t="n">
-        <v>488.2</v>
+        <v>21.1</v>
       </c>
       <c r="H154" t="n">
         <v>21.1</v>
       </c>
       <c r="I154" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="J154" t="n">
         <v>10301.02</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 12.3 </t>
-        </is>
-      </c>
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>12.3</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr"/>
-      <c r="E155" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>ESQUADRIAS</t>
         </is>
       </c>
+      <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
+      <c r="I155" t="n">
         <v>34843.94</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>12.3.1</t>
+        </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12.3.1 </t>
+          <t xml:space="preserve"> 91328 </t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91328 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
           <t>UN</t>
         </is>
       </c>
+      <c r="F156" t="n">
+        <v>12</v>
+      </c>
       <c r="G156" t="n">
-        <v>12</v>
+        <v>702.16</v>
       </c>
       <c r="H156" t="n">
         <v>702.16</v>
       </c>
       <c r="I156" t="n">
-        <v>702.16</v>
-      </c>
-      <c r="J156" t="n">
         <v>8425.92</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>12.3.2</t>
+        </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12.3.2 </t>
+          <t xml:space="preserve"> 94570 </t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94570 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>42.03</v>
       </c>
       <c r="G157" t="n">
-        <v>42.03</v>
+        <v>336.13</v>
       </c>
       <c r="H157" t="n">
         <v>336.13</v>
       </c>
       <c r="I157" t="n">
-        <v>336.13</v>
-      </c>
-      <c r="J157" t="n">
         <v>14127.54</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>12.3.3</t>
+        </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12.3.3 </t>
+          <t xml:space="preserve"> 94559 </t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>13.79</v>
       </c>
       <c r="G158" t="n">
-        <v>13.79</v>
+        <v>709.59</v>
       </c>
       <c r="H158" t="n">
         <v>709.59</v>
       </c>
       <c r="I158" t="n">
-        <v>709.59</v>
-      </c>
-      <c r="J158" t="n">
         <v>9785.24</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>12.3.4</t>
+        </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12.3.4 </t>
+          <t xml:space="preserve"> 99837 </t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
           <t>M</t>
         </is>
       </c>
+      <c r="F159" t="n">
+        <v>3.6</v>
+      </c>
       <c r="G159" t="n">
-        <v>3.6</v>
+        <v>695.9</v>
       </c>
       <c r="H159" t="n">
         <v>695.9</v>
       </c>
       <c r="I159" t="n">
-        <v>695.9</v>
-      </c>
-      <c r="J159" t="n">
         <v>2505.24</v>
       </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr"/>
-      <c r="C160" t="inlineStr"/>
-      <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-      <c r="H160" t="inlineStr"/>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr"/>
-      <c r="C161" t="inlineStr"/>
-      <c r="D161" t="inlineStr"/>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>Total sem BDI</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr"/>
-      <c r="I161" t="n">
-        <v>1945452.28</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr"/>
-      <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>Total do BDI</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr"/>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr"/>
-      <c r="C163" t="inlineStr"/>
-      <c r="D163" t="inlineStr"/>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>Total Geral</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr"/>
-      <c r="I163" t="n">
-        <v>1945452.28</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr"/>
-      <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr"/>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr"/>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>_______________________________________________________________
-Elias Lobato
-Outros</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr"/>
-      <c r="D165" t="inlineStr"/>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr"/>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Planilha Ajustada.xlsx
+++ b/Planilha Ajustada.xlsx
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0002</t>
+          <t>Erro, formato não reconhecido pela SINAPI</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 98458 </t>
+          <t>98458</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>00098681</t>
+          <t>Erro, formato não reconhecido pela SINAPI</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -711,8 +711,10 @@
           <t>2.3</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>894</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Erro, formato não reconhecido pela SINAPI</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -792,7 +794,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>101964</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -831,7 +833,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>90930</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -870,7 +872,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>87259</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -969,7 +971,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>89467</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1008,7 +1010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>87905</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1047,7 +1049,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>87543</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1107,7 +1109,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91328 </t>
+          <t>91328</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1146,7 +1148,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94570 </t>
+          <t>94570</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1185,7 +1187,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>94559</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1224,7 +1226,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>99837</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1305,7 +1307,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>101964</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1344,7 +1346,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>90930</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1383,7 +1385,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>87259</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1482,7 +1484,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>89467</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1521,7 +1523,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>87905</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1560,7 +1562,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>87543</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1620,7 +1622,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91328 </t>
+          <t>91328</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1659,7 +1661,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94570 </t>
+          <t>94570</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1698,7 +1700,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>94559</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1737,7 +1739,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>99837</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1818,7 +1820,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>101964</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1857,7 +1859,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>90930</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1896,7 +1898,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>87259</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1995,7 +1997,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>89467</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2034,7 +2036,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>87905</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2073,7 +2075,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>87543</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2133,7 +2135,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91328 </t>
+          <t>91328</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2172,7 +2174,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94570 </t>
+          <t>94570</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2211,7 +2213,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>94559</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2250,7 +2252,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>99837</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2331,7 +2333,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>101964</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2370,7 +2372,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>90930</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2409,7 +2411,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>87259</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2508,7 +2510,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>89467</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2547,7 +2549,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>87905</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2586,7 +2588,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>87543</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2646,7 +2648,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91328 </t>
+          <t>91328</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2685,7 +2687,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94570 </t>
+          <t>94570</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2724,7 +2726,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>94559</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2763,7 +2765,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>99837</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2844,7 +2846,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>101964</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2883,7 +2885,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>90930</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2922,7 +2924,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>87259</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3021,7 +3023,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>89467</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3060,7 +3062,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>87905</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3099,7 +3101,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>87543</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3159,7 +3161,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91328 </t>
+          <t>91328</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3198,7 +3200,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94570 </t>
+          <t>94570</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3237,7 +3239,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>94559</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3276,7 +3278,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>99837</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3357,7 +3359,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>101964</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3396,7 +3398,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>90930</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3435,7 +3437,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>87259</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3534,7 +3536,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>89467</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3573,7 +3575,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>87905</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3612,7 +3614,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>87543</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3672,7 +3674,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91328 </t>
+          <t>91328</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3711,7 +3713,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94570 </t>
+          <t>94570</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3750,7 +3752,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>94559</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3789,7 +3791,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>99837</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3870,7 +3872,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>101964</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3909,7 +3911,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>90930</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3948,7 +3950,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>87259</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4047,7 +4049,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>89467</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4086,7 +4088,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>87905</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4125,7 +4127,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>87543</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4185,7 +4187,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91328 </t>
+          <t>91328</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4224,7 +4226,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94570 </t>
+          <t>94570</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4263,7 +4265,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>94559</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4302,7 +4304,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>99837</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4383,7 +4385,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>101964</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4422,7 +4424,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>90930</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4461,7 +4463,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>87259</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4560,7 +4562,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>89467</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4599,7 +4601,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>87905</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4638,7 +4640,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>87543</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4698,7 +4700,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91328 </t>
+          <t>91328</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4737,7 +4739,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94570 </t>
+          <t>94570</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4776,7 +4778,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>94559</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4815,7 +4817,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>99837</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4896,7 +4898,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>101964</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4935,7 +4937,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>90930</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4974,7 +4976,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>87259</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5073,7 +5075,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>89467</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5112,7 +5114,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>87905</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5151,7 +5153,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>87543</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5211,7 +5213,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91328 </t>
+          <t>91328</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5250,7 +5252,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94570 </t>
+          <t>94570</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5289,7 +5291,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>94559</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5328,7 +5330,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>99837</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5409,7 +5411,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>101964</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5448,7 +5450,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>90930</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5487,7 +5489,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>87259</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5586,7 +5588,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>89467</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5625,7 +5627,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>87905</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5664,7 +5666,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>87543</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5724,7 +5726,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91328 </t>
+          <t>91328</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5763,7 +5765,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94570 </t>
+          <t>94570</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5802,7 +5804,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>94559</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5841,7 +5843,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>99837</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">

--- a/Planilha Ajustada.xlsx
+++ b/Planilha Ajustada.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I159"/>
+  <dimension ref="A1:I169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,201 +422,151 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Item</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Código</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Banco</t>
-        </is>
-      </c>
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr"/>
+      <c r="C1" t="inlineStr"/>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Descrição</t>
+          <t>Obra</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Und</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Quant.</t>
-        </is>
-      </c>
+          <t>Bancos</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr"/>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Valor Unit</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Valor Unit com BDI</t>
-        </is>
-      </c>
+          <t>B.D.I.</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr"/>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Encargos Sociais</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SERVIÇOS PRELIMINARES</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t>ORÇAMENTO NO SISTEMA OrçaFascio Prime DE DEMONSTRAÇÃO GERAL - TORRE DE APARTAMENTOS 10 PAV</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SINAPI - 06/2021 - São Paulo
+SBC - 08/2021 - São Paulo
+CPOS - 07/2021 - São Paulo
+FDE - 04/2021 - São Paulo
+</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0,0%</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="n">
-        <v>127600.4</v>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Não Desonerado: embutido nos preços unitário dos insumos de mão de obra, de acordo com as bases.</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 000662 </t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>SBC</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PLACA DE OBRAS COM BANNER DE LONA 80X120CM</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>um</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="I3" t="n">
-        <v>389.4</v>
-      </c>
+          <t>O orçamento abaixo tem apenas o intuito demonstrativo para ser usado como modelo de estrutura que deverá ter o Excel para a importação para o sistema, não é um orçamento oficial de nenhuma obra</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1.2.1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Erro, formato não reconhecido pela SINAPI</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>CAPINA E LIMPEZA MANUAL DE TERRENO</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>650</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1131</v>
-      </c>
+          <t>Orçamento Sintético</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>Item</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>98458</t>
+          <t>Código</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TAPUME COM COMPENSADO DE MADEIRA. AF_05/2018</t>
+          <t>Descrição</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G5" t="n">
-        <v>126.08</v>
-      </c>
-      <c r="H5" t="n">
-        <v>126.08</v>
-      </c>
-      <c r="I5" t="n">
-        <v>126080</v>
+          <t>Und</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Quant.</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Valor Unit</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Valor Unit com BDI</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t xml:space="preserve"> 1 </t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FUNDAÇÕES</t>
+          <t>SERVIÇOS PRELIMINARES</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -624,96 +574,96 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>56665.52</v>
+        <v>127600.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t xml:space="preserve"> 01.01</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Erro, formato não reconhecido pela SINAPI</t>
+          <t>teste</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>SBC</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PISO CIMENTADO, TRAÇO 1:3 (CIMENTO E AREIA), ACABAMENTO RÚSTICO, ESPESSURA 2,0 CM, PREPARO MECÂNICO DA ARGAMASSA. AF_09/2020</t>
+          <t>CAIXA DERIVACAO TIPO T 1X1 PRF 25 BRANCO DT-52440-00 DUTOTEC</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>um</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>585.63</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>27.69</v>
+        <v>159.54</v>
       </c>
       <c r="H7" t="n">
-        <v>27.69</v>
+        <v>159.54</v>
       </c>
       <c r="I7" t="n">
-        <v>16216.09</v>
+        <v>159.54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t xml:space="preserve"> 01.02.01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15.05.520 </t>
+          <t>Erro, formato não reconhecido pela SBC</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CPOS</t>
+          <t>SBC</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
+          <t>PROJETO DE INSTALACAO HIDRAULICA EM EDIFICACOES</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>m³</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>11.34</v>
+        <v>650</v>
       </c>
       <c r="G8" t="n">
-        <v>2701.69</v>
+        <v>13.65</v>
       </c>
       <c r="H8" t="n">
-        <v>2701.69</v>
+        <v>13.65</v>
       </c>
       <c r="I8" t="n">
-        <v>30637.16</v>
+        <v>8872.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t xml:space="preserve"> 01.03 </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Erro, formato não reconhecido pela SINAPI</t>
+          <t>98458</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -723,7 +673,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM) FBK = 14,0 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO COLHER DE PEDREIRO. AF_12/2014</t>
+          <t>TAPUME COM COMPENSADO DE MADEIRA. AF_05/2018</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -732,29 +682,29 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>85.51000000000001</v>
+        <v>1000</v>
       </c>
       <c r="G9" t="n">
-        <v>114.75</v>
+        <v>126.08</v>
       </c>
       <c r="H9" t="n">
-        <v>114.75</v>
+        <v>126.08</v>
       </c>
       <c r="I9" t="n">
-        <v>9812.27</v>
+        <v>126080</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t xml:space="preserve"> 2 </t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PAV - 1</t>
+          <t>FUNDAÇÕES</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -762,78 +712,96 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>143875.09</v>
+        <v>56665.52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3.1</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
+          <t xml:space="preserve"> 2.1 </t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>00098681</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PISOS</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+          <t>PISO CIMENTADO, TRAÇO 1:3 (CIMENTO E AREIA), ACABAMENTO RÚSTICO, ESPESSURA 2,0 CM, PREPARO MECÂNICO DA ARGAMASSA. AF_09/2020</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>585.63</v>
+      </c>
+      <c r="G11" t="n">
+        <v>27.69</v>
+      </c>
+      <c r="H11" t="n">
+        <v>27.69</v>
+      </c>
       <c r="I11" t="n">
-        <v>37607.4</v>
+        <v>16216.09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3.1.1</t>
+          <t xml:space="preserve"> 2.2 </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>101964</t>
+          <t>15.05.520</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CPOS</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>m³</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>242.85</v>
+        <v>11.34</v>
       </c>
       <c r="G12" t="n">
-        <v>150.88</v>
+        <v>2701.69</v>
       </c>
       <c r="H12" t="n">
-        <v>150.88</v>
+        <v>2701.69</v>
       </c>
       <c r="I12" t="n">
-        <v>36641.2</v>
+        <v>30637.16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3.1.2</t>
+          <t xml:space="preserve"> 2.3 </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>90930</t>
+          <t>Erro, formato não reconhecido pela SINAPI</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -843,7 +811,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM) FBK = 14,0 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO COLHER DE PEDREIRO. AF_12/2014</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -852,68 +820,50 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5.39</v>
+        <v>85.51000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>64.40000000000001</v>
+        <v>114.75</v>
       </c>
       <c r="H13" t="n">
-        <v>64.40000000000001</v>
+        <v>114.75</v>
       </c>
       <c r="I13" t="n">
-        <v>347.11</v>
+        <v>9812.27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3.1.3</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>87259</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 3 </t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="G14" t="n">
-        <v>114.86</v>
-      </c>
-      <c r="H14" t="n">
-        <v>114.86</v>
-      </c>
+          <t>PAV - 1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>619.09</v>
+        <v>143875.09</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t xml:space="preserve"> 3.1 </t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PAREDES</t>
+          <t>PISOS</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -921,57 +871,57 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>71423.75</v>
+        <v>37607.4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3.2.1</t>
+          <t xml:space="preserve"> 3.1.1 </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15.05.520 </t>
+          <t>101964</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CPOS</t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
+          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>m³</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>6.48</v>
+        <v>242.85</v>
       </c>
       <c r="G16" t="n">
-        <v>2701.69</v>
+        <v>150.88</v>
       </c>
       <c r="H16" t="n">
-        <v>2701.69</v>
+        <v>150.88</v>
       </c>
       <c r="I16" t="n">
-        <v>17506.95</v>
+        <v>36641.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3.2.2</t>
+          <t xml:space="preserve"> 3.1.2 </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>89467</t>
+          <t>90930</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -981,7 +931,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
+          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -990,27 +940,27 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>488.2</v>
+        <v>5.39</v>
       </c>
       <c r="G17" t="n">
-        <v>80.97</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H17" t="n">
-        <v>80.97</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>39529.55</v>
+        <v>347.11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3.2.3</t>
+          <t xml:space="preserve"> 3.1.3 </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>87905</t>
+          <t>87259</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1020,7 +970,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
+          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1029,87 +979,87 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>488.2</v>
+        <v>5.39</v>
       </c>
       <c r="G18" t="n">
-        <v>8.369999999999999</v>
+        <v>114.86</v>
       </c>
       <c r="H18" t="n">
-        <v>8.369999999999999</v>
+        <v>114.86</v>
       </c>
       <c r="I18" t="n">
-        <v>4086.23</v>
+        <v>619.09</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3.2.4</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>87543</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 3.2 </t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>488.2</v>
-      </c>
-      <c r="G19" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="H19" t="n">
-        <v>21.1</v>
-      </c>
+          <t>PAREDES</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>10301.02</v>
+        <v>71423.75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3.3</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
+          <t xml:space="preserve"> 3.2.1 </t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>15.05.520</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>CPOS</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ESQUADRIAS</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>m³</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2701.69</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2701.69</v>
+      </c>
       <c r="I20" t="n">
-        <v>34843.94</v>
+        <v>17506.95</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3.3.1</t>
+          <t xml:space="preserve"> 3.2.2 </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>91328</t>
+          <t>89467</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1119,36 +1069,36 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>12</v>
+        <v>488.2</v>
       </c>
       <c r="G21" t="n">
-        <v>702.16</v>
+        <v>80.97</v>
       </c>
       <c r="H21" t="n">
-        <v>702.16</v>
+        <v>80.97</v>
       </c>
       <c r="I21" t="n">
-        <v>8425.92</v>
+        <v>39529.55</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3.3.2</t>
+          <t xml:space="preserve"> 3.2.3 </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>94570</t>
+          <t>87905</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1158,7 +1108,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1167,27 +1117,27 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>42.03</v>
+        <v>488.2</v>
       </c>
       <c r="G22" t="n">
-        <v>336.13</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H22" t="n">
-        <v>336.13</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="I22" t="n">
-        <v>14127.54</v>
+        <v>4086.23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3.3.3</t>
+          <t xml:space="preserve"> 3.2.4 </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>94559</t>
+          <t>87543</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1197,7 +1147,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1206,108 +1156,126 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>13.79</v>
+        <v>488.2</v>
       </c>
       <c r="G23" t="n">
-        <v>709.59</v>
+        <v>21.1</v>
       </c>
       <c r="H23" t="n">
-        <v>709.59</v>
+        <v>21.1</v>
       </c>
       <c r="I23" t="n">
-        <v>9785.24</v>
+        <v>10301.02</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3.3.4</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>99837</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 3.3 </t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="G24" t="n">
-        <v>695.9</v>
-      </c>
-      <c r="H24" t="n">
-        <v>695.9</v>
-      </c>
+          <t>ESQUADRIAS</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>2505.24</v>
+        <v>34843.94</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
+          <t xml:space="preserve"> 3.3.1 </t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>91328</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>PAV - 2</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>12</v>
+      </c>
+      <c r="G25" t="n">
+        <v>702.16</v>
+      </c>
+      <c r="H25" t="n">
+        <v>702.16</v>
+      </c>
       <c r="I25" t="n">
-        <v>146275.29</v>
+        <v>8425.92</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4.1</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
+          <t xml:space="preserve"> 3.3.2 </t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>94570</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>PISOS</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>42.03</v>
+      </c>
+      <c r="G26" t="n">
+        <v>336.13</v>
+      </c>
+      <c r="H26" t="n">
+        <v>336.13</v>
+      </c>
       <c r="I26" t="n">
-        <v>40007.6</v>
+        <v>14127.54</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4.1.1</t>
+          <t xml:space="preserve"> 3.3.3 </t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>101964</t>
+          <t>94559</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1317,7 +1285,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
+          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1326,27 +1294,27 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>251.57</v>
+        <v>13.79</v>
       </c>
       <c r="G27" t="n">
-        <v>150.88</v>
+        <v>709.59</v>
       </c>
       <c r="H27" t="n">
-        <v>150.88</v>
+        <v>709.59</v>
       </c>
       <c r="I27" t="n">
-        <v>37956.88</v>
+        <v>9785.24</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4.1.2</t>
+          <t xml:space="preserve"> 3.3.4 </t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>90930</t>
+          <t>99837</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1356,77 +1324,59 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
+          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>11.44</v>
+        <v>3.6</v>
       </c>
       <c r="G28" t="n">
-        <v>64.40000000000001</v>
+        <v>695.9</v>
       </c>
       <c r="H28" t="n">
-        <v>64.40000000000001</v>
+        <v>695.9</v>
       </c>
       <c r="I28" t="n">
-        <v>736.73</v>
+        <v>2505.24</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4.1.3</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>87259</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="G29" t="n">
-        <v>114.86</v>
-      </c>
-      <c r="H29" t="n">
-        <v>114.86</v>
-      </c>
+          <t>PAV - 2</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>1313.99</v>
+        <v>146275.29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t xml:space="preserve"> 4.1 </t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PAREDES</t>
+          <t>PISOS</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -1434,57 +1384,57 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>71423.75</v>
+        <v>40007.6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4.2.1</t>
+          <t xml:space="preserve"> 4.1.1 </t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15.05.520 </t>
+          <t>101964</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CPOS</t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
+          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>m³</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>6.48</v>
+        <v>251.57</v>
       </c>
       <c r="G31" t="n">
-        <v>2701.69</v>
+        <v>150.88</v>
       </c>
       <c r="H31" t="n">
-        <v>2701.69</v>
+        <v>150.88</v>
       </c>
       <c r="I31" t="n">
-        <v>17506.95</v>
+        <v>37956.88</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4.2.2</t>
+          <t xml:space="preserve"> 4.1.2 </t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>89467</t>
+          <t>90930</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1494,7 +1444,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
+          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1503,27 +1453,27 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>488.2</v>
+        <v>11.44</v>
       </c>
       <c r="G32" t="n">
-        <v>80.97</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H32" t="n">
-        <v>80.97</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>39529.55</v>
+        <v>736.73</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4.2.3</t>
+          <t xml:space="preserve"> 4.1.3 </t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>87905</t>
+          <t>87259</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1533,7 +1483,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
+          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1542,87 +1492,87 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>488.2</v>
+        <v>11.44</v>
       </c>
       <c r="G33" t="n">
-        <v>8.369999999999999</v>
+        <v>114.86</v>
       </c>
       <c r="H33" t="n">
-        <v>8.369999999999999</v>
+        <v>114.86</v>
       </c>
       <c r="I33" t="n">
-        <v>4086.23</v>
+        <v>1313.99</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4.2.4</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>87543</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 4.2 </t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>488.2</v>
-      </c>
-      <c r="G34" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>21.1</v>
-      </c>
+          <t>PAREDES</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
-        <v>10301.02</v>
+        <v>71423.75</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4.3</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
+          <t xml:space="preserve"> 4.2.1 </t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>15.05.520</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>CPOS</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ESQUADRIAS</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>m³</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2701.69</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2701.69</v>
+      </c>
       <c r="I35" t="n">
-        <v>34843.94</v>
+        <v>17506.95</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>4.3.1</t>
+          <t xml:space="preserve"> 4.2.2 </t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>91328</t>
+          <t>89467</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1632,36 +1582,36 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>12</v>
+        <v>488.2</v>
       </c>
       <c r="G36" t="n">
-        <v>702.16</v>
+        <v>80.97</v>
       </c>
       <c r="H36" t="n">
-        <v>702.16</v>
+        <v>80.97</v>
       </c>
       <c r="I36" t="n">
-        <v>8425.92</v>
+        <v>39529.55</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>4.3.2</t>
+          <t xml:space="preserve"> 4.2.3 </t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>94570</t>
+          <t>87905</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1671,7 +1621,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1680,27 +1630,27 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>42.03</v>
+        <v>488.2</v>
       </c>
       <c r="G37" t="n">
-        <v>336.13</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H37" t="n">
-        <v>336.13</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="I37" t="n">
-        <v>14127.54</v>
+        <v>4086.23</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>4.3.3</t>
+          <t xml:space="preserve"> 4.2.4 </t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>94559</t>
+          <t>87543</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1710,7 +1660,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1719,108 +1669,126 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>13.79</v>
+        <v>488.2</v>
       </c>
       <c r="G38" t="n">
-        <v>709.59</v>
+        <v>21.1</v>
       </c>
       <c r="H38" t="n">
-        <v>709.59</v>
+        <v>21.1</v>
       </c>
       <c r="I38" t="n">
-        <v>9785.24</v>
+        <v>10301.02</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>4.3.4</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>99837</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 4.3 </t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="G39" t="n">
-        <v>695.9</v>
-      </c>
-      <c r="H39" t="n">
-        <v>695.9</v>
-      </c>
+          <t>ESQUADRIAS</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
-        <v>2505.24</v>
+        <v>34843.94</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
+          <t xml:space="preserve"> 4.3.1 </t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>91328</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>PAV - 3</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
+          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>12</v>
+      </c>
+      <c r="G40" t="n">
+        <v>702.16</v>
+      </c>
+      <c r="H40" t="n">
+        <v>702.16</v>
+      </c>
       <c r="I40" t="n">
-        <v>146275.29</v>
+        <v>8425.92</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5.1</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
+          <t xml:space="preserve"> 4.3.2 </t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>94570</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>PISOS</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
+          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>42.03</v>
+      </c>
+      <c r="G41" t="n">
+        <v>336.13</v>
+      </c>
+      <c r="H41" t="n">
+        <v>336.13</v>
+      </c>
       <c r="I41" t="n">
-        <v>40007.6</v>
+        <v>14127.54</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5.1.1</t>
+          <t xml:space="preserve"> 4.3.3 </t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>101964</t>
+          <t>94559</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1830,7 +1798,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
+          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1839,27 +1807,27 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>251.57</v>
+        <v>13.79</v>
       </c>
       <c r="G42" t="n">
-        <v>150.88</v>
+        <v>709.59</v>
       </c>
       <c r="H42" t="n">
-        <v>150.88</v>
+        <v>709.59</v>
       </c>
       <c r="I42" t="n">
-        <v>37956.88</v>
+        <v>9785.24</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5.1.2</t>
+          <t xml:space="preserve"> 4.3.4 </t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>90930</t>
+          <t>99837</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1869,77 +1837,59 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
+          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>11.44</v>
+        <v>3.6</v>
       </c>
       <c r="G43" t="n">
-        <v>64.40000000000001</v>
+        <v>695.9</v>
       </c>
       <c r="H43" t="n">
-        <v>64.40000000000001</v>
+        <v>695.9</v>
       </c>
       <c r="I43" t="n">
-        <v>736.73</v>
+        <v>2505.24</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5.1.3</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>87259</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 5 </t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="G44" t="n">
-        <v>114.86</v>
-      </c>
-      <c r="H44" t="n">
-        <v>114.86</v>
-      </c>
+          <t>PAV - 3</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="n">
-        <v>1313.99</v>
+        <v>146275.29</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t xml:space="preserve"> 5.1 </t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>PAREDES</t>
+          <t>PISOS</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -1947,57 +1897,57 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
-        <v>71423.75</v>
+        <v>40007.6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5.2.1</t>
+          <t xml:space="preserve"> 5.1.1 </t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15.05.520 </t>
+          <t>101964</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CPOS</t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
+          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>m³</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>6.48</v>
+        <v>251.57</v>
       </c>
       <c r="G46" t="n">
-        <v>2701.69</v>
+        <v>150.88</v>
       </c>
       <c r="H46" t="n">
-        <v>2701.69</v>
+        <v>150.88</v>
       </c>
       <c r="I46" t="n">
-        <v>17506.95</v>
+        <v>37956.88</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5.2.2</t>
+          <t xml:space="preserve"> 5.1.2 </t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>89467</t>
+          <t>90930</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2007,7 +1957,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
+          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2016,27 +1966,27 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>488.2</v>
+        <v>11.44</v>
       </c>
       <c r="G47" t="n">
-        <v>80.97</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H47" t="n">
-        <v>80.97</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="I47" t="n">
-        <v>39529.55</v>
+        <v>736.73</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5.2.3</t>
+          <t xml:space="preserve"> 5.1.3 </t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>87905</t>
+          <t>87259</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2046,7 +1996,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
+          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2055,87 +2005,87 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>488.2</v>
+        <v>11.44</v>
       </c>
       <c r="G48" t="n">
-        <v>8.369999999999999</v>
+        <v>114.86</v>
       </c>
       <c r="H48" t="n">
-        <v>8.369999999999999</v>
+        <v>114.86</v>
       </c>
       <c r="I48" t="n">
-        <v>4086.23</v>
+        <v>1313.99</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5.2.4</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>87543</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 5.2 </t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>488.2</v>
-      </c>
-      <c r="G49" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="H49" t="n">
-        <v>21.1</v>
-      </c>
+          <t>PAREDES</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
-        <v>10301.02</v>
+        <v>71423.75</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5.3</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
+          <t xml:space="preserve"> 5.2.1 </t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>15.05.520</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CPOS</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>ESQUADRIAS</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>m³</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2701.69</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2701.69</v>
+      </c>
       <c r="I50" t="n">
-        <v>34843.94</v>
+        <v>17506.95</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5.3.1</t>
+          <t xml:space="preserve"> 5.2.2 </t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>91328</t>
+          <t>89467</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2145,36 +2095,36 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>12</v>
+        <v>488.2</v>
       </c>
       <c r="G51" t="n">
-        <v>702.16</v>
+        <v>80.97</v>
       </c>
       <c r="H51" t="n">
-        <v>702.16</v>
+        <v>80.97</v>
       </c>
       <c r="I51" t="n">
-        <v>8425.92</v>
+        <v>39529.55</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>5.3.2</t>
+          <t xml:space="preserve"> 5.2.3 </t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>94570</t>
+          <t>87905</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2184,7 +2134,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2193,27 +2143,27 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>42.03</v>
+        <v>488.2</v>
       </c>
       <c r="G52" t="n">
-        <v>336.13</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H52" t="n">
-        <v>336.13</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="I52" t="n">
-        <v>14127.54</v>
+        <v>4086.23</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5.3.3</t>
+          <t xml:space="preserve"> 5.2.4 </t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>94559</t>
+          <t>87543</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2223,7 +2173,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2232,108 +2182,126 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>13.79</v>
+        <v>488.2</v>
       </c>
       <c r="G53" t="n">
-        <v>709.59</v>
+        <v>21.1</v>
       </c>
       <c r="H53" t="n">
-        <v>709.59</v>
+        <v>21.1</v>
       </c>
       <c r="I53" t="n">
-        <v>9785.24</v>
+        <v>10301.02</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>5.3.4</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>99837</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 5.3 </t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="G54" t="n">
-        <v>695.9</v>
-      </c>
-      <c r="H54" t="n">
-        <v>695.9</v>
-      </c>
+          <t>ESQUADRIAS</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
-        <v>2505.24</v>
+        <v>34843.94</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
+          <t xml:space="preserve"> 5.3.1 </t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>91328</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>PAV - 4</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
+          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>12</v>
+      </c>
+      <c r="G55" t="n">
+        <v>702.16</v>
+      </c>
+      <c r="H55" t="n">
+        <v>702.16</v>
+      </c>
       <c r="I55" t="n">
-        <v>189321</v>
+        <v>8425.92</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6.1</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
+          <t xml:space="preserve"> 5.3.2 </t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>94570</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>PISOS</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
+          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>42.03</v>
+      </c>
+      <c r="G56" t="n">
+        <v>336.13</v>
+      </c>
+      <c r="H56" t="n">
+        <v>336.13</v>
+      </c>
       <c r="I56" t="n">
-        <v>83053.31</v>
+        <v>14127.54</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>6.1.1</t>
+          <t xml:space="preserve"> 5.3.3 </t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>101964</t>
+          <t xml:space="preserve"> 94559 </t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2343,7 +2311,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
+          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2352,27 +2320,27 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>251.57</v>
+        <v>13.79</v>
       </c>
       <c r="G57" t="n">
-        <v>150.88</v>
+        <v>709.59</v>
       </c>
       <c r="H57" t="n">
-        <v>150.88</v>
+        <v>709.59</v>
       </c>
       <c r="I57" t="n">
-        <v>37956.88</v>
+        <v>9785.24</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6.1.2</t>
+          <t xml:space="preserve"> 5.3.4 </t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>90930</t>
+          <t xml:space="preserve"> 99837 </t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2382,77 +2350,59 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
+          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>251.57</v>
+        <v>3.6</v>
       </c>
       <c r="G58" t="n">
-        <v>64.40000000000001</v>
+        <v>695.9</v>
       </c>
       <c r="H58" t="n">
-        <v>64.40000000000001</v>
+        <v>695.9</v>
       </c>
       <c r="I58" t="n">
-        <v>16201.1</v>
+        <v>2505.24</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6.1.3</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>87259</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 6 </t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>251.57</v>
-      </c>
-      <c r="G59" t="n">
-        <v>114.86</v>
-      </c>
-      <c r="H59" t="n">
-        <v>114.86</v>
-      </c>
+          <t>PAV - 4</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="n">
-        <v>28895.33</v>
+        <v>189321</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t xml:space="preserve"> 6.1 </t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>PAREDES</t>
+          <t>PISOS</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -2460,57 +2410,57 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="n">
-        <v>71423.75</v>
+        <v>83053.31</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6.2.1</t>
+          <t xml:space="preserve"> 06.01.01 </t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15.05.520 </t>
+          <t xml:space="preserve"> 101964 </t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CPOS</t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
+          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>m³</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>6.48</v>
+        <v>251.57</v>
       </c>
       <c r="G61" t="n">
-        <v>2701.69</v>
+        <v>150.88</v>
       </c>
       <c r="H61" t="n">
-        <v>2701.69</v>
+        <v>150.88</v>
       </c>
       <c r="I61" t="n">
-        <v>17506.95</v>
+        <v>37956.88</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6.2.2</t>
+          <t xml:space="preserve"> 6.1.2 </t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>89467</t>
+          <t xml:space="preserve"> 90930 </t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2520,7 +2470,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
+          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2529,27 +2479,27 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>488.2</v>
+        <v>251.57</v>
       </c>
       <c r="G62" t="n">
-        <v>80.97</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H62" t="n">
-        <v>80.97</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>39529.55</v>
+        <v>16201.1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6.2.3</t>
+          <t xml:space="preserve"> 6.1.3 </t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>87905</t>
+          <t xml:space="preserve"> 87259 </t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2559,7 +2509,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
+          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2568,87 +2518,87 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>488.2</v>
+        <v>251.57</v>
       </c>
       <c r="G63" t="n">
-        <v>8.369999999999999</v>
+        <v>114.86</v>
       </c>
       <c r="H63" t="n">
-        <v>8.369999999999999</v>
+        <v>114.86</v>
       </c>
       <c r="I63" t="n">
-        <v>4086.23</v>
+        <v>28895.33</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6.2.4</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>87543</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 6.2 </t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>488.2</v>
-      </c>
-      <c r="G64" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="H64" t="n">
-        <v>21.1</v>
-      </c>
+          <t>PAREDES</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="n">
-        <v>10301.02</v>
+        <v>71423.75</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6.3</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
+          <t xml:space="preserve"> 6.2.1 </t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15.05.520 </t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>CPOS</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>ESQUADRIAS</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>m³</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2701.69</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2701.69</v>
+      </c>
       <c r="I65" t="n">
-        <v>34843.94</v>
+        <v>17506.95</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6.3.1</t>
+          <t xml:space="preserve"> 6.2.2 </t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>91328</t>
+          <t xml:space="preserve"> 89467 </t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2658,36 +2608,36 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>12</v>
+        <v>488.2</v>
       </c>
       <c r="G66" t="n">
-        <v>702.16</v>
+        <v>80.97</v>
       </c>
       <c r="H66" t="n">
-        <v>702.16</v>
+        <v>80.97</v>
       </c>
       <c r="I66" t="n">
-        <v>8425.92</v>
+        <v>39529.55</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6.3.2</t>
+          <t xml:space="preserve"> 6.2.3 </t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>94570</t>
+          <t xml:space="preserve"> 87905 </t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2697,7 +2647,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2706,27 +2656,27 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>42.03</v>
+        <v>488.2</v>
       </c>
       <c r="G67" t="n">
-        <v>336.13</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H67" t="n">
-        <v>336.13</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="I67" t="n">
-        <v>14127.54</v>
+        <v>4086.23</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6.3.3</t>
+          <t xml:space="preserve"> 6.2.4 </t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>94559</t>
+          <t xml:space="preserve"> 87543 </t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2736,7 +2686,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2745,108 +2695,126 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>13.79</v>
+        <v>488.2</v>
       </c>
       <c r="G68" t="n">
-        <v>709.59</v>
+        <v>21.1</v>
       </c>
       <c r="H68" t="n">
-        <v>709.59</v>
+        <v>21.1</v>
       </c>
       <c r="I68" t="n">
-        <v>9785.24</v>
+        <v>10301.02</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6.3.4</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>99837</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 6.3 </t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="G69" t="n">
-        <v>695.9</v>
-      </c>
-      <c r="H69" t="n">
-        <v>695.9</v>
-      </c>
+          <t>ESQUADRIAS</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="n">
-        <v>2505.24</v>
+        <v>34843.94</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
+          <t xml:space="preserve"> 6.3.1 </t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 91328 </t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>PAV - 5</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
+          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>12</v>
+      </c>
+      <c r="G70" t="n">
+        <v>702.16</v>
+      </c>
+      <c r="H70" t="n">
+        <v>702.16</v>
+      </c>
       <c r="I70" t="n">
-        <v>189321</v>
+        <v>8425.92</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>7.1</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
+          <t xml:space="preserve"> 6.3.2 </t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 94570 </t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>PISOS</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
+          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>42.03</v>
+      </c>
+      <c r="G71" t="n">
+        <v>336.13</v>
+      </c>
+      <c r="H71" t="n">
+        <v>336.13</v>
+      </c>
       <c r="I71" t="n">
-        <v>83053.31</v>
+        <v>14127.54</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>7.1.1</t>
+          <t xml:space="preserve"> 6.3.3 </t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>101964</t>
+          <t xml:space="preserve"> 94559 </t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2856,7 +2824,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
+          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2865,27 +2833,27 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>251.57</v>
+        <v>13.79</v>
       </c>
       <c r="G72" t="n">
-        <v>150.88</v>
+        <v>709.59</v>
       </c>
       <c r="H72" t="n">
-        <v>150.88</v>
+        <v>709.59</v>
       </c>
       <c r="I72" t="n">
-        <v>37956.88</v>
+        <v>9785.24</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>7.1.2</t>
+          <t xml:space="preserve"> 6.3.4 </t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>90930</t>
+          <t xml:space="preserve"> 99837 </t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2895,77 +2863,59 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
+          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>251.57</v>
+        <v>3.6</v>
       </c>
       <c r="G73" t="n">
-        <v>64.40000000000001</v>
+        <v>695.9</v>
       </c>
       <c r="H73" t="n">
-        <v>64.40000000000001</v>
+        <v>695.9</v>
       </c>
       <c r="I73" t="n">
-        <v>16201.1</v>
+        <v>2505.24</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>7.1.3</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>87259</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 7 </t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
-        <v>251.57</v>
-      </c>
-      <c r="G74" t="n">
-        <v>114.86</v>
-      </c>
-      <c r="H74" t="n">
-        <v>114.86</v>
-      </c>
+          <t>PAV - 5</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="n">
-        <v>28895.33</v>
+        <v>189321</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t xml:space="preserve"> 7.1 </t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>PAREDES</t>
+          <t>PISOS</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -2973,57 +2923,57 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="n">
-        <v>71423.75</v>
+        <v>83053.31</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>7.2.1</t>
+          <t xml:space="preserve"> 7.1.1 </t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15.05.520 </t>
+          <t xml:space="preserve"> 101964 </t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CPOS</t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
+          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>m³</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>6.48</v>
+        <v>251.57</v>
       </c>
       <c r="G76" t="n">
-        <v>2701.69</v>
+        <v>150.88</v>
       </c>
       <c r="H76" t="n">
-        <v>2701.69</v>
+        <v>150.88</v>
       </c>
       <c r="I76" t="n">
-        <v>17506.95</v>
+        <v>37956.88</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>7.2.2</t>
+          <t xml:space="preserve"> 7.1.2 </t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>89467</t>
+          <t xml:space="preserve"> 90930 </t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3033,7 +2983,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
+          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3042,27 +2992,27 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>488.2</v>
+        <v>251.57</v>
       </c>
       <c r="G77" t="n">
-        <v>80.97</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H77" t="n">
-        <v>80.97</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="I77" t="n">
-        <v>39529.55</v>
+        <v>16201.1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>7.2.3</t>
+          <t xml:space="preserve"> 7.1.3 </t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>87905</t>
+          <t xml:space="preserve"> 87259 </t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3072,7 +3022,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
+          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3081,87 +3031,87 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>488.2</v>
+        <v>251.57</v>
       </c>
       <c r="G78" t="n">
-        <v>8.369999999999999</v>
+        <v>114.86</v>
       </c>
       <c r="H78" t="n">
-        <v>8.369999999999999</v>
+        <v>114.86</v>
       </c>
       <c r="I78" t="n">
-        <v>4086.23</v>
+        <v>28895.33</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>7.2.4</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>87543</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 7.2 </t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
-        <v>488.2</v>
-      </c>
-      <c r="G79" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="H79" t="n">
-        <v>21.1</v>
-      </c>
+          <t>PAREDES</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="n">
-        <v>10301.02</v>
+        <v>71423.75</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>7.3</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
+          <t xml:space="preserve"> 7.2.1 </t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15.05.520 </t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>CPOS</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>ESQUADRIAS</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>m³</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="G80" t="n">
+        <v>2701.69</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2701.69</v>
+      </c>
       <c r="I80" t="n">
-        <v>34843.94</v>
+        <v>17506.95</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>7.3.1</t>
+          <t xml:space="preserve"> 7.2.2 </t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>91328</t>
+          <t xml:space="preserve"> 89467 </t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3171,36 +3121,36 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>12</v>
+        <v>488.2</v>
       </c>
       <c r="G81" t="n">
-        <v>702.16</v>
+        <v>80.97</v>
       </c>
       <c r="H81" t="n">
-        <v>702.16</v>
+        <v>80.97</v>
       </c>
       <c r="I81" t="n">
-        <v>8425.92</v>
+        <v>39529.55</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>7.3.2</t>
+          <t xml:space="preserve"> 7.2.3 </t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>94570</t>
+          <t xml:space="preserve"> 87905 </t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3210,7 +3160,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3219,27 +3169,27 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>42.03</v>
+        <v>488.2</v>
       </c>
       <c r="G82" t="n">
-        <v>336.13</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H82" t="n">
-        <v>336.13</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="I82" t="n">
-        <v>14127.54</v>
+        <v>4086.23</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>7.3.3</t>
+          <t xml:space="preserve"> 7.2.4 </t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>94559</t>
+          <t xml:space="preserve"> 87543 </t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3249,7 +3199,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3258,108 +3208,126 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>13.79</v>
+        <v>488.2</v>
       </c>
       <c r="G83" t="n">
-        <v>709.59</v>
+        <v>21.1</v>
       </c>
       <c r="H83" t="n">
-        <v>709.59</v>
+        <v>21.1</v>
       </c>
       <c r="I83" t="n">
-        <v>9785.24</v>
+        <v>10301.02</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>7.3.4</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>99837</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 7.3 </t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F84" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="G84" t="n">
-        <v>695.9</v>
-      </c>
-      <c r="H84" t="n">
-        <v>695.9</v>
-      </c>
+          <t>ESQUADRIAS</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="n">
-        <v>2505.24</v>
+        <v>34843.94</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
+          <t xml:space="preserve"> 7.3.1 </t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 91328 </t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>PAV - 6</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
+          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>12</v>
+      </c>
+      <c r="G85" t="n">
+        <v>702.16</v>
+      </c>
+      <c r="H85" t="n">
+        <v>702.16</v>
+      </c>
       <c r="I85" t="n">
-        <v>189321</v>
+        <v>8425.92</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>8.1</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
+          <t xml:space="preserve"> 7.3.2 </t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 94570 </t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>PISOS</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
+          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>42.03</v>
+      </c>
+      <c r="G86" t="n">
+        <v>336.13</v>
+      </c>
+      <c r="H86" t="n">
+        <v>336.13</v>
+      </c>
       <c r="I86" t="n">
-        <v>83053.31</v>
+        <v>14127.54</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>8.1.1</t>
+          <t xml:space="preserve"> 7.3.3 </t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>101964</t>
+          <t xml:space="preserve"> 94559 </t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3369,7 +3337,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
+          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3378,27 +3346,27 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>251.57</v>
+        <v>13.79</v>
       </c>
       <c r="G87" t="n">
-        <v>150.88</v>
+        <v>709.59</v>
       </c>
       <c r="H87" t="n">
-        <v>150.88</v>
+        <v>709.59</v>
       </c>
       <c r="I87" t="n">
-        <v>37956.88</v>
+        <v>9785.24</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>8.1.2</t>
+          <t xml:space="preserve"> 7.3.4 </t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>90930</t>
+          <t xml:space="preserve"> 99837 </t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3408,77 +3376,59 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
+          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>251.57</v>
+        <v>3.6</v>
       </c>
       <c r="G88" t="n">
-        <v>64.40000000000001</v>
+        <v>695.9</v>
       </c>
       <c r="H88" t="n">
-        <v>64.40000000000001</v>
+        <v>695.9</v>
       </c>
       <c r="I88" t="n">
-        <v>16201.1</v>
+        <v>2505.24</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>8.1.3</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>87259</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 8 </t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>251.57</v>
-      </c>
-      <c r="G89" t="n">
-        <v>114.86</v>
-      </c>
-      <c r="H89" t="n">
-        <v>114.86</v>
-      </c>
+          <t>PAV - 6</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="n">
-        <v>28895.33</v>
+        <v>189321</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t xml:space="preserve"> 8.1 </t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>PAREDES</t>
+          <t>PISOS</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -3486,57 +3436,57 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="n">
-        <v>71423.75</v>
+        <v>83053.31</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>8.2.1</t>
+          <t xml:space="preserve"> 8.1.1 </t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15.05.520 </t>
+          <t xml:space="preserve"> 101964 </t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CPOS</t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
+          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>m³</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>6.48</v>
+        <v>251.57</v>
       </c>
       <c r="G91" t="n">
-        <v>2701.69</v>
+        <v>150.88</v>
       </c>
       <c r="H91" t="n">
-        <v>2701.69</v>
+        <v>150.88</v>
       </c>
       <c r="I91" t="n">
-        <v>17506.95</v>
+        <v>37956.88</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>8.2.2</t>
+          <t xml:space="preserve"> 8.1.2 </t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>89467</t>
+          <t xml:space="preserve"> 90930 </t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3546,7 +3496,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
+          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3555,27 +3505,27 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>488.2</v>
+        <v>251.57</v>
       </c>
       <c r="G92" t="n">
-        <v>80.97</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H92" t="n">
-        <v>80.97</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="I92" t="n">
-        <v>39529.55</v>
+        <v>16201.1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>8.2.3</t>
+          <t xml:space="preserve"> 8.1.3 </t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>87905</t>
+          <t xml:space="preserve"> 87259 </t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3585,7 +3535,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
+          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3594,87 +3544,87 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>488.2</v>
+        <v>251.57</v>
       </c>
       <c r="G93" t="n">
-        <v>8.369999999999999</v>
+        <v>114.86</v>
       </c>
       <c r="H93" t="n">
-        <v>8.369999999999999</v>
+        <v>114.86</v>
       </c>
       <c r="I93" t="n">
-        <v>4086.23</v>
+        <v>28895.33</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>8.2.4</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>87543</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 8.2 </t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
-        <v>488.2</v>
-      </c>
-      <c r="G94" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>21.1</v>
-      </c>
+          <t>PAREDES</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="n">
-        <v>10301.02</v>
+        <v>71423.75</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>8.3</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
+          <t xml:space="preserve"> 8.2.1 </t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15.05.520 </t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>CPOS</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>ESQUADRIAS</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>m³</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2701.69</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2701.69</v>
+      </c>
       <c r="I95" t="n">
-        <v>34843.94</v>
+        <v>17506.95</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>8.3.1</t>
+          <t xml:space="preserve"> 8.2.2 </t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>91328</t>
+          <t xml:space="preserve"> 89467 </t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3684,36 +3634,36 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>12</v>
+        <v>488.2</v>
       </c>
       <c r="G96" t="n">
-        <v>702.16</v>
+        <v>80.97</v>
       </c>
       <c r="H96" t="n">
-        <v>702.16</v>
+        <v>80.97</v>
       </c>
       <c r="I96" t="n">
-        <v>8425.92</v>
+        <v>39529.55</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>8.3.2</t>
+          <t xml:space="preserve"> 8.2.3 </t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>94570</t>
+          <t xml:space="preserve"> 87905 </t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3723,7 +3673,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3732,27 +3682,27 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>42.03</v>
+        <v>488.2</v>
       </c>
       <c r="G97" t="n">
-        <v>336.13</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H97" t="n">
-        <v>336.13</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="I97" t="n">
-        <v>14127.54</v>
+        <v>4086.23</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>8.3.3</t>
+          <t xml:space="preserve"> 8.2.4 </t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>94559</t>
+          <t xml:space="preserve"> 87543 </t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3762,7 +3712,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3771,108 +3721,126 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>13.79</v>
+        <v>488.2</v>
       </c>
       <c r="G98" t="n">
-        <v>709.59</v>
+        <v>21.1</v>
       </c>
       <c r="H98" t="n">
-        <v>709.59</v>
+        <v>21.1</v>
       </c>
       <c r="I98" t="n">
-        <v>9785.24</v>
+        <v>10301.02</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>8.3.4</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>99837</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 8.3 </t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F99" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="G99" t="n">
-        <v>695.9</v>
-      </c>
-      <c r="H99" t="n">
-        <v>695.9</v>
-      </c>
+          <t>ESQUADRIAS</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="n">
-        <v>2505.24</v>
+        <v>34843.94</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
+          <t xml:space="preserve"> 8.3.1 </t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 91328 </t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>PAV - 7</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
+          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>12</v>
+      </c>
+      <c r="G100" t="n">
+        <v>702.16</v>
+      </c>
+      <c r="H100" t="n">
+        <v>702.16</v>
+      </c>
       <c r="I100" t="n">
-        <v>189321</v>
+        <v>8425.92</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>9.1</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
+          <t xml:space="preserve"> 8.3.2 </t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 94570 </t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>PISOS</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
+          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>42.03</v>
+      </c>
+      <c r="G101" t="n">
+        <v>336.13</v>
+      </c>
+      <c r="H101" t="n">
+        <v>336.13</v>
+      </c>
       <c r="I101" t="n">
-        <v>83053.31</v>
+        <v>14127.54</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>9.1.1</t>
+          <t xml:space="preserve"> 8.3.3 </t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>101964</t>
+          <t xml:space="preserve"> 94559 </t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3882,7 +3850,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
+          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3891,27 +3859,27 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>251.57</v>
+        <v>13.79</v>
       </c>
       <c r="G102" t="n">
-        <v>150.88</v>
+        <v>709.59</v>
       </c>
       <c r="H102" t="n">
-        <v>150.88</v>
+        <v>709.59</v>
       </c>
       <c r="I102" t="n">
-        <v>37956.88</v>
+        <v>9785.24</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>9.1.2</t>
+          <t xml:space="preserve"> 8.3.4 </t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>90930</t>
+          <t xml:space="preserve"> 99837 </t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3921,77 +3889,59 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
+          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>251.57</v>
+        <v>3.6</v>
       </c>
       <c r="G103" t="n">
-        <v>64.40000000000001</v>
+        <v>695.9</v>
       </c>
       <c r="H103" t="n">
-        <v>64.40000000000001</v>
+        <v>695.9</v>
       </c>
       <c r="I103" t="n">
-        <v>16201.1</v>
+        <v>2505.24</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>9.1.3</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>87259</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 9 </t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F104" t="n">
-        <v>251.57</v>
-      </c>
-      <c r="G104" t="n">
-        <v>114.86</v>
-      </c>
-      <c r="H104" t="n">
-        <v>114.86</v>
-      </c>
+          <t>PAV - 7</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="n">
-        <v>28895.33</v>
+        <v>189321</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t xml:space="preserve"> 9.1 </t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>PAREDES</t>
+          <t>PISOS</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -3999,57 +3949,57 @@
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="n">
-        <v>71423.75</v>
+        <v>83053.31</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>9.2.1</t>
+          <t xml:space="preserve"> 9.1.1 </t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15.05.520 </t>
+          <t xml:space="preserve"> 101964 </t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>CPOS</t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
+          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>m³</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>6.48</v>
+        <v>251.57</v>
       </c>
       <c r="G106" t="n">
-        <v>2701.69</v>
+        <v>150.88</v>
       </c>
       <c r="H106" t="n">
-        <v>2701.69</v>
+        <v>150.88</v>
       </c>
       <c r="I106" t="n">
-        <v>17506.95</v>
+        <v>37956.88</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>9.2.2</t>
+          <t xml:space="preserve"> 9.1.2 </t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>89467</t>
+          <t xml:space="preserve"> 90930 </t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4059,7 +4009,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
+          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4068,27 +4018,27 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>488.2</v>
+        <v>251.57</v>
       </c>
       <c r="G107" t="n">
-        <v>80.97</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H107" t="n">
-        <v>80.97</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="I107" t="n">
-        <v>39529.55</v>
+        <v>16201.1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>9.2.3</t>
+          <t xml:space="preserve"> 9.1.3 </t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>87905</t>
+          <t xml:space="preserve"> 87259 </t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4098,7 +4048,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
+          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4107,87 +4057,87 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>488.2</v>
+        <v>251.57</v>
       </c>
       <c r="G108" t="n">
-        <v>8.369999999999999</v>
+        <v>114.86</v>
       </c>
       <c r="H108" t="n">
-        <v>8.369999999999999</v>
+        <v>114.86</v>
       </c>
       <c r="I108" t="n">
-        <v>4086.23</v>
+        <v>28895.33</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>9.2.4</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>87543</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 9.2 </t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
-          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F109" t="n">
-        <v>488.2</v>
-      </c>
-      <c r="G109" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="H109" t="n">
-        <v>21.1</v>
-      </c>
+          <t>PAREDES</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="n">
-        <v>10301.02</v>
+        <v>71423.75</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>9.3</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr"/>
+          <t xml:space="preserve"> 9.2.1 </t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15.05.520 </t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>CPOS</t>
+        </is>
+      </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>ESQUADRIAS</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>m³</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="G110" t="n">
+        <v>2701.69</v>
+      </c>
+      <c r="H110" t="n">
+        <v>2701.69</v>
+      </c>
       <c r="I110" t="n">
-        <v>34843.94</v>
+        <v>17506.95</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>9.3.1</t>
+          <t xml:space="preserve"> 9.2.2 </t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>91328</t>
+          <t xml:space="preserve"> 89467 </t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4197,36 +4147,36 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>12</v>
+        <v>488.2</v>
       </c>
       <c r="G111" t="n">
-        <v>702.16</v>
+        <v>80.97</v>
       </c>
       <c r="H111" t="n">
-        <v>702.16</v>
+        <v>80.97</v>
       </c>
       <c r="I111" t="n">
-        <v>8425.92</v>
+        <v>39529.55</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>9.3.2</t>
+          <t xml:space="preserve"> 9.2.3 </t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>94570</t>
+          <t xml:space="preserve"> 87905 </t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4236,7 +4186,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4245,27 +4195,27 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>42.03</v>
+        <v>488.2</v>
       </c>
       <c r="G112" t="n">
-        <v>336.13</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H112" t="n">
-        <v>336.13</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="I112" t="n">
-        <v>14127.54</v>
+        <v>4086.23</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>9.3.3</t>
+          <t xml:space="preserve"> 9.2.4 </t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>94559</t>
+          <t xml:space="preserve"> 87543 </t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4275,7 +4225,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4284,108 +4234,126 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>13.79</v>
+        <v>488.2</v>
       </c>
       <c r="G113" t="n">
-        <v>709.59</v>
+        <v>21.1</v>
       </c>
       <c r="H113" t="n">
-        <v>709.59</v>
+        <v>21.1</v>
       </c>
       <c r="I113" t="n">
-        <v>9785.24</v>
+        <v>10301.02</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>9.3.4</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>99837</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 9.3 </t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr">
         <is>
-          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F114" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="G114" t="n">
-        <v>695.9</v>
-      </c>
-      <c r="H114" t="n">
-        <v>695.9</v>
-      </c>
+          <t>ESQUADRIAS</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="n">
-        <v>2505.24</v>
+        <v>34843.94</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr"/>
+          <t xml:space="preserve"> 9.3.1 </t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 91328 </t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>PAV - 8</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
+          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>12</v>
+      </c>
+      <c r="G115" t="n">
+        <v>702.16</v>
+      </c>
+      <c r="H115" t="n">
+        <v>702.16</v>
+      </c>
       <c r="I115" t="n">
-        <v>189321</v>
+        <v>8425.92</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>10.1</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr"/>
+          <t xml:space="preserve"> 9.3.2 </t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 94570 </t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>PISOS</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
+          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>42.03</v>
+      </c>
+      <c r="G116" t="n">
+        <v>336.13</v>
+      </c>
+      <c r="H116" t="n">
+        <v>336.13</v>
+      </c>
       <c r="I116" t="n">
-        <v>83053.31</v>
+        <v>14127.54</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>10.1.1</t>
+          <t xml:space="preserve"> 9.3.3 </t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>101964</t>
+          <t xml:space="preserve"> 94559 </t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4395,7 +4363,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
+          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4404,27 +4372,27 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>251.57</v>
+        <v>13.79</v>
       </c>
       <c r="G117" t="n">
-        <v>150.88</v>
+        <v>709.59</v>
       </c>
       <c r="H117" t="n">
-        <v>150.88</v>
+        <v>709.59</v>
       </c>
       <c r="I117" t="n">
-        <v>37956.88</v>
+        <v>9785.24</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>10.1.2</t>
+          <t xml:space="preserve"> 9.3.4 </t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>90930</t>
+          <t xml:space="preserve"> 99837 </t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4434,77 +4402,59 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
+          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>251.57</v>
+        <v>3.6</v>
       </c>
       <c r="G118" t="n">
-        <v>64.40000000000001</v>
+        <v>695.9</v>
       </c>
       <c r="H118" t="n">
-        <v>64.40000000000001</v>
+        <v>695.9</v>
       </c>
       <c r="I118" t="n">
-        <v>16201.1</v>
+        <v>2505.24</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>10.1.3</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>87259</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 10 </t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
-          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F119" t="n">
-        <v>251.57</v>
-      </c>
-      <c r="G119" t="n">
-        <v>114.86</v>
-      </c>
-      <c r="H119" t="n">
-        <v>114.86</v>
-      </c>
+          <t>PAV - 8</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="n">
-        <v>28895.33</v>
+        <v>189321</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t xml:space="preserve"> 10.1 </t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
-          <t>PAREDES</t>
+          <t>PISOS</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -4512,57 +4462,57 @@
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="n">
-        <v>71423.75</v>
+        <v>83053.31</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>10.2.1</t>
+          <t xml:space="preserve"> 10.1.1 </t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15.05.520 </t>
+          <t xml:space="preserve"> 101964 </t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>CPOS</t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
+          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>m³</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>6.48</v>
+        <v>251.57</v>
       </c>
       <c r="G121" t="n">
-        <v>2701.69</v>
+        <v>150.88</v>
       </c>
       <c r="H121" t="n">
-        <v>2701.69</v>
+        <v>150.88</v>
       </c>
       <c r="I121" t="n">
-        <v>17506.95</v>
+        <v>37956.88</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>10.2.2</t>
+          <t xml:space="preserve"> 10.1.2 </t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>89467</t>
+          <t xml:space="preserve"> 90930 </t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4572,7 +4522,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
+          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4581,27 +4531,27 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>488.2</v>
+        <v>251.57</v>
       </c>
       <c r="G122" t="n">
-        <v>80.97</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H122" t="n">
-        <v>80.97</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="I122" t="n">
-        <v>39529.55</v>
+        <v>16201.1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>10.2.3</t>
+          <t xml:space="preserve"> 10.1.3 </t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>87905</t>
+          <t xml:space="preserve"> 87259 </t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4611,7 +4561,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
+          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4620,87 +4570,87 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>488.2</v>
+        <v>251.57</v>
       </c>
       <c r="G123" t="n">
-        <v>8.369999999999999</v>
+        <v>114.86</v>
       </c>
       <c r="H123" t="n">
-        <v>8.369999999999999</v>
+        <v>114.86</v>
       </c>
       <c r="I123" t="n">
-        <v>4086.23</v>
+        <v>28895.33</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>10.2.4</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>87543</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 10.2 </t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
         <is>
-          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F124" t="n">
-        <v>488.2</v>
-      </c>
-      <c r="G124" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="H124" t="n">
-        <v>21.1</v>
-      </c>
+          <t>PAREDES</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="n">
-        <v>10301.02</v>
+        <v>71423.75</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>10.3</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr"/>
-      <c r="C125" t="inlineStr"/>
+          <t xml:space="preserve"> 10.2.1 </t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15.05.520 </t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>CPOS</t>
+        </is>
+      </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>ESQUADRIAS</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr"/>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>m³</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="G125" t="n">
+        <v>2701.69</v>
+      </c>
+      <c r="H125" t="n">
+        <v>2701.69</v>
+      </c>
       <c r="I125" t="n">
-        <v>34843.94</v>
+        <v>17506.95</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>10.3.1</t>
+          <t xml:space="preserve"> 10.2.2 </t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>91328</t>
+          <t xml:space="preserve"> 89467 </t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4710,36 +4660,36 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>12</v>
+        <v>488.2</v>
       </c>
       <c r="G126" t="n">
-        <v>702.16</v>
+        <v>80.97</v>
       </c>
       <c r="H126" t="n">
-        <v>702.16</v>
+        <v>80.97</v>
       </c>
       <c r="I126" t="n">
-        <v>8425.92</v>
+        <v>39529.55</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>10.3.2</t>
+          <t xml:space="preserve"> 10.2.3 </t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>94570</t>
+          <t xml:space="preserve"> 87905 </t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4749,7 +4699,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4758,27 +4708,27 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>42.03</v>
+        <v>488.2</v>
       </c>
       <c r="G127" t="n">
-        <v>336.13</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H127" t="n">
-        <v>336.13</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="I127" t="n">
-        <v>14127.54</v>
+        <v>4086.23</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>10.3.3</t>
+          <t xml:space="preserve"> 10.2.4 </t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>94559</t>
+          <t xml:space="preserve"> 87543 </t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4788,7 +4738,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -4797,108 +4747,126 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>13.79</v>
+        <v>488.2</v>
       </c>
       <c r="G128" t="n">
-        <v>709.59</v>
+        <v>21.1</v>
       </c>
       <c r="H128" t="n">
-        <v>709.59</v>
+        <v>21.1</v>
       </c>
       <c r="I128" t="n">
-        <v>9785.24</v>
+        <v>10301.02</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>10.3.4</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>99837</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 10.3 </t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
-          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F129" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="G129" t="n">
-        <v>695.9</v>
-      </c>
-      <c r="H129" t="n">
-        <v>695.9</v>
-      </c>
+          <t>ESQUADRIAS</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="n">
-        <v>2505.24</v>
+        <v>34843.94</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr"/>
-      <c r="C130" t="inlineStr"/>
+          <t xml:space="preserve"> 10.3.1 </t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 91328 </t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>PAV - 9</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr"/>
+          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>12</v>
+      </c>
+      <c r="G130" t="n">
+        <v>702.16</v>
+      </c>
+      <c r="H130" t="n">
+        <v>702.16</v>
+      </c>
       <c r="I130" t="n">
-        <v>189321</v>
+        <v>8425.92</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>11.1</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr"/>
-      <c r="C131" t="inlineStr"/>
+          <t xml:space="preserve"> 10.3.2 </t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 94570 </t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>PISOS</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-      <c r="H131" t="inlineStr"/>
+          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>42.03</v>
+      </c>
+      <c r="G131" t="n">
+        <v>336.13</v>
+      </c>
+      <c r="H131" t="n">
+        <v>336.13</v>
+      </c>
       <c r="I131" t="n">
-        <v>83053.31</v>
+        <v>14127.54</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>11.1.1</t>
+          <t xml:space="preserve"> 10.3.3 </t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>101964</t>
+          <t xml:space="preserve"> 94559 </t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4908,7 +4876,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
+          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4917,27 +4885,27 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>251.57</v>
+        <v>13.79</v>
       </c>
       <c r="G132" t="n">
-        <v>150.88</v>
+        <v>709.59</v>
       </c>
       <c r="H132" t="n">
-        <v>150.88</v>
+        <v>709.59</v>
       </c>
       <c r="I132" t="n">
-        <v>37956.88</v>
+        <v>9785.24</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>11.1.2</t>
+          <t xml:space="preserve"> 10.3.4 </t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>90930</t>
+          <t xml:space="preserve"> 99837 </t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4947,77 +4915,59 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
+          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>251.57</v>
+        <v>3.6</v>
       </c>
       <c r="G133" t="n">
-        <v>64.40000000000001</v>
+        <v>695.9</v>
       </c>
       <c r="H133" t="n">
-        <v>64.40000000000001</v>
+        <v>695.9</v>
       </c>
       <c r="I133" t="n">
-        <v>16201.1</v>
+        <v>2505.24</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>11.1.3</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>87259</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 11 </t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
         <is>
-          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F134" t="n">
-        <v>251.57</v>
-      </c>
-      <c r="G134" t="n">
-        <v>114.86</v>
-      </c>
-      <c r="H134" t="n">
-        <v>114.86</v>
-      </c>
+          <t>PAV - 9</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="n">
-        <v>28895.33</v>
+        <v>189321</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t xml:space="preserve"> 11.1 </t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
-          <t>PAREDES</t>
+          <t>PISOS</t>
         </is>
       </c>
       <c r="E135" t="inlineStr"/>
@@ -5025,57 +4975,57 @@
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="n">
-        <v>71423.75</v>
+        <v>83053.31</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>11.2.1</t>
+          <t xml:space="preserve"> 11.1.1 </t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15.05.520 </t>
+          <t xml:space="preserve"> 101964 </t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>CPOS</t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
+          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>m³</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>6.48</v>
+        <v>251.57</v>
       </c>
       <c r="G136" t="n">
-        <v>2701.69</v>
+        <v>150.88</v>
       </c>
       <c r="H136" t="n">
-        <v>2701.69</v>
+        <v>150.88</v>
       </c>
       <c r="I136" t="n">
-        <v>17506.95</v>
+        <v>37956.88</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>11.2.2</t>
+          <t xml:space="preserve"> 11.1.2 </t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>89467</t>
+          <t xml:space="preserve"> 90930 </t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5085,7 +5035,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
+          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -5094,27 +5044,27 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>488.2</v>
+        <v>251.57</v>
       </c>
       <c r="G137" t="n">
-        <v>80.97</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H137" t="n">
-        <v>80.97</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="I137" t="n">
-        <v>39529.55</v>
+        <v>16201.1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>11.2.3</t>
+          <t xml:space="preserve"> 11.1.3 </t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>87905</t>
+          <t xml:space="preserve"> 87259 </t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5124,7 +5074,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
+          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -5133,87 +5083,87 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>488.2</v>
+        <v>251.57</v>
       </c>
       <c r="G138" t="n">
-        <v>8.369999999999999</v>
+        <v>114.86</v>
       </c>
       <c r="H138" t="n">
-        <v>8.369999999999999</v>
+        <v>114.86</v>
       </c>
       <c r="I138" t="n">
-        <v>4086.23</v>
+        <v>28895.33</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>11.2.4</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>87543</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 11.2 </t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
         <is>
-          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F139" t="n">
-        <v>488.2</v>
-      </c>
-      <c r="G139" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="H139" t="n">
-        <v>21.1</v>
-      </c>
+          <t>PAREDES</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="n">
-        <v>10301.02</v>
+        <v>71423.75</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>11.3</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr"/>
-      <c r="C140" t="inlineStr"/>
+          <t xml:space="preserve"> 11.2.1 </t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15.05.520 </t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>CPOS</t>
+        </is>
+      </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>ESQUADRIAS</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-      <c r="H140" t="inlineStr"/>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>m³</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="G140" t="n">
+        <v>2701.69</v>
+      </c>
+      <c r="H140" t="n">
+        <v>2701.69</v>
+      </c>
       <c r="I140" t="n">
-        <v>34843.94</v>
+        <v>17506.95</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>11.3.1</t>
+          <t xml:space="preserve"> 11.2.2 </t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>91328</t>
+          <t xml:space="preserve"> 89467 </t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5223,36 +5173,36 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>12</v>
+        <v>488.2</v>
       </c>
       <c r="G141" t="n">
-        <v>702.16</v>
+        <v>80.97</v>
       </c>
       <c r="H141" t="n">
-        <v>702.16</v>
+        <v>80.97</v>
       </c>
       <c r="I141" t="n">
-        <v>8425.92</v>
+        <v>39529.55</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>11.3.2</t>
+          <t xml:space="preserve"> 11.2.3 </t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>94570</t>
+          <t xml:space="preserve"> 87905 </t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5262,7 +5212,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -5271,27 +5221,27 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>42.03</v>
+        <v>488.2</v>
       </c>
       <c r="G142" t="n">
-        <v>336.13</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H142" t="n">
-        <v>336.13</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="I142" t="n">
-        <v>14127.54</v>
+        <v>4086.23</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>11.3.3</t>
+          <t xml:space="preserve"> 11.2.4 </t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>94559</t>
+          <t xml:space="preserve"> 87543 </t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5301,7 +5251,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -5310,108 +5260,126 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>13.79</v>
+        <v>488.2</v>
       </c>
       <c r="G143" t="n">
-        <v>709.59</v>
+        <v>21.1</v>
       </c>
       <c r="H143" t="n">
-        <v>709.59</v>
+        <v>21.1</v>
       </c>
       <c r="I143" t="n">
-        <v>9785.24</v>
+        <v>10301.02</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>11.3.4</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>99837</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 11.3 </t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr">
         <is>
-          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F144" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="G144" t="n">
-        <v>695.9</v>
-      </c>
-      <c r="H144" t="n">
-        <v>695.9</v>
-      </c>
+          <t>ESQUADRIAS</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="n">
-        <v>2505.24</v>
+        <v>34843.94</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr"/>
-      <c r="C145" t="inlineStr"/>
+          <t xml:space="preserve"> 11.3.1 </t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 91328 </t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>PAV - 10</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr"/>
+          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>12</v>
+      </c>
+      <c r="G145" t="n">
+        <v>702.16</v>
+      </c>
+      <c r="H145" t="n">
+        <v>702.16</v>
+      </c>
       <c r="I145" t="n">
-        <v>188834.69</v>
+        <v>8425.92</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>12.1</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr"/>
-      <c r="C146" t="inlineStr"/>
+          <t xml:space="preserve"> 11.3.2 </t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 94570 </t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>PISOS</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-      <c r="H146" t="inlineStr"/>
+          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>42.03</v>
+      </c>
+      <c r="G146" t="n">
+        <v>336.13</v>
+      </c>
+      <c r="H146" t="n">
+        <v>336.13</v>
+      </c>
       <c r="I146" t="n">
-        <v>83053.31</v>
+        <v>14127.54</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>12.1.1</t>
+          <t xml:space="preserve"> 11.3.3 </t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>101964</t>
+          <t xml:space="preserve"> 94559 </t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5421,7 +5389,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
+          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5430,27 +5398,27 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>251.57</v>
+        <v>13.79</v>
       </c>
       <c r="G147" t="n">
-        <v>150.88</v>
+        <v>709.59</v>
       </c>
       <c r="H147" t="n">
-        <v>150.88</v>
+        <v>709.59</v>
       </c>
       <c r="I147" t="n">
-        <v>37956.88</v>
+        <v>9785.24</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>12.1.2</t>
+          <t xml:space="preserve"> 11.3.4 </t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>90930</t>
+          <t xml:space="preserve"> 99837 </t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5460,77 +5428,59 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
+          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>251.57</v>
+        <v>3.6</v>
       </c>
       <c r="G148" t="n">
-        <v>64.40000000000001</v>
+        <v>695.9</v>
       </c>
       <c r="H148" t="n">
-        <v>64.40000000000001</v>
+        <v>695.9</v>
       </c>
       <c r="I148" t="n">
-        <v>16201.1</v>
+        <v>2505.24</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>12.1.3</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>87259</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 12 </t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr">
         <is>
-          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F149" t="n">
-        <v>251.57</v>
-      </c>
-      <c r="G149" t="n">
-        <v>114.86</v>
-      </c>
-      <c r="H149" t="n">
-        <v>114.86</v>
-      </c>
+          <t>PAV - 10</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="n">
-        <v>28895.33</v>
+        <v>188834.69</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t xml:space="preserve"> 12.1 </t>
         </is>
       </c>
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr">
         <is>
-          <t>PAREDES</t>
+          <t>PISOS</t>
         </is>
       </c>
       <c r="E150" t="inlineStr"/>
@@ -5538,57 +5488,57 @@
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="n">
-        <v>70937.44</v>
+        <v>83053.31</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>12.2.1</t>
+          <t xml:space="preserve"> 12.1.1 </t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15.05.520 </t>
+          <t xml:space="preserve"> 101964 </t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>CPOS</t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
+          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>m³</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>6.3</v>
+        <v>251.57</v>
       </c>
       <c r="G151" t="n">
-        <v>2701.69</v>
+        <v>150.88</v>
       </c>
       <c r="H151" t="n">
-        <v>2701.69</v>
+        <v>150.88</v>
       </c>
       <c r="I151" t="n">
-        <v>17020.64</v>
+        <v>37956.88</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>12.2.2</t>
+          <t xml:space="preserve"> 12.1.2 </t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>89467</t>
+          <t xml:space="preserve"> 90930 </t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5598,7 +5548,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
+          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -5607,27 +5557,27 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>488.2</v>
+        <v>251.57</v>
       </c>
       <c r="G152" t="n">
-        <v>80.97</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H152" t="n">
-        <v>80.97</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="I152" t="n">
-        <v>39529.55</v>
+        <v>16201.1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>12.2.3</t>
+          <t xml:space="preserve"> 12.1.3 </t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>87905</t>
+          <t xml:space="preserve"> 87259 </t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5637,7 +5587,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
+          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -5646,87 +5596,87 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>488.2</v>
+        <v>251.57</v>
       </c>
       <c r="G153" t="n">
-        <v>8.369999999999999</v>
+        <v>114.86</v>
       </c>
       <c r="H153" t="n">
-        <v>8.369999999999999</v>
+        <v>114.86</v>
       </c>
       <c r="I153" t="n">
-        <v>4086.23</v>
+        <v>28895.33</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>12.2.4</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>87543</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 12.2 </t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr">
         <is>
-          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F154" t="n">
-        <v>488.2</v>
-      </c>
-      <c r="G154" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="H154" t="n">
-        <v>21.1</v>
-      </c>
+          <t>PAREDES</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="n">
-        <v>10301.02</v>
+        <v>70937.44</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>12.3</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr"/>
-      <c r="C155" t="inlineStr"/>
+          <t xml:space="preserve"> 12.2.1 </t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15.05.520 </t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>CPOS</t>
+        </is>
+      </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>ESQUADRIAS</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr"/>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>m³</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G155" t="n">
+        <v>2701.69</v>
+      </c>
+      <c r="H155" t="n">
+        <v>2701.69</v>
+      </c>
       <c r="I155" t="n">
-        <v>34843.94</v>
+        <v>17020.64</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>12.3.1</t>
+          <t xml:space="preserve"> 12.2.2 </t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>91328</t>
+          <t xml:space="preserve"> 89467 </t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5736,36 +5686,36 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>12</v>
+        <v>488.2</v>
       </c>
       <c r="G156" t="n">
-        <v>702.16</v>
+        <v>80.97</v>
       </c>
       <c r="H156" t="n">
-        <v>702.16</v>
+        <v>80.97</v>
       </c>
       <c r="I156" t="n">
-        <v>8425.92</v>
+        <v>39529.55</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>12.3.2</t>
+          <t xml:space="preserve"> 12.2.3 </t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>94570</t>
+          <t xml:space="preserve"> 87905 </t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5775,7 +5725,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -5784,27 +5734,27 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>42.03</v>
+        <v>488.2</v>
       </c>
       <c r="G157" t="n">
-        <v>336.13</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H157" t="n">
-        <v>336.13</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="I157" t="n">
-        <v>14127.54</v>
+        <v>4086.23</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>12.3.3</t>
+          <t xml:space="preserve"> 12.2.4 </t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>94559</t>
+          <t xml:space="preserve"> 87543 </t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5814,7 +5764,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -5823,56 +5773,284 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>13.79</v>
+        <v>488.2</v>
       </c>
       <c r="G158" t="n">
-        <v>709.59</v>
+        <v>21.1</v>
       </c>
       <c r="H158" t="n">
-        <v>709.59</v>
+        <v>21.1</v>
       </c>
       <c r="I158" t="n">
-        <v>9785.24</v>
+        <v>10301.02</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>12.3.4</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>99837</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 12.3 </t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr">
         <is>
+          <t>ESQUADRIAS</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>34843.94</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12.3.1 </t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 91328 </t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>12</v>
+      </c>
+      <c r="G160" t="n">
+        <v>702.16</v>
+      </c>
+      <c r="H160" t="n">
+        <v>702.16</v>
+      </c>
+      <c r="I160" t="n">
+        <v>8425.92</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12.3.2 </t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 94570 </t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>42.03</v>
+      </c>
+      <c r="G161" t="n">
+        <v>336.13</v>
+      </c>
+      <c r="H161" t="n">
+        <v>336.13</v>
+      </c>
+      <c r="I161" t="n">
+        <v>14127.54</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12.3.3 </t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 94559 </t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="G162" t="n">
+        <v>709.59</v>
+      </c>
+      <c r="H162" t="n">
+        <v>709.59</v>
+      </c>
+      <c r="I162" t="n">
+        <v>9785.24</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12.3.4 </t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 99837 </t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
           <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="F159" t="n">
+      <c r="F163" t="n">
         <v>3.6</v>
       </c>
-      <c r="G159" t="n">
+      <c r="G163" t="n">
         <v>695.9</v>
       </c>
-      <c r="H159" t="n">
+      <c r="H163" t="n">
         <v>695.9</v>
       </c>
-      <c r="I159" t="n">
+      <c r="I163" t="n">
         <v>2505.24</v>
       </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr"/>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr"/>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Total sem BDI</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="n">
+        <v>1945452.28</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr"/>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Total do BDI</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr"/>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Total Geral</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="n">
+        <v>1945452.28</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr"/>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>_______________________________________________________________
+Elias Lobato
+Outros</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Planilha Ajustada.xlsx
+++ b/Planilha Ajustada.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I169"/>
+  <dimension ref="A1:I159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,151 +422,201 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr"/>
-      <c r="B1" t="inlineStr"/>
-      <c r="C1" t="inlineStr"/>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Código</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Banco</t>
+        </is>
+      </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Obra</t>
+          <t>Descrição</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Bancos</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr"/>
+          <t>Und</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Quant.</t>
+        </is>
+      </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>B.D.I.</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr"/>
+          <t>Valor Unit</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Valor Unit com BDI</t>
+        </is>
+      </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Encargos Sociais</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ORÇAMENTO NO SISTEMA OrçaFascio Prime DE DEMONSTRAÇÃO GERAL - TORRE DE APARTAMENTOS 10 PAV</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SINAPI - 06/2021 - São Paulo
-SBC - 08/2021 - São Paulo
-CPOS - 07/2021 - São Paulo
-FDE - 04/2021 - São Paulo
-</t>
-        </is>
-      </c>
+          <t>SERVIÇOS PRELIMINARES</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 0,0%</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Não Desonerado: embutido nos preços unitário dos insumos de mão de obra, de acordo com as bases.</t>
-        </is>
+      <c r="I2" t="n">
+        <v>127600.4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Erro, formato não reconhecido pela SBC</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SBC</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>O orçamento abaixo tem apenas o intuito demonstrativo para ser usado como modelo de estrutura que deverá ter o Excel para a importação para o sistema, não é um orçamento oficial de nenhuma obra</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>CAIXA DERIVACAO TIPO T 1X1 PRF 25 BRANCO DT-52440-00 DUTOTEC</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>um</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>159.54</v>
+      </c>
+      <c r="H3" t="n">
+        <v>159.54</v>
+      </c>
+      <c r="I3" t="n">
+        <v>159.54</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Orçamento Sintético</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>1.2.1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Erro, formato não reconhecido pela SBC</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SBC</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>PROJETO DE INSTALACAO HIDRAULICA EM EDIFICACOES</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>650</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8872.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Item</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Código</t>
+          <t>98458</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Descrição</t>
+          <t>TAPUME COM COMPENSADO DE MADEIRA. AF_05/2018</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Und</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Quant.</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Valor Unit</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Valor Unit com BDI</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>126.08</v>
+      </c>
+      <c r="H5" t="n">
+        <v>126.08</v>
+      </c>
+      <c r="I5" t="n">
+        <v>126080</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 </t>
+          <t>2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SERVIÇOS PRELIMINARES</t>
+          <t>FUNDAÇÕES</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -574,137 +624,137 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>127600.4</v>
+        <v>56665.52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01.01</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>teste</t>
+          <t>00098681</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SBC</t>
+          <t>SINAPI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CAIXA DERIVACAO TIPO T 1X1 PRF 25 BRANCO DT-52440-00 DUTOTEC</t>
+          <t>PISO CIMENTADO, TRAÇO 1:3 (CIMENTO E AREIA), ACABAMENTO RÚSTICO, ESPESSURA 2,0 CM, PREPARO MECÂNICO DA ARGAMASSA. AF_09/2020</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>um</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>585.63</v>
       </c>
       <c r="G7" t="n">
-        <v>159.54</v>
+        <v>27.69</v>
       </c>
       <c r="H7" t="n">
-        <v>159.54</v>
+        <v>27.69</v>
       </c>
       <c r="I7" t="n">
-        <v>159.54</v>
+        <v>16216.09</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01.02.01</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Erro, formato não reconhecido pela SBC</t>
+          <t>15.05.520</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SBC</t>
+          <t>CPOS</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PROJETO DE INSTALACAO HIDRAULICA EM EDIFICACOES</t>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>m³</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>650</v>
+        <v>11.34</v>
       </c>
       <c r="G8" t="n">
-        <v>13.65</v>
+        <v>2701.69</v>
       </c>
       <c r="H8" t="n">
-        <v>13.65</v>
+        <v>2701.69</v>
       </c>
       <c r="I8" t="n">
-        <v>8872.5</v>
+        <v>30637.16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01.03 </t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>98458</t>
+          <t>Erro, formato não reconhecido pela CPOS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CPOS</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>TAPUME COM COMPENSADO DE MADEIRA. AF_05/2018</t>
+          <t>Abraçadeira dentada para travamento em ferro fundido, predial SMU DN= 50 mm</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>un</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1000</v>
+        <v>85.51000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>126.08</v>
+        <v>114.75</v>
       </c>
       <c r="H9" t="n">
-        <v>126.08</v>
+        <v>114.75</v>
       </c>
       <c r="I9" t="n">
-        <v>126080</v>
+        <v>9812.27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 </t>
+          <t>3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FUNDAÇÕES</t>
+          <t>PAV - 1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -712,158 +762,156 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>56665.52</v>
+        <v>143875.09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.1 </t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>00098681</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PISO CIMENTADO, TRAÇO 1:3 (CIMENTO E AREIA), ACABAMENTO RÚSTICO, ESPESSURA 2,0 CM, PREPARO MECÂNICO DA ARGAMASSA. AF_09/2020</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>585.63</v>
-      </c>
-      <c r="G11" t="n">
-        <v>27.69</v>
-      </c>
-      <c r="H11" t="n">
-        <v>27.69</v>
-      </c>
+          <t>PISOS</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>16216.09</v>
+        <v>37607.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.2 </t>
+          <t>3.1.1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>15.05.520</t>
+          <t>3009304</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CPOS</t>
+          <t>SICRO3</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
+          <t>Trilho TR45, comprimento de 120 m (TLS), sobre dormente de concreto, bitola mista, taxa de dormentação de 1.667 un/km, tala de junção de 6 furos e fixação elástica Pandrol - posicionamento e assentamento mecanizado</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>m³</t>
+          <t>km</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>11.34</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>2701.69</v>
+        <v>1453769.69</v>
       </c>
       <c r="H12" t="n">
-        <v>2701.69</v>
-      </c>
-      <c r="I12" t="n">
-        <v>30637.16</v>
-      </c>
+        <v>1453769.69</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.3 </t>
+          <t>3.1.2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Erro, formato não reconhecido pela SINAPI</t>
+          <t>30093</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>SICRO3</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM) FBK = 14,0 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO COLHER DE PEDREIRO. AF_12/2014</t>
+          <t>Solda elétrica por caldeamento para trilho TR45, comprimento de até 24 m, em via com dormente de madeira para formação de barra ou trilho longo soldado</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>um</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>85.51000000000001</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>114.75</v>
+        <v>234.78</v>
       </c>
       <c r="H13" t="n">
-        <v>114.75</v>
+        <v>234.78</v>
       </c>
       <c r="I13" t="n">
-        <v>9812.27</v>
+        <v>347.11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3 </t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+          <t>3.1.3</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>87259</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PAV - 1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="G14" t="n">
+        <v>114.86</v>
+      </c>
+      <c r="H14" t="n">
+        <v>114.86</v>
+      </c>
       <c r="I14" t="n">
-        <v>143875.09</v>
+        <v>619.09</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1 </t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PISOS</t>
+          <t>PAREDES</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -871,57 +919,57 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>37607.4</v>
+        <v>71423.75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1.1 </t>
+          <t>3.2.1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>101964</t>
+          <t>15.05.520</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CPOS</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>m³</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>242.85</v>
+        <v>6.48</v>
       </c>
       <c r="G16" t="n">
-        <v>150.88</v>
+        <v>2701.69</v>
       </c>
       <c r="H16" t="n">
-        <v>150.88</v>
+        <v>2701.69</v>
       </c>
       <c r="I16" t="n">
-        <v>36641.2</v>
+        <v>17506.95</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1.2 </t>
+          <t>3.2.2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>90930</t>
+          <t>89467</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -931,7 +979,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -940,27 +988,27 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5.39</v>
+        <v>488.2</v>
       </c>
       <c r="G17" t="n">
-        <v>64.40000000000001</v>
+        <v>80.97</v>
       </c>
       <c r="H17" t="n">
-        <v>64.40000000000001</v>
+        <v>80.97</v>
       </c>
       <c r="I17" t="n">
-        <v>347.11</v>
+        <v>39529.55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1.3 </t>
+          <t>3.2.3</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>87259</t>
+          <t>87905</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -970,7 +1018,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
+          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -979,87 +1027,87 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>5.39</v>
+        <v>488.2</v>
       </c>
       <c r="G18" t="n">
-        <v>114.86</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H18" t="n">
-        <v>114.86</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>619.09</v>
+        <v>4086.23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2 </t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+          <t>3.2.4</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>87543</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PAREDES</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>488.2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>21.1</v>
+      </c>
       <c r="I19" t="n">
-        <v>71423.75</v>
+        <v>10301.02</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2.1 </t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>15.05.520</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>CPOS</t>
-        </is>
-      </c>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>m³</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2701.69</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2701.69</v>
-      </c>
+          <t>ESQUADRIAS</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>17506.95</v>
+        <v>34843.94</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2.2 </t>
+          <t>3.3.1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>89467</t>
+          <t>91328</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1069,36 +1117,36 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
+          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>488.2</v>
+        <v>12</v>
       </c>
       <c r="G21" t="n">
-        <v>80.97</v>
+        <v>702.16</v>
       </c>
       <c r="H21" t="n">
-        <v>80.97</v>
+        <v>702.16</v>
       </c>
       <c r="I21" t="n">
-        <v>39529.55</v>
+        <v>8425.92</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2.3 </t>
+          <t>3.3.2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>87905</t>
+          <t>94570</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1108,7 +1156,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
+          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1117,27 +1165,27 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>488.2</v>
+        <v>42.03</v>
       </c>
       <c r="G22" t="n">
-        <v>8.369999999999999</v>
+        <v>336.13</v>
       </c>
       <c r="H22" t="n">
-        <v>8.369999999999999</v>
+        <v>336.13</v>
       </c>
       <c r="I22" t="n">
-        <v>4086.23</v>
+        <v>14127.54</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2.4 </t>
+          <t>3.3.3</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>87543</t>
+          <t>94559</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1147,7 +1195,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
+          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1156,126 +1204,108 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>488.2</v>
+        <v>13.79</v>
       </c>
       <c r="G23" t="n">
-        <v>21.1</v>
+        <v>709.59</v>
       </c>
       <c r="H23" t="n">
-        <v>21.1</v>
+        <v>709.59</v>
       </c>
       <c r="I23" t="n">
-        <v>10301.02</v>
+        <v>9785.24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3 </t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
+          <t>3.3.4</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>99837</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ESQUADRIAS</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G24" t="n">
+        <v>695.9</v>
+      </c>
+      <c r="H24" t="n">
+        <v>695.9</v>
+      </c>
       <c r="I24" t="n">
-        <v>34843.94</v>
+        <v>2505.24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3.1 </t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>91328</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>12</v>
-      </c>
-      <c r="G25" t="n">
-        <v>702.16</v>
-      </c>
-      <c r="H25" t="n">
-        <v>702.16</v>
-      </c>
+          <t>PAV - 2</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>8425.92</v>
+        <v>146275.29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3.2 </t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>94570</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>42.03</v>
-      </c>
-      <c r="G26" t="n">
-        <v>336.13</v>
-      </c>
-      <c r="H26" t="n">
-        <v>336.13</v>
-      </c>
+          <t>PISOS</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>14127.54</v>
+        <v>40007.6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3.3 </t>
+          <t>4.1.1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>94559</t>
+          <t>101964</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1285,7 +1315,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1294,27 +1324,27 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>13.79</v>
+        <v>251.57</v>
       </c>
       <c r="G27" t="n">
-        <v>709.59</v>
+        <v>150.88</v>
       </c>
       <c r="H27" t="n">
-        <v>709.59</v>
+        <v>150.88</v>
       </c>
       <c r="I27" t="n">
-        <v>9785.24</v>
+        <v>37956.88</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3.4 </t>
+          <t>4.1.2</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>99837</t>
+          <t>90930</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1324,59 +1354,77 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
+          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.6</v>
+        <v>11.44</v>
       </c>
       <c r="G28" t="n">
-        <v>695.9</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H28" t="n">
-        <v>695.9</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>2505.24</v>
+        <v>736.73</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4 </t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
+          <t>4.1.3</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>87259</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>PAV - 2</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
+          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="G29" t="n">
+        <v>114.86</v>
+      </c>
+      <c r="H29" t="n">
+        <v>114.86</v>
+      </c>
       <c r="I29" t="n">
-        <v>146275.29</v>
+        <v>1313.99</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.1 </t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PISOS</t>
+          <t>PAREDES</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -1384,57 +1432,57 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>40007.6</v>
+        <v>71423.75</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.1.1 </t>
+          <t>4.2.1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>101964</t>
+          <t>15.05.520</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CPOS</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>m³</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>251.57</v>
+        <v>6.48</v>
       </c>
       <c r="G31" t="n">
-        <v>150.88</v>
+        <v>2701.69</v>
       </c>
       <c r="H31" t="n">
-        <v>150.88</v>
+        <v>2701.69</v>
       </c>
       <c r="I31" t="n">
-        <v>37956.88</v>
+        <v>17506.95</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.1.2 </t>
+          <t>4.2.2</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>90930</t>
+          <t>89467</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1444,7 +1492,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1453,27 +1501,27 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>11.44</v>
+        <v>488.2</v>
       </c>
       <c r="G32" t="n">
-        <v>64.40000000000001</v>
+        <v>80.97</v>
       </c>
       <c r="H32" t="n">
-        <v>64.40000000000001</v>
+        <v>80.97</v>
       </c>
       <c r="I32" t="n">
-        <v>736.73</v>
+        <v>39529.55</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.1.3 </t>
+          <t>4.2.3</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>87259</t>
+          <t>87905</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1483,7 +1531,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
+          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1492,87 +1540,87 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>11.44</v>
+        <v>488.2</v>
       </c>
       <c r="G33" t="n">
-        <v>114.86</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H33" t="n">
-        <v>114.86</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="I33" t="n">
-        <v>1313.99</v>
+        <v>4086.23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.2 </t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
+          <t>4.2.4</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>87543</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>PAREDES</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
+          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>488.2</v>
+      </c>
+      <c r="G34" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>21.1</v>
+      </c>
       <c r="I34" t="n">
-        <v>71423.75</v>
+        <v>10301.02</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.2.1 </t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>15.05.520</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>CPOS</t>
-        </is>
-      </c>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>m³</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="G35" t="n">
-        <v>2701.69</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2701.69</v>
-      </c>
+          <t>ESQUADRIAS</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>17506.95</v>
+        <v>34843.94</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.2.2 </t>
+          <t>4.3.1</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>89467</t>
+          <t>91328</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1582,36 +1630,36 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
+          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>488.2</v>
+        <v>12</v>
       </c>
       <c r="G36" t="n">
-        <v>80.97</v>
+        <v>702.16</v>
       </c>
       <c r="H36" t="n">
-        <v>80.97</v>
+        <v>702.16</v>
       </c>
       <c r="I36" t="n">
-        <v>39529.55</v>
+        <v>8425.92</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.2.3 </t>
+          <t>4.3.2</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>87905</t>
+          <t>94570</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1621,7 +1669,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
+          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1630,27 +1678,27 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>488.2</v>
+        <v>42.03</v>
       </c>
       <c r="G37" t="n">
-        <v>8.369999999999999</v>
+        <v>336.13</v>
       </c>
       <c r="H37" t="n">
-        <v>8.369999999999999</v>
+        <v>336.13</v>
       </c>
       <c r="I37" t="n">
-        <v>4086.23</v>
+        <v>14127.54</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.2.4 </t>
+          <t>4.3.3</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>87543</t>
+          <t>94559</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1660,7 +1708,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
+          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1669,126 +1717,108 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>488.2</v>
+        <v>13.79</v>
       </c>
       <c r="G38" t="n">
-        <v>21.1</v>
+        <v>709.59</v>
       </c>
       <c r="H38" t="n">
-        <v>21.1</v>
+        <v>709.59</v>
       </c>
       <c r="I38" t="n">
-        <v>10301.02</v>
+        <v>9785.24</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.3 </t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
+          <t>4.3.4</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>99837</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ESQUADRIAS</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
+          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G39" t="n">
+        <v>695.9</v>
+      </c>
+      <c r="H39" t="n">
+        <v>695.9</v>
+      </c>
       <c r="I39" t="n">
-        <v>34843.94</v>
+        <v>2505.24</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.3.1 </t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>91328</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>12</v>
-      </c>
-      <c r="G40" t="n">
-        <v>702.16</v>
-      </c>
-      <c r="H40" t="n">
-        <v>702.16</v>
-      </c>
+          <t>PAV - 3</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
-        <v>8425.92</v>
+        <v>146275.29</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.3.2 </t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>94570</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t>5.1</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>42.03</v>
-      </c>
-      <c r="G41" t="n">
-        <v>336.13</v>
-      </c>
-      <c r="H41" t="n">
-        <v>336.13</v>
-      </c>
+          <t>PISOS</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
-        <v>14127.54</v>
+        <v>40007.6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.3.3 </t>
+          <t>5.1.1</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>94559</t>
+          <t>101964</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1798,7 +1828,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1807,27 +1837,27 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>13.79</v>
+        <v>251.57</v>
       </c>
       <c r="G42" t="n">
-        <v>709.59</v>
+        <v>150.88</v>
       </c>
       <c r="H42" t="n">
-        <v>709.59</v>
+        <v>150.88</v>
       </c>
       <c r="I42" t="n">
-        <v>9785.24</v>
+        <v>37956.88</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.3.4 </t>
+          <t>5.1.2</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>99837</t>
+          <t>90930</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1837,59 +1867,77 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
+          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.6</v>
+        <v>11.44</v>
       </c>
       <c r="G43" t="n">
-        <v>695.9</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H43" t="n">
-        <v>695.9</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="I43" t="n">
-        <v>2505.24</v>
+        <v>736.73</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5 </t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
+          <t>5.1.3</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>87259</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>PAV - 3</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
+          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="G44" t="n">
+        <v>114.86</v>
+      </c>
+      <c r="H44" t="n">
+        <v>114.86</v>
+      </c>
       <c r="I44" t="n">
-        <v>146275.29</v>
+        <v>1313.99</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.1 </t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>PISOS</t>
+          <t>PAREDES</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -1897,57 +1945,57 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
-        <v>40007.6</v>
+        <v>71423.75</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.1.1 </t>
+          <t>5.2.1</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>101964</t>
+          <t>15.05.520</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CPOS</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>m³</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>251.57</v>
+        <v>6.48</v>
       </c>
       <c r="G46" t="n">
-        <v>150.88</v>
+        <v>2701.69</v>
       </c>
       <c r="H46" t="n">
-        <v>150.88</v>
+        <v>2701.69</v>
       </c>
       <c r="I46" t="n">
-        <v>37956.88</v>
+        <v>17506.95</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.1.2 </t>
+          <t>5.2.2</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>90930</t>
+          <t>89467</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1957,7 +2005,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1966,27 +2014,27 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>11.44</v>
+        <v>488.2</v>
       </c>
       <c r="G47" t="n">
-        <v>64.40000000000001</v>
+        <v>80.97</v>
       </c>
       <c r="H47" t="n">
-        <v>64.40000000000001</v>
+        <v>80.97</v>
       </c>
       <c r="I47" t="n">
-        <v>736.73</v>
+        <v>39529.55</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.1.3 </t>
+          <t>5.2.3</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>87259</t>
+          <t>87905</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1996,7 +2044,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
+          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2005,87 +2053,87 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>11.44</v>
+        <v>488.2</v>
       </c>
       <c r="G48" t="n">
-        <v>114.86</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H48" t="n">
-        <v>114.86</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="I48" t="n">
-        <v>1313.99</v>
+        <v>4086.23</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.2 </t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
+          <t>5.2.4</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>87543</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>PAREDES</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
+          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>488.2</v>
+      </c>
+      <c r="G49" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="H49" t="n">
+        <v>21.1</v>
+      </c>
       <c r="I49" t="n">
-        <v>71423.75</v>
+        <v>10301.02</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.2.1 </t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>15.05.520</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>CPOS</t>
-        </is>
-      </c>
+          <t>5.3</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>m³</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="G50" t="n">
-        <v>2701.69</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2701.69</v>
-      </c>
+          <t>ESQUADRIAS</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
-        <v>17506.95</v>
+        <v>34843.94</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.2.2 </t>
+          <t>5.3.1</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>89467</t>
+          <t>91328</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2095,36 +2143,36 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
+          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>488.2</v>
+        <v>12</v>
       </c>
       <c r="G51" t="n">
-        <v>80.97</v>
+        <v>702.16</v>
       </c>
       <c r="H51" t="n">
-        <v>80.97</v>
+        <v>702.16</v>
       </c>
       <c r="I51" t="n">
-        <v>39529.55</v>
+        <v>8425.92</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.2.3 </t>
+          <t>5.3.2</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>87905</t>
+          <t>94570</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2134,7 +2182,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
+          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2143,27 +2191,27 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>488.2</v>
+        <v>42.03</v>
       </c>
       <c r="G52" t="n">
-        <v>8.369999999999999</v>
+        <v>336.13</v>
       </c>
       <c r="H52" t="n">
-        <v>8.369999999999999</v>
+        <v>336.13</v>
       </c>
       <c r="I52" t="n">
-        <v>4086.23</v>
+        <v>14127.54</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.2.4 </t>
+          <t>5.3.3</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>87543</t>
+          <t>94559</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2173,7 +2221,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
+          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2182,126 +2230,108 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>488.2</v>
+        <v>13.79</v>
       </c>
       <c r="G53" t="n">
-        <v>21.1</v>
+        <v>709.59</v>
       </c>
       <c r="H53" t="n">
-        <v>21.1</v>
+        <v>709.59</v>
       </c>
       <c r="I53" t="n">
-        <v>10301.02</v>
+        <v>9785.24</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.3 </t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
+          <t>5.3.4</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>99837</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>ESQUADRIAS</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
+          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G54" t="n">
+        <v>695.9</v>
+      </c>
+      <c r="H54" t="n">
+        <v>695.9</v>
+      </c>
       <c r="I54" t="n">
-        <v>34843.94</v>
+        <v>2505.24</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.3.1 </t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>91328</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>12</v>
-      </c>
-      <c r="G55" t="n">
-        <v>702.16</v>
-      </c>
-      <c r="H55" t="n">
-        <v>702.16</v>
-      </c>
+          <t>PAV - 4</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="n">
-        <v>8425.92</v>
+        <v>189321</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.3.2 </t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>94570</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t>6.1</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>42.03</v>
-      </c>
-      <c r="G56" t="n">
-        <v>336.13</v>
-      </c>
-      <c r="H56" t="n">
-        <v>336.13</v>
-      </c>
+          <t>PISOS</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
-        <v>14127.54</v>
+        <v>83053.31</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.3.3 </t>
+          <t>6.1.1</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>101964</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2311,7 +2341,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2320,27 +2350,27 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>13.79</v>
+        <v>251.57</v>
       </c>
       <c r="G57" t="n">
-        <v>709.59</v>
+        <v>150.88</v>
       </c>
       <c r="H57" t="n">
-        <v>709.59</v>
+        <v>150.88</v>
       </c>
       <c r="I57" t="n">
-        <v>9785.24</v>
+        <v>37956.88</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.3.4 </t>
+          <t>6.1.2</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>90930</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2350,59 +2380,77 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
+          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>3.6</v>
+        <v>251.57</v>
       </c>
       <c r="G58" t="n">
-        <v>695.9</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H58" t="n">
-        <v>695.9</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="I58" t="n">
-        <v>2505.24</v>
+        <v>16201.1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 </t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
+          <t>6.1.3</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>87259</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>PAV - 4</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
+          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>251.57</v>
+      </c>
+      <c r="G59" t="n">
+        <v>114.86</v>
+      </c>
+      <c r="H59" t="n">
+        <v>114.86</v>
+      </c>
       <c r="I59" t="n">
-        <v>189321</v>
+        <v>28895.33</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.1 </t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>PISOS</t>
+          <t>PAREDES</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -2410,57 +2458,57 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="n">
-        <v>83053.31</v>
+        <v>71423.75</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06.01.01 </t>
+          <t>6.2.1</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>15.05.520</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CPOS</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>m³</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>251.57</v>
+        <v>6.48</v>
       </c>
       <c r="G61" t="n">
-        <v>150.88</v>
+        <v>2701.69</v>
       </c>
       <c r="H61" t="n">
-        <v>150.88</v>
+        <v>2701.69</v>
       </c>
       <c r="I61" t="n">
-        <v>37956.88</v>
+        <v>17506.95</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.1.2 </t>
+          <t>6.2.2</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>89467</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2470,7 +2518,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2479,27 +2527,27 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>251.57</v>
+        <v>488.2</v>
       </c>
       <c r="G62" t="n">
-        <v>64.40000000000001</v>
+        <v>80.97</v>
       </c>
       <c r="H62" t="n">
-        <v>64.40000000000001</v>
+        <v>80.97</v>
       </c>
       <c r="I62" t="n">
-        <v>16201.1</v>
+        <v>39529.55</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.1.3 </t>
+          <t>6.2.3</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>87905</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2509,7 +2557,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
+          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2518,87 +2566,87 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>251.57</v>
+        <v>488.2</v>
       </c>
       <c r="G63" t="n">
-        <v>114.86</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H63" t="n">
-        <v>114.86</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="I63" t="n">
-        <v>28895.33</v>
+        <v>4086.23</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.2 </t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
+          <t>6.2.4</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>87543</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>PAREDES</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
+          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>488.2</v>
+      </c>
+      <c r="G64" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="H64" t="n">
+        <v>21.1</v>
+      </c>
       <c r="I64" t="n">
-        <v>71423.75</v>
+        <v>10301.02</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.2.1 </t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 15.05.520 </t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>CPOS</t>
-        </is>
-      </c>
+          <t>6.3</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>m³</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="G65" t="n">
-        <v>2701.69</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2701.69</v>
-      </c>
+          <t>ESQUADRIAS</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="n">
-        <v>17506.95</v>
+        <v>34843.94</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.2.2 </t>
+          <t>6.3.1</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>91328</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2608,36 +2656,36 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
+          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>488.2</v>
+        <v>12</v>
       </c>
       <c r="G66" t="n">
-        <v>80.97</v>
+        <v>702.16</v>
       </c>
       <c r="H66" t="n">
-        <v>80.97</v>
+        <v>702.16</v>
       </c>
       <c r="I66" t="n">
-        <v>39529.55</v>
+        <v>8425.92</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.2.3 </t>
+          <t>6.3.2</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>94570</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2647,7 +2695,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
+          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2656,27 +2704,27 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>488.2</v>
+        <v>42.03</v>
       </c>
       <c r="G67" t="n">
-        <v>8.369999999999999</v>
+        <v>336.13</v>
       </c>
       <c r="H67" t="n">
-        <v>8.369999999999999</v>
+        <v>336.13</v>
       </c>
       <c r="I67" t="n">
-        <v>4086.23</v>
+        <v>14127.54</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.2.4 </t>
+          <t>6.3.3</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>94559</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2686,7 +2734,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
+          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2695,126 +2743,108 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>488.2</v>
+        <v>13.79</v>
       </c>
       <c r="G68" t="n">
-        <v>21.1</v>
+        <v>709.59</v>
       </c>
       <c r="H68" t="n">
-        <v>21.1</v>
+        <v>709.59</v>
       </c>
       <c r="I68" t="n">
-        <v>10301.02</v>
+        <v>9785.24</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.3 </t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
+          <t>6.3.4</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>99837</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>ESQUADRIAS</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
+          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G69" t="n">
+        <v>695.9</v>
+      </c>
+      <c r="H69" t="n">
+        <v>695.9</v>
+      </c>
       <c r="I69" t="n">
-        <v>34843.94</v>
+        <v>2505.24</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.3.1 </t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 91328 </t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
-        <v>12</v>
-      </c>
-      <c r="G70" t="n">
-        <v>702.16</v>
-      </c>
-      <c r="H70" t="n">
-        <v>702.16</v>
-      </c>
+          <t>PAV - 5</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="n">
-        <v>8425.92</v>
+        <v>189321</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.3.2 </t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 94570 </t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t>7.1</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
-        <v>42.03</v>
-      </c>
-      <c r="G71" t="n">
-        <v>336.13</v>
-      </c>
-      <c r="H71" t="n">
-        <v>336.13</v>
-      </c>
+          <t>PISOS</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="n">
-        <v>14127.54</v>
+        <v>83053.31</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.3.3 </t>
+          <t>7.1.1</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>101964</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2824,7 +2854,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2833,27 +2863,27 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>13.79</v>
+        <v>251.57</v>
       </c>
       <c r="G72" t="n">
-        <v>709.59</v>
+        <v>150.88</v>
       </c>
       <c r="H72" t="n">
-        <v>709.59</v>
+        <v>150.88</v>
       </c>
       <c r="I72" t="n">
-        <v>9785.24</v>
+        <v>37956.88</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.3.4 </t>
+          <t>7.1.2</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>90930</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2863,59 +2893,77 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
+          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>3.6</v>
+        <v>251.57</v>
       </c>
       <c r="G73" t="n">
-        <v>695.9</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H73" t="n">
-        <v>695.9</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="I73" t="n">
-        <v>2505.24</v>
+        <v>16201.1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7 </t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
+          <t>7.1.3</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>87259</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>PAV - 5</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
+          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>251.57</v>
+      </c>
+      <c r="G74" t="n">
+        <v>114.86</v>
+      </c>
+      <c r="H74" t="n">
+        <v>114.86</v>
+      </c>
       <c r="I74" t="n">
-        <v>189321</v>
+        <v>28895.33</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.1 </t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>PISOS</t>
+          <t>PAREDES</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -2923,57 +2971,57 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="n">
-        <v>83053.31</v>
+        <v>71423.75</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.1.1 </t>
+          <t>7.2.1</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>15.05.520</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CPOS</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>m³</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>251.57</v>
+        <v>6.48</v>
       </c>
       <c r="G76" t="n">
-        <v>150.88</v>
+        <v>2701.69</v>
       </c>
       <c r="H76" t="n">
-        <v>150.88</v>
+        <v>2701.69</v>
       </c>
       <c r="I76" t="n">
-        <v>37956.88</v>
+        <v>17506.95</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.1.2 </t>
+          <t>7.2.2</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>89467</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2983,7 +3031,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2992,27 +3040,27 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>251.57</v>
+        <v>488.2</v>
       </c>
       <c r="G77" t="n">
-        <v>64.40000000000001</v>
+        <v>80.97</v>
       </c>
       <c r="H77" t="n">
-        <v>64.40000000000001</v>
+        <v>80.97</v>
       </c>
       <c r="I77" t="n">
-        <v>16201.1</v>
+        <v>39529.55</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.1.3 </t>
+          <t>7.2.3</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>87905</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3022,7 +3070,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
+          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3031,87 +3079,87 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>251.57</v>
+        <v>488.2</v>
       </c>
       <c r="G78" t="n">
-        <v>114.86</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H78" t="n">
-        <v>114.86</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="I78" t="n">
-        <v>28895.33</v>
+        <v>4086.23</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.2 </t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
+          <t>7.2.4</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>87543</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>PAREDES</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
+          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>488.2</v>
+      </c>
+      <c r="G79" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="H79" t="n">
+        <v>21.1</v>
+      </c>
       <c r="I79" t="n">
-        <v>71423.75</v>
+        <v>10301.02</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.2.1 </t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 15.05.520 </t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>CPOS</t>
-        </is>
-      </c>
+          <t>7.3</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>m³</t>
-        </is>
-      </c>
-      <c r="F80" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="G80" t="n">
-        <v>2701.69</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2701.69</v>
-      </c>
+          <t>ESQUADRIAS</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="n">
-        <v>17506.95</v>
+        <v>34843.94</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.2.2 </t>
+          <t>7.3.1</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>91328</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3121,36 +3169,36 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
+          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>488.2</v>
+        <v>12</v>
       </c>
       <c r="G81" t="n">
-        <v>80.97</v>
+        <v>702.16</v>
       </c>
       <c r="H81" t="n">
-        <v>80.97</v>
+        <v>702.16</v>
       </c>
       <c r="I81" t="n">
-        <v>39529.55</v>
+        <v>8425.92</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.2.3 </t>
+          <t>7.3.2</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>94570</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3160,7 +3208,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
+          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3169,27 +3217,27 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>488.2</v>
+        <v>42.03</v>
       </c>
       <c r="G82" t="n">
-        <v>8.369999999999999</v>
+        <v>336.13</v>
       </c>
       <c r="H82" t="n">
-        <v>8.369999999999999</v>
+        <v>336.13</v>
       </c>
       <c r="I82" t="n">
-        <v>4086.23</v>
+        <v>14127.54</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.2.4 </t>
+          <t>7.3.3</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>94559</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3199,7 +3247,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
+          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3208,126 +3256,108 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>488.2</v>
+        <v>13.79</v>
       </c>
       <c r="G83" t="n">
-        <v>21.1</v>
+        <v>709.59</v>
       </c>
       <c r="H83" t="n">
-        <v>21.1</v>
+        <v>709.59</v>
       </c>
       <c r="I83" t="n">
-        <v>10301.02</v>
+        <v>9785.24</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.3 </t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
+          <t>7.3.4</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>99837</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>ESQUADRIAS</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
+          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G84" t="n">
+        <v>695.9</v>
+      </c>
+      <c r="H84" t="n">
+        <v>695.9</v>
+      </c>
       <c r="I84" t="n">
-        <v>34843.94</v>
+        <v>2505.24</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.3.1 </t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 91328 </t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
-        <v>12</v>
-      </c>
-      <c r="G85" t="n">
-        <v>702.16</v>
-      </c>
-      <c r="H85" t="n">
-        <v>702.16</v>
-      </c>
+          <t>PAV - 6</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="n">
-        <v>8425.92</v>
+        <v>189321</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.3.2 </t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 94570 </t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t>8.1</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F86" t="n">
-        <v>42.03</v>
-      </c>
-      <c r="G86" t="n">
-        <v>336.13</v>
-      </c>
-      <c r="H86" t="n">
-        <v>336.13</v>
-      </c>
+          <t>PISOS</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="n">
-        <v>14127.54</v>
+        <v>83053.31</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.3.3 </t>
+          <t>8.1.1</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>101964</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3337,7 +3367,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3346,27 +3376,27 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>13.79</v>
+        <v>251.57</v>
       </c>
       <c r="G87" t="n">
-        <v>709.59</v>
+        <v>150.88</v>
       </c>
       <c r="H87" t="n">
-        <v>709.59</v>
+        <v>150.88</v>
       </c>
       <c r="I87" t="n">
-        <v>9785.24</v>
+        <v>37956.88</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.3.4 </t>
+          <t>8.1.2</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>90930</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3376,59 +3406,77 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
+          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>3.6</v>
+        <v>251.57</v>
       </c>
       <c r="G88" t="n">
-        <v>695.9</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H88" t="n">
-        <v>695.9</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="I88" t="n">
-        <v>2505.24</v>
+        <v>16201.1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8 </t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
+          <t>8.1.3</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>87259</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>PAV - 6</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
+          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>251.57</v>
+      </c>
+      <c r="G89" t="n">
+        <v>114.86</v>
+      </c>
+      <c r="H89" t="n">
+        <v>114.86</v>
+      </c>
       <c r="I89" t="n">
-        <v>189321</v>
+        <v>28895.33</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.1 </t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>PISOS</t>
+          <t>PAREDES</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -3436,57 +3484,57 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="n">
-        <v>83053.31</v>
+        <v>71423.75</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.1.1 </t>
+          <t>8.2.1</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>15.05.520</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CPOS</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>m³</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>251.57</v>
+        <v>6.48</v>
       </c>
       <c r="G91" t="n">
-        <v>150.88</v>
+        <v>2701.69</v>
       </c>
       <c r="H91" t="n">
-        <v>150.88</v>
+        <v>2701.69</v>
       </c>
       <c r="I91" t="n">
-        <v>37956.88</v>
+        <v>17506.95</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.1.2 </t>
+          <t>8.2.2</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>89467</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3496,7 +3544,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3505,27 +3553,27 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>251.57</v>
+        <v>488.2</v>
       </c>
       <c r="G92" t="n">
-        <v>64.40000000000001</v>
+        <v>80.97</v>
       </c>
       <c r="H92" t="n">
-        <v>64.40000000000001</v>
+        <v>80.97</v>
       </c>
       <c r="I92" t="n">
-        <v>16201.1</v>
+        <v>39529.55</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.1.3 </t>
+          <t>8.2.3</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>87905</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3535,7 +3583,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
+          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3544,87 +3592,87 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>251.57</v>
+        <v>488.2</v>
       </c>
       <c r="G93" t="n">
-        <v>114.86</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H93" t="n">
-        <v>114.86</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="I93" t="n">
-        <v>28895.33</v>
+        <v>4086.23</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.2 </t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
+          <t>8.2.4</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>87543</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>PAREDES</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
+          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>488.2</v>
+      </c>
+      <c r="G94" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="H94" t="n">
+        <v>21.1</v>
+      </c>
       <c r="I94" t="n">
-        <v>71423.75</v>
+        <v>10301.02</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.2.1 </t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 15.05.520 </t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>CPOS</t>
-        </is>
-      </c>
+          <t>8.3</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>m³</t>
-        </is>
-      </c>
-      <c r="F95" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="G95" t="n">
-        <v>2701.69</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2701.69</v>
-      </c>
+          <t>ESQUADRIAS</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="n">
-        <v>17506.95</v>
+        <v>34843.94</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.2.2 </t>
+          <t>8.3.1</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>91328</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3634,36 +3682,36 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
+          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>488.2</v>
+        <v>12</v>
       </c>
       <c r="G96" t="n">
-        <v>80.97</v>
+        <v>702.16</v>
       </c>
       <c r="H96" t="n">
-        <v>80.97</v>
+        <v>702.16</v>
       </c>
       <c r="I96" t="n">
-        <v>39529.55</v>
+        <v>8425.92</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.2.3 </t>
+          <t>8.3.2</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>94570</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3673,7 +3721,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
+          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3682,27 +3730,27 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>488.2</v>
+        <v>42.03</v>
       </c>
       <c r="G97" t="n">
-        <v>8.369999999999999</v>
+        <v>336.13</v>
       </c>
       <c r="H97" t="n">
-        <v>8.369999999999999</v>
+        <v>336.13</v>
       </c>
       <c r="I97" t="n">
-        <v>4086.23</v>
+        <v>14127.54</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.2.4 </t>
+          <t>8.3.3</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>94559</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3712,7 +3760,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
+          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3721,126 +3769,108 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>488.2</v>
+        <v>13.79</v>
       </c>
       <c r="G98" t="n">
-        <v>21.1</v>
+        <v>709.59</v>
       </c>
       <c r="H98" t="n">
-        <v>21.1</v>
+        <v>709.59</v>
       </c>
       <c r="I98" t="n">
-        <v>10301.02</v>
+        <v>9785.24</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.3 </t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
+          <t>8.3.4</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>99837</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>ESQUADRIAS</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
+          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G99" t="n">
+        <v>695.9</v>
+      </c>
+      <c r="H99" t="n">
+        <v>695.9</v>
+      </c>
       <c r="I99" t="n">
-        <v>34843.94</v>
+        <v>2505.24</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.3.1 </t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 91328 </t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="F100" t="n">
-        <v>12</v>
-      </c>
-      <c r="G100" t="n">
-        <v>702.16</v>
-      </c>
-      <c r="H100" t="n">
-        <v>702.16</v>
-      </c>
+          <t>PAV - 7</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="n">
-        <v>8425.92</v>
+        <v>189321</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.3.2 </t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 94570 </t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F101" t="n">
-        <v>42.03</v>
-      </c>
-      <c r="G101" t="n">
-        <v>336.13</v>
-      </c>
-      <c r="H101" t="n">
-        <v>336.13</v>
-      </c>
+          <t>PISOS</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="n">
-        <v>14127.54</v>
+        <v>83053.31</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.3.3 </t>
+          <t>9.1.1</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>101964</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3850,7 +3880,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3859,27 +3889,27 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>13.79</v>
+        <v>251.57</v>
       </c>
       <c r="G102" t="n">
-        <v>709.59</v>
+        <v>150.88</v>
       </c>
       <c r="H102" t="n">
-        <v>709.59</v>
+        <v>150.88</v>
       </c>
       <c r="I102" t="n">
-        <v>9785.24</v>
+        <v>37956.88</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.3.4 </t>
+          <t>9.1.2</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>90930</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3889,59 +3919,77 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
+          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>3.6</v>
+        <v>251.57</v>
       </c>
       <c r="G103" t="n">
-        <v>695.9</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H103" t="n">
-        <v>695.9</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="I103" t="n">
-        <v>2505.24</v>
+        <v>16201.1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9 </t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
+          <t>9.1.3</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>87259</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>PAV - 7</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
+          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>251.57</v>
+      </c>
+      <c r="G104" t="n">
+        <v>114.86</v>
+      </c>
+      <c r="H104" t="n">
+        <v>114.86</v>
+      </c>
       <c r="I104" t="n">
-        <v>189321</v>
+        <v>28895.33</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.1 </t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>PISOS</t>
+          <t>PAREDES</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -3949,57 +3997,57 @@
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="n">
-        <v>83053.31</v>
+        <v>71423.75</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.1.1 </t>
+          <t>9.2.1</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>15.05.520</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CPOS</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>m³</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>251.57</v>
+        <v>6.48</v>
       </c>
       <c r="G106" t="n">
-        <v>150.88</v>
+        <v>2701.69</v>
       </c>
       <c r="H106" t="n">
-        <v>150.88</v>
+        <v>2701.69</v>
       </c>
       <c r="I106" t="n">
-        <v>37956.88</v>
+        <v>17506.95</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.1.2 </t>
+          <t>9.2.2</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>89467</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4009,7 +4057,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4018,27 +4066,27 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>251.57</v>
+        <v>488.2</v>
       </c>
       <c r="G107" t="n">
-        <v>64.40000000000001</v>
+        <v>80.97</v>
       </c>
       <c r="H107" t="n">
-        <v>64.40000000000001</v>
+        <v>80.97</v>
       </c>
       <c r="I107" t="n">
-        <v>16201.1</v>
+        <v>39529.55</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.1.3 </t>
+          <t>9.2.3</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>87905</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4048,7 +4096,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
+          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4057,87 +4105,87 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>251.57</v>
+        <v>488.2</v>
       </c>
       <c r="G108" t="n">
-        <v>114.86</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H108" t="n">
-        <v>114.86</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="I108" t="n">
-        <v>28895.33</v>
+        <v>4086.23</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.2 </t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr"/>
+          <t>9.2.4</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>87543</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>PAREDES</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
+          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>488.2</v>
+      </c>
+      <c r="G109" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="H109" t="n">
+        <v>21.1</v>
+      </c>
       <c r="I109" t="n">
-        <v>71423.75</v>
+        <v>10301.02</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.2.1 </t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 15.05.520 </t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>CPOS</t>
-        </is>
-      </c>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>m³</t>
-        </is>
-      </c>
-      <c r="F110" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="G110" t="n">
-        <v>2701.69</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2701.69</v>
-      </c>
+          <t>ESQUADRIAS</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="n">
-        <v>17506.95</v>
+        <v>34843.94</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.2.2 </t>
+          <t>9.3.1</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>91328</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4147,36 +4195,36 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
+          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>488.2</v>
+        <v>12</v>
       </c>
       <c r="G111" t="n">
-        <v>80.97</v>
+        <v>702.16</v>
       </c>
       <c r="H111" t="n">
-        <v>80.97</v>
+        <v>702.16</v>
       </c>
       <c r="I111" t="n">
-        <v>39529.55</v>
+        <v>8425.92</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.2.3 </t>
+          <t>9.3.2</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>94570</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4186,7 +4234,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
+          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4195,27 +4243,27 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>488.2</v>
+        <v>42.03</v>
       </c>
       <c r="G112" t="n">
-        <v>8.369999999999999</v>
+        <v>336.13</v>
       </c>
       <c r="H112" t="n">
-        <v>8.369999999999999</v>
+        <v>336.13</v>
       </c>
       <c r="I112" t="n">
-        <v>4086.23</v>
+        <v>14127.54</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.2.4 </t>
+          <t>9.3.3</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>94559</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4225,7 +4273,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
+          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4234,126 +4282,108 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>488.2</v>
+        <v>13.79</v>
       </c>
       <c r="G113" t="n">
-        <v>21.1</v>
+        <v>709.59</v>
       </c>
       <c r="H113" t="n">
-        <v>21.1</v>
+        <v>709.59</v>
       </c>
       <c r="I113" t="n">
-        <v>10301.02</v>
+        <v>9785.24</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.3 </t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr"/>
+          <t>9.3.4</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>99837</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>ESQUADRIAS</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
+          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G114" t="n">
+        <v>695.9</v>
+      </c>
+      <c r="H114" t="n">
+        <v>695.9</v>
+      </c>
       <c r="I114" t="n">
-        <v>34843.94</v>
+        <v>2505.24</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.3.1 </t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 91328 </t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr">
         <is>
-          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="F115" t="n">
-        <v>12</v>
-      </c>
-      <c r="G115" t="n">
-        <v>702.16</v>
-      </c>
-      <c r="H115" t="n">
-        <v>702.16</v>
-      </c>
+          <t>PAV - 8</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="n">
-        <v>8425.92</v>
+        <v>189321</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.3.2 </t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 94570 </t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t>10.1</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr">
         <is>
-          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F116" t="n">
-        <v>42.03</v>
-      </c>
-      <c r="G116" t="n">
-        <v>336.13</v>
-      </c>
-      <c r="H116" t="n">
-        <v>336.13</v>
-      </c>
+          <t>PISOS</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="n">
-        <v>14127.54</v>
+        <v>83053.31</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.3.3 </t>
+          <t>10.1.1</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>101964</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4363,7 +4393,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4372,27 +4402,27 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>13.79</v>
+        <v>251.57</v>
       </c>
       <c r="G117" t="n">
-        <v>709.59</v>
+        <v>150.88</v>
       </c>
       <c r="H117" t="n">
-        <v>709.59</v>
+        <v>150.88</v>
       </c>
       <c r="I117" t="n">
-        <v>9785.24</v>
+        <v>37956.88</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.3.4 </t>
+          <t>10.1.2</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>90930</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4402,59 +4432,77 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
+          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>3.6</v>
+        <v>251.57</v>
       </c>
       <c r="G118" t="n">
-        <v>695.9</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H118" t="n">
-        <v>695.9</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="I118" t="n">
-        <v>2505.24</v>
+        <v>16201.1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10 </t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr"/>
+          <t>10.1.3</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>87259</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>PAV - 8</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr"/>
+          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>251.57</v>
+      </c>
+      <c r="G119" t="n">
+        <v>114.86</v>
+      </c>
+      <c r="H119" t="n">
+        <v>114.86</v>
+      </c>
       <c r="I119" t="n">
-        <v>189321</v>
+        <v>28895.33</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10.1 </t>
+          <t>10.2</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
-          <t>PISOS</t>
+          <t>PAREDES</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -4462,57 +4510,57 @@
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="n">
-        <v>83053.31</v>
+        <v>71423.75</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10.1.1 </t>
+          <t>10.2.1</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>15.05.520</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CPOS</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>m³</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>251.57</v>
+        <v>6.48</v>
       </c>
       <c r="G121" t="n">
-        <v>150.88</v>
+        <v>2701.69</v>
       </c>
       <c r="H121" t="n">
-        <v>150.88</v>
+        <v>2701.69</v>
       </c>
       <c r="I121" t="n">
-        <v>37956.88</v>
+        <v>17506.95</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10.1.2 </t>
+          <t>10.2.2</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>89467</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4522,7 +4570,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4531,27 +4579,27 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>251.57</v>
+        <v>488.2</v>
       </c>
       <c r="G122" t="n">
-        <v>64.40000000000001</v>
+        <v>80.97</v>
       </c>
       <c r="H122" t="n">
-        <v>64.40000000000001</v>
+        <v>80.97</v>
       </c>
       <c r="I122" t="n">
-        <v>16201.1</v>
+        <v>39529.55</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10.1.3 </t>
+          <t>10.2.3</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>87905</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4561,7 +4609,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
+          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4570,87 +4618,87 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>251.57</v>
+        <v>488.2</v>
       </c>
       <c r="G123" t="n">
-        <v>114.86</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H123" t="n">
-        <v>114.86</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="I123" t="n">
-        <v>28895.33</v>
+        <v>4086.23</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10.2 </t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr"/>
+          <t>10.2.4</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>87543</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>PAREDES</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr"/>
+          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>488.2</v>
+      </c>
+      <c r="G124" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="H124" t="n">
+        <v>21.1</v>
+      </c>
       <c r="I124" t="n">
-        <v>71423.75</v>
+        <v>10301.02</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10.2.1 </t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 15.05.520 </t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>CPOS</t>
-        </is>
-      </c>
+          <t>10.3</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>m³</t>
-        </is>
-      </c>
-      <c r="F125" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="G125" t="n">
-        <v>2701.69</v>
-      </c>
-      <c r="H125" t="n">
-        <v>2701.69</v>
-      </c>
+          <t>ESQUADRIAS</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="n">
-        <v>17506.95</v>
+        <v>34843.94</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10.2.2 </t>
+          <t>10.3.1</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>91328</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4660,36 +4708,36 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
+          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>488.2</v>
+        <v>12</v>
       </c>
       <c r="G126" t="n">
-        <v>80.97</v>
+        <v>702.16</v>
       </c>
       <c r="H126" t="n">
-        <v>80.97</v>
+        <v>702.16</v>
       </c>
       <c r="I126" t="n">
-        <v>39529.55</v>
+        <v>8425.92</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10.2.3 </t>
+          <t>10.3.2</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>94570</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4699,7 +4747,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
+          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4708,27 +4756,27 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>488.2</v>
+        <v>42.03</v>
       </c>
       <c r="G127" t="n">
-        <v>8.369999999999999</v>
+        <v>336.13</v>
       </c>
       <c r="H127" t="n">
-        <v>8.369999999999999</v>
+        <v>336.13</v>
       </c>
       <c r="I127" t="n">
-        <v>4086.23</v>
+        <v>14127.54</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10.2.4 </t>
+          <t>10.3.3</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>94559</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4738,7 +4786,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
+          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -4747,126 +4795,108 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>488.2</v>
+        <v>13.79</v>
       </c>
       <c r="G128" t="n">
-        <v>21.1</v>
+        <v>709.59</v>
       </c>
       <c r="H128" t="n">
-        <v>21.1</v>
+        <v>709.59</v>
       </c>
       <c r="I128" t="n">
-        <v>10301.02</v>
+        <v>9785.24</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10.3 </t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr"/>
-      <c r="C129" t="inlineStr"/>
+          <t>10.3.4</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>99837</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>ESQUADRIAS</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr"/>
+          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G129" t="n">
+        <v>695.9</v>
+      </c>
+      <c r="H129" t="n">
+        <v>695.9</v>
+      </c>
       <c r="I129" t="n">
-        <v>34843.94</v>
+        <v>2505.24</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10.3.1 </t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 91328 </t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
         <is>
-          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="F130" t="n">
-        <v>12</v>
-      </c>
-      <c r="G130" t="n">
-        <v>702.16</v>
-      </c>
-      <c r="H130" t="n">
-        <v>702.16</v>
-      </c>
+          <t>PAV - 9</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="n">
-        <v>8425.92</v>
+        <v>189321</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10.3.2 </t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 94570 </t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t>11.1</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr">
         <is>
-          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F131" t="n">
-        <v>42.03</v>
-      </c>
-      <c r="G131" t="n">
-        <v>336.13</v>
-      </c>
-      <c r="H131" t="n">
-        <v>336.13</v>
-      </c>
+          <t>PISOS</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="n">
-        <v>14127.54</v>
+        <v>83053.31</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10.3.3 </t>
+          <t>11.1.1</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>101964</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4876,7 +4906,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4885,27 +4915,27 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>13.79</v>
+        <v>251.57</v>
       </c>
       <c r="G132" t="n">
-        <v>709.59</v>
+        <v>150.88</v>
       </c>
       <c r="H132" t="n">
-        <v>709.59</v>
+        <v>150.88</v>
       </c>
       <c r="I132" t="n">
-        <v>9785.24</v>
+        <v>37956.88</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10.3.4 </t>
+          <t>11.1.2</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>90930</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4915,59 +4945,77 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
+          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>3.6</v>
+        <v>251.57</v>
       </c>
       <c r="G133" t="n">
-        <v>695.9</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H133" t="n">
-        <v>695.9</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="I133" t="n">
-        <v>2505.24</v>
+        <v>16201.1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11 </t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr"/>
-      <c r="C134" t="inlineStr"/>
+          <t>11.1.3</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>87259</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>PAV - 9</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr"/>
+          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>251.57</v>
+      </c>
+      <c r="G134" t="n">
+        <v>114.86</v>
+      </c>
+      <c r="H134" t="n">
+        <v>114.86</v>
+      </c>
       <c r="I134" t="n">
-        <v>189321</v>
+        <v>28895.33</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11.1 </t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
-          <t>PISOS</t>
+          <t>PAREDES</t>
         </is>
       </c>
       <c r="E135" t="inlineStr"/>
@@ -4975,57 +5023,57 @@
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="n">
-        <v>83053.31</v>
+        <v>71423.75</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11.1.1 </t>
+          <t>11.2.1</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>15.05.520</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CPOS</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>m³</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>251.57</v>
+        <v>6.48</v>
       </c>
       <c r="G136" t="n">
-        <v>150.88</v>
+        <v>2701.69</v>
       </c>
       <c r="H136" t="n">
-        <v>150.88</v>
+        <v>2701.69</v>
       </c>
       <c r="I136" t="n">
-        <v>37956.88</v>
+        <v>17506.95</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11.1.2 </t>
+          <t>11.2.2</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>89467</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5035,7 +5083,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -5044,27 +5092,27 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>251.57</v>
+        <v>488.2</v>
       </c>
       <c r="G137" t="n">
-        <v>64.40000000000001</v>
+        <v>80.97</v>
       </c>
       <c r="H137" t="n">
-        <v>64.40000000000001</v>
+        <v>80.97</v>
       </c>
       <c r="I137" t="n">
-        <v>16201.1</v>
+        <v>39529.55</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11.1.3 </t>
+          <t>11.2.3</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>87905</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5074,7 +5122,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
+          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -5083,87 +5131,87 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>251.57</v>
+        <v>488.2</v>
       </c>
       <c r="G138" t="n">
-        <v>114.86</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H138" t="n">
-        <v>114.86</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="I138" t="n">
-        <v>28895.33</v>
+        <v>4086.23</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11.2 </t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr"/>
-      <c r="C139" t="inlineStr"/>
+          <t>11.2.4</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>87543</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>PAREDES</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-      <c r="H139" t="inlineStr"/>
+          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>488.2</v>
+      </c>
+      <c r="G139" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="H139" t="n">
+        <v>21.1</v>
+      </c>
       <c r="I139" t="n">
-        <v>71423.75</v>
+        <v>10301.02</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11.2.1 </t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 15.05.520 </t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>CPOS</t>
-        </is>
-      </c>
+          <t>11.3</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>m³</t>
-        </is>
-      </c>
-      <c r="F140" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="G140" t="n">
-        <v>2701.69</v>
-      </c>
-      <c r="H140" t="n">
-        <v>2701.69</v>
-      </c>
+          <t>ESQUADRIAS</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="n">
-        <v>17506.95</v>
+        <v>34843.94</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11.2.2 </t>
+          <t>11.3.1</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>91328</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5173,36 +5221,36 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
+          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>488.2</v>
+        <v>12</v>
       </c>
       <c r="G141" t="n">
-        <v>80.97</v>
+        <v>702.16</v>
       </c>
       <c r="H141" t="n">
-        <v>80.97</v>
+        <v>702.16</v>
       </c>
       <c r="I141" t="n">
-        <v>39529.55</v>
+        <v>8425.92</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11.2.3 </t>
+          <t>11.3.2</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>94570</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5212,7 +5260,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
+          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -5221,27 +5269,27 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>488.2</v>
+        <v>42.03</v>
       </c>
       <c r="G142" t="n">
-        <v>8.369999999999999</v>
+        <v>336.13</v>
       </c>
       <c r="H142" t="n">
-        <v>8.369999999999999</v>
+        <v>336.13</v>
       </c>
       <c r="I142" t="n">
-        <v>4086.23</v>
+        <v>14127.54</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11.2.4 </t>
+          <t>11.3.3</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>94559</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5251,7 +5299,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
+          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -5260,126 +5308,108 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>488.2</v>
+        <v>13.79</v>
       </c>
       <c r="G143" t="n">
-        <v>21.1</v>
+        <v>709.59</v>
       </c>
       <c r="H143" t="n">
-        <v>21.1</v>
+        <v>709.59</v>
       </c>
       <c r="I143" t="n">
-        <v>10301.02</v>
+        <v>9785.24</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11.3 </t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr"/>
-      <c r="C144" t="inlineStr"/>
+          <t>11.3.4</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>99837</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>ESQUADRIAS</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr"/>
+          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G144" t="n">
+        <v>695.9</v>
+      </c>
+      <c r="H144" t="n">
+        <v>695.9</v>
+      </c>
       <c r="I144" t="n">
-        <v>34843.94</v>
+        <v>2505.24</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11.3.1 </t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 91328 </t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr">
         <is>
-          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="F145" t="n">
-        <v>12</v>
-      </c>
-      <c r="G145" t="n">
-        <v>702.16</v>
-      </c>
-      <c r="H145" t="n">
-        <v>702.16</v>
-      </c>
+          <t>PAV - 10</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="n">
-        <v>8425.92</v>
+        <v>188834.69</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11.3.2 </t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 94570 </t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
+          <t>12.1</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr">
         <is>
-          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F146" t="n">
-        <v>42.03</v>
-      </c>
-      <c r="G146" t="n">
-        <v>336.13</v>
-      </c>
-      <c r="H146" t="n">
-        <v>336.13</v>
-      </c>
+          <t>PISOS</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="n">
-        <v>14127.54</v>
+        <v>83053.31</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11.3.3 </t>
+          <t>12.1.1</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 94559 </t>
+          <t>101964</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5389,7 +5419,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
+          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5398,27 +5428,27 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>13.79</v>
+        <v>251.57</v>
       </c>
       <c r="G147" t="n">
-        <v>709.59</v>
+        <v>150.88</v>
       </c>
       <c r="H147" t="n">
-        <v>709.59</v>
+        <v>150.88</v>
       </c>
       <c r="I147" t="n">
-        <v>9785.24</v>
+        <v>37956.88</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11.3.4 </t>
+          <t>12.1.2</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99837 </t>
+          <t>90930</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5428,59 +5458,77 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
+          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>3.6</v>
+        <v>251.57</v>
       </c>
       <c r="G148" t="n">
-        <v>695.9</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H148" t="n">
-        <v>695.9</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="I148" t="n">
-        <v>2505.24</v>
+        <v>16201.1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 </t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr"/>
-      <c r="C149" t="inlineStr"/>
+          <t>12.1.3</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>87259</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>PAV - 10</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-      <c r="H149" t="inlineStr"/>
+          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>251.57</v>
+      </c>
+      <c r="G149" t="n">
+        <v>114.86</v>
+      </c>
+      <c r="H149" t="n">
+        <v>114.86</v>
+      </c>
       <c r="I149" t="n">
-        <v>188834.69</v>
+        <v>28895.33</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12.1 </t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr">
         <is>
-          <t>PISOS</t>
+          <t>PAREDES</t>
         </is>
       </c>
       <c r="E150" t="inlineStr"/>
@@ -5488,57 +5536,57 @@
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="n">
-        <v>83053.31</v>
+        <v>70937.44</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12.1.1 </t>
+          <t>12.2.1</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101964 </t>
+          <t>15.05.520</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>SINAPI</t>
+          <t>CPOS</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>LAJE PRÉ-MOLDADA UNIDIRECIONAL, BIAPOIADA, PARA FORRO, ENCHIMENTO EM CERÂMICA, VIGOTA CONVENCIONAL, ALTURA TOTAL DA LAJE (ENCHIMENTO+CAPA) = (8+3). AF_11/2020</t>
+          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>m³</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>251.57</v>
+        <v>6.3</v>
       </c>
       <c r="G151" t="n">
-        <v>150.88</v>
+        <v>2701.69</v>
       </c>
       <c r="H151" t="n">
-        <v>150.88</v>
+        <v>2701.69</v>
       </c>
       <c r="I151" t="n">
-        <v>37956.88</v>
+        <v>17020.64</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12.1.2 </t>
+          <t>12.2.2</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90930 </t>
+          <t>89467</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5548,7 +5596,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>CONTRAPISO ACÚSTICO EM ARGAMASSA TRAÇO 1:4 (CIMENTO E AREIA), PREPARO MECÂNICO COM BETONEIRA 400L, APLICADO EM ÁREAS SECAS MAIORES QUE 15M2, ESPESSURA 5CM. AF_10/2014</t>
+          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -5557,27 +5605,27 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>251.57</v>
+        <v>488.2</v>
       </c>
       <c r="G152" t="n">
-        <v>64.40000000000001</v>
+        <v>80.97</v>
       </c>
       <c r="H152" t="n">
-        <v>64.40000000000001</v>
+        <v>80.97</v>
       </c>
       <c r="I152" t="n">
-        <v>16201.1</v>
+        <v>39529.55</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12.1.3 </t>
+          <t>12.2.3</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87259 </t>
+          <t>87905</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5587,7 +5635,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 45X45 CM APLICADA EM AMBIENTES DE ÁREA ENTRE 5 M² E 10 M². AF_06/2014</t>
+          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -5596,87 +5644,87 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>251.57</v>
+        <v>488.2</v>
       </c>
       <c r="G153" t="n">
-        <v>114.86</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H153" t="n">
-        <v>114.86</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="I153" t="n">
-        <v>28895.33</v>
+        <v>4086.23</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12.2 </t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr"/>
-      <c r="C154" t="inlineStr"/>
+          <t>12.2.4</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>87543</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>PAREDES</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-      <c r="H154" t="inlineStr"/>
+          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>488.2</v>
+      </c>
+      <c r="G154" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="H154" t="n">
+        <v>21.1</v>
+      </c>
       <c r="I154" t="n">
-        <v>70937.44</v>
+        <v>10301.02</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12.2.1 </t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 15.05.520 </t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>CPOS</t>
-        </is>
-      </c>
+          <t>12.3</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Placas, vigas e pilares em concreto armado pré-moldado - fck= 35 MPa</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>m³</t>
-        </is>
-      </c>
-      <c r="F155" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="G155" t="n">
-        <v>2701.69</v>
-      </c>
-      <c r="H155" t="n">
-        <v>2701.69</v>
-      </c>
+          <t>ESQUADRIAS</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="n">
-        <v>17020.64</v>
+        <v>34843.94</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12.2.2 </t>
+          <t>12.3.1</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89467 </t>
+          <t>91328</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5686,36 +5734,36 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>ALVENARIA DE BLOCOS DE CONCRETO ESTRUTURAL 14X19X29 CM, (ESPESSURA 14 CM), FBK = 4,5 MPA, PARA PAREDES COM ÁREA LÍQUIDA MAIOR OU IGUAL A 6M², COM VÃOS, UTILIZANDO PALHETA. AF_12/2014</t>
+          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>488.2</v>
+        <v>12</v>
       </c>
       <c r="G156" t="n">
-        <v>80.97</v>
+        <v>702.16</v>
       </c>
       <c r="H156" t="n">
-        <v>80.97</v>
+        <v>702.16</v>
       </c>
       <c r="I156" t="n">
-        <v>39529.55</v>
+        <v>8425.92</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12.2.3 </t>
+          <t>12.3.2</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87905 </t>
+          <t>94570</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5725,7 +5773,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_06/2014</t>
+          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -5734,27 +5782,27 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>488.2</v>
+        <v>42.03</v>
       </c>
       <c r="G157" t="n">
-        <v>8.369999999999999</v>
+        <v>336.13</v>
       </c>
       <c r="H157" t="n">
-        <v>8.369999999999999</v>
+        <v>336.13</v>
       </c>
       <c r="I157" t="n">
-        <v>4086.23</v>
+        <v>14127.54</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12.2.4 </t>
+          <t>12.3.3</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87543 </t>
+          <t>94559</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5764,7 +5812,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>MASSA ÚNICA, PARA RECEBIMENTO DE PINTURA OU CERÂMICA, ARGAMASSA INDUSTRIALIZADA, PREPARO MECÂNICO, APLICADO COM EQUIPAMENTO DE MISTURA E PROJEÇÃO DE 1,5 M3/H EM FACES INTERNAS DE PAREDES, ESPESSURA DE 5MM, SEM EXECUÇÃO DE TALISCAS. AF_06/2014</t>
+          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -5773,284 +5821,56 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>488.2</v>
+        <v>13.79</v>
       </c>
       <c r="G158" t="n">
-        <v>21.1</v>
+        <v>709.59</v>
       </c>
       <c r="H158" t="n">
-        <v>21.1</v>
+        <v>709.59</v>
       </c>
       <c r="I158" t="n">
-        <v>10301.02</v>
+        <v>9785.24</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12.3 </t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr"/>
-      <c r="C159" t="inlineStr"/>
+          <t>12.3.4</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>99837</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>SINAPI</t>
+        </is>
+      </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>ESQUADRIAS</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr"/>
+          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G159" t="n">
+        <v>695.9</v>
+      </c>
+      <c r="H159" t="n">
+        <v>695.9</v>
+      </c>
       <c r="I159" t="n">
-        <v>34843.94</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 12.3.1 </t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 91328 </t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>KIT DE PORTA DE MADEIRA FRISADA, SEMI-OCA (LEVE OU MÉDIA), PADRÃO MÉDIO 60X210CM, ESPESSURA DE 3CM, ITENS INCLUSOS: DOBRADIÇAS, MONTAGEM E INSTALAÇÃO DO BATENTE, SEM FECHADURA - FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="F160" t="n">
-        <v>12</v>
-      </c>
-      <c r="G160" t="n">
-        <v>702.16</v>
-      </c>
-      <c r="H160" t="n">
-        <v>702.16</v>
-      </c>
-      <c r="I160" t="n">
-        <v>8425.92</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 12.3.2 </t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 94570 </t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>JANELA DE ALUMÍNIO DE CORRER COM 2 FOLHAS PARA VIDROS, COM VIDROS, BATENTE, ACABAMENTO COM ACETATO OU BRILHANTE E FERRAGENS. EXCLUSIVE ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F161" t="n">
-        <v>42.03</v>
-      </c>
-      <c r="G161" t="n">
-        <v>336.13</v>
-      </c>
-      <c r="H161" t="n">
-        <v>336.13</v>
-      </c>
-      <c r="I161" t="n">
-        <v>14127.54</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 12.3.3 </t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 94559 </t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>JANELA DE AÇO TIPO BASCULANTE PARA VIDROS, COM BATENTE, FERRAGENS E PINTURA ANTICORROSIVA. EXCLUSIVE VIDROS, ACABAMENTO, ALIZAR E CONTRAMARCO. FORNECIMENTO E INSTALAÇÃO. AF_12/2019</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F162" t="n">
-        <v>13.79</v>
-      </c>
-      <c r="G162" t="n">
-        <v>709.59</v>
-      </c>
-      <c r="H162" t="n">
-        <v>709.59</v>
-      </c>
-      <c r="I162" t="n">
-        <v>9785.24</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 12.3.4 </t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 99837 </t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>SINAPI</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>GUARDA-CORPO DE AÇO GALVANIZADO DE 1,10M, MONTANTES TUBULARES DE 1.1/4" ESPAÇADOS DE 1,20M, TRAVESSA SUPERIOR DE 1.1/2", GRADIL FORMADO POR TUBOS HORIZONTAIS DE 1" E VERTICAIS DE 3/4", FIXADO COM CHUMBADOR MECÂNICO. AF_04/2019_P</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F163" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="G163" t="n">
-        <v>695.9</v>
-      </c>
-      <c r="H163" t="n">
-        <v>695.9</v>
-      </c>
-      <c r="I163" t="n">
         <v>2505.24</v>
       </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr"/>
-      <c r="B164" t="inlineStr"/>
-      <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr"/>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr"/>
-      <c r="I164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr"/>
-      <c r="B165" t="inlineStr"/>
-      <c r="C165" t="inlineStr"/>
-      <c r="D165" t="inlineStr"/>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Total sem BDI</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr"/>
-      <c r="H165" t="n">
-        <v>1945452.28</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr"/>
-      <c r="B166" t="inlineStr"/>
-      <c r="C166" t="inlineStr"/>
-      <c r="D166" t="inlineStr"/>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Total do BDI</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr"/>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr"/>
-      <c r="B167" t="inlineStr"/>
-      <c r="C167" t="inlineStr"/>
-      <c r="D167" t="inlineStr"/>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Total Geral</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr"/>
-      <c r="H167" t="n">
-        <v>1945452.28</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr"/>
-      <c r="B168" t="inlineStr"/>
-      <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr"/>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-      <c r="H168" t="inlineStr"/>
-      <c r="I168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>_______________________________________________________________
-Elias Lobato
-Outros</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr"/>
-      <c r="C169" t="inlineStr"/>
-      <c r="D169" t="inlineStr"/>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-      <c r="H169" t="inlineStr"/>
-      <c r="I169" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
